--- a/source_data/Qual_8_data.xlsx
+++ b/source_data/Qual_8_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingyan.hu\Downloads\Step2_MinSetStaticCopy20210218_reformat&amp;upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingyan.hu\Downloads\Step2_MinSetStaticCopy_reformat&amp;upload\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0398A84F-814D-42A8-A021-E5EB7A1309BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA0EAD6-6D82-4B04-A60A-9FF3F46C388C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -671,9 +671,6 @@
     <t>Mongolia</t>
   </si>
   <si>
-    <t>SERIES_DESC</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -1301,9 +1298,6 @@
     <t>INDICATOR_DESC</t>
   </si>
   <si>
-    <t>SERIES_MINSET</t>
-  </si>
-  <si>
     <t>SDG_REGION</t>
   </si>
   <si>
@@ -1323,6 +1317,12 @@
   </si>
   <si>
     <t>SOURCE_YEAR</t>
+  </si>
+  <si>
+    <t>MINSET_SERIES</t>
+  </si>
+  <si>
+    <t>MINSET_SERIES_DESC</t>
   </si>
 </sst>
 </file>
@@ -2181,8 +2181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2203,49 +2203,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" t="s">
+        <v>421</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N1" t="s">
         <v>426</v>
       </c>
-      <c r="B1" t="s">
+      <c r="O1" t="s">
         <v>427</v>
-      </c>
-      <c r="C1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H1" t="s">
-        <v>215</v>
-      </c>
-      <c r="I1" t="s">
-        <v>213</v>
-      </c>
-      <c r="J1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K1" t="s">
-        <v>423</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N1" t="s">
-        <v>428</v>
-      </c>
-      <c r="O1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2271,7 +2271,7 @@
         <v>185</v>
       </c>
       <c r="H2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I2">
         <v>35.256941220000002</v>
@@ -2280,7 +2280,7 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L2" s="2">
         <v>10</v>
@@ -2312,10 +2312,10 @@
         <v>344</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I3">
         <v>114.0266445</v>
@@ -2324,7 +2324,7 @@
         <v>22.417499339999999</v>
       </c>
       <c r="K3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L3" s="2">
         <v>10</v>
@@ -2359,7 +2359,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I4">
         <v>54.197663480000003</v>
@@ -2368,7 +2368,7 @@
         <v>32.743708849999997</v>
       </c>
       <c r="K4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L4" s="2">
         <v>3</v>
@@ -2403,7 +2403,7 @@
         <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I5">
         <v>166.92312999999999</v>
@@ -2412,7 +2412,7 @@
         <v>-0.52874262299999997</v>
       </c>
       <c r="K5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L5" s="2">
         <v>3</v>
@@ -2447,7 +2447,7 @@
         <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I6">
         <v>134.57338780000001</v>
@@ -2456,7 +2456,7 @@
         <v>7.5023075910000001</v>
       </c>
       <c r="K6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L6" s="2">
         <v>3</v>
@@ -2491,7 +2491,7 @@
         <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I7">
         <v>-175.19599909999999</v>
@@ -2500,7 +2500,7 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L7" s="2">
         <v>3</v>
@@ -2535,7 +2535,7 @@
         <v>133</v>
       </c>
       <c r="H8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I8">
         <v>46.203674769999999</v>
@@ -2579,7 +2579,7 @@
         <v>136</v>
       </c>
       <c r="H9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I9">
         <v>29.956501589999998</v>
@@ -2588,7 +2588,7 @@
         <v>16.026430659999999</v>
       </c>
       <c r="K9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L9" s="2">
         <v>3</v>
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I10">
         <v>66.026881979999999</v>
@@ -2632,7 +2632,7 @@
         <v>33.831601990000003</v>
       </c>
       <c r="K10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L10" s="2">
         <v>4</v>
@@ -2667,7 +2667,7 @@
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I11">
         <v>89.176607880000006</v>
@@ -2676,7 +2676,7 @@
         <v>22.869616220000001</v>
       </c>
       <c r="K11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L11" s="2">
         <v>4</v>
@@ -2711,7 +2711,7 @@
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I12">
         <v>90.450984840000004</v>
@@ -2720,7 +2720,7 @@
         <v>27.395985679999999</v>
       </c>
       <c r="K12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L12" s="2">
         <v>4</v>
@@ -2755,7 +2755,7 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I13">
         <v>80.704896539999993</v>
@@ -2764,7 +2764,7 @@
         <v>7.6146933429999999</v>
       </c>
       <c r="K13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L13" s="2">
         <v>4</v>
@@ -2799,7 +2799,7 @@
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I14">
         <v>79.3608464</v>
@@ -2808,7 +2808,7 @@
         <v>22.346420739999999</v>
       </c>
       <c r="K14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L14" s="2">
         <v>4</v>
@@ -2843,7 +2843,7 @@
         <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I15">
         <v>73.096725460000002</v>
@@ -2852,7 +2852,7 @@
         <v>-0.61438502100000003</v>
       </c>
       <c r="K15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L15" s="2">
         <v>4</v>
@@ -2887,7 +2887,7 @@
         <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I16">
         <v>83.94678863</v>
@@ -2896,7 +2896,7 @@
         <v>28.25866332</v>
       </c>
       <c r="K16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L16" s="2">
         <v>4</v>
@@ -2931,7 +2931,7 @@
         <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I17">
         <v>68.804796839999995</v>
@@ -2940,7 +2940,7 @@
         <v>29.364916340000001</v>
       </c>
       <c r="K17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L17" s="2">
         <v>4</v>
@@ -2975,7 +2975,7 @@
         <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I18">
         <v>20.066609280000002</v>
@@ -2984,7 +2984,7 @@
         <v>41.138970069999999</v>
       </c>
       <c r="K18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L18" s="2">
         <v>4</v>
@@ -3019,7 +3019,7 @@
         <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I19">
         <v>1.5762574170000001</v>
@@ -3028,7 +3028,7 @@
         <v>42.545486109999999</v>
       </c>
       <c r="K19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L19" s="2">
         <v>4</v>
@@ -3063,7 +3063,7 @@
         <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I20">
         <v>134.34994119999999</v>
@@ -3072,7 +3072,7 @@
         <v>-25.577172019999999</v>
       </c>
       <c r="K20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L20" s="2">
         <v>4</v>
@@ -3107,7 +3107,7 @@
         <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I21">
         <v>14.141724719999999</v>
@@ -3116,7 +3116,7 @@
         <v>47.58704857</v>
       </c>
       <c r="K21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L21" s="2">
         <v>4</v>
@@ -3151,7 +3151,7 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I22">
         <v>4.6609764560000002</v>
@@ -3160,7 +3160,7 @@
         <v>50.641049750000001</v>
       </c>
       <c r="K22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L22" s="2">
         <v>4</v>
@@ -3195,7 +3195,7 @@
         <v>29</v>
       </c>
       <c r="H23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I23">
         <v>17.785843320000001</v>
@@ -3204,7 +3204,7 @@
         <v>44.168455479999999</v>
       </c>
       <c r="K23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L23" s="2">
         <v>4</v>
@@ -3239,7 +3239,7 @@
         <v>30</v>
       </c>
       <c r="H24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I24">
         <v>25.237631530000002</v>
@@ -3248,7 +3248,7 @@
         <v>42.757313230000001</v>
       </c>
       <c r="K24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L24" s="2">
         <v>4</v>
@@ -3283,7 +3283,7 @@
         <v>31</v>
       </c>
       <c r="H25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I25">
         <v>28.04940161</v>
@@ -3292,7 +3292,7 @@
         <v>53.541930749999999</v>
       </c>
       <c r="K25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L25" s="2">
         <v>4</v>
@@ -3327,7 +3327,7 @@
         <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I26">
         <v>-101.6575058</v>
@@ -3336,7 +3336,7 @@
         <v>57.723601909999999</v>
       </c>
       <c r="K26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L26" s="2">
         <v>4</v>
@@ -3371,7 +3371,7 @@
         <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I27">
         <v>17.958745530000002</v>
@@ -3380,7 +3380,7 @@
         <v>45.451722119999999</v>
       </c>
       <c r="K27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L27" s="2">
         <v>4</v>
@@ -3415,7 +3415,7 @@
         <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I28">
         <v>33.222859640000003</v>
@@ -3424,7 +3424,7 @@
         <v>35.056594369999999</v>
       </c>
       <c r="K28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L28" s="2">
         <v>4</v>
@@ -3456,10 +3456,10 @@
         <v>203</v>
       </c>
       <c r="G29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I29">
         <v>15.33151382</v>
@@ -3468,7 +3468,7 @@
         <v>49.739138709999999</v>
       </c>
       <c r="K29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L29" s="2">
         <v>4</v>
@@ -3503,7 +3503,7 @@
         <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I30">
         <v>9.3265712829999998</v>
@@ -3512,7 +3512,7 @@
         <v>56.038297210000003</v>
       </c>
       <c r="K30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L30" s="2">
         <v>4</v>
@@ -3547,7 +3547,7 @@
         <v>36</v>
       </c>
       <c r="H31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I31">
         <v>25.84093481</v>
@@ -3556,7 +3556,7 @@
         <v>58.684871719999997</v>
       </c>
       <c r="K31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L31" s="2">
         <v>4</v>
@@ -3591,7 +3591,7 @@
         <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I32">
         <v>23.308447000000001</v>
@@ -3600,7 +3600,7 @@
         <v>61.915867380000002</v>
       </c>
       <c r="K32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L32" s="2">
         <v>4</v>
@@ -3635,7 +3635,7 @@
         <v>38</v>
       </c>
       <c r="H33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I33">
         <v>2.4572881290000002</v>
@@ -3644,7 +3644,7 @@
         <v>46.626608609999998</v>
       </c>
       <c r="K33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L33" s="2">
         <v>4</v>
@@ -3679,7 +3679,7 @@
         <v>39</v>
       </c>
       <c r="H34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I34">
         <v>10.3806066</v>
@@ -3688,7 +3688,7 @@
         <v>51.088627430000003</v>
       </c>
       <c r="K34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L34" s="2">
         <v>4</v>
@@ -3723,7 +3723,7 @@
         <v>40</v>
       </c>
       <c r="H35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I35">
         <v>22.583078270000001</v>
@@ -3732,7 +3732,7 @@
         <v>39.47301873</v>
       </c>
       <c r="K35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L35" s="2">
         <v>4</v>
@@ -3767,7 +3767,7 @@
         <v>41</v>
       </c>
       <c r="H36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I36">
         <v>19.412215190000001</v>
@@ -3776,7 +3776,7 @@
         <v>47.1651448</v>
       </c>
       <c r="K36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L36" s="2">
         <v>4</v>
@@ -3811,7 +3811,7 @@
         <v>42</v>
       </c>
       <c r="H37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I37">
         <v>-19.021169660000002</v>
@@ -3820,7 +3820,7 @@
         <v>64.791347630000004</v>
       </c>
       <c r="K37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L37" s="2">
         <v>4</v>
@@ -3855,7 +3855,7 @@
         <v>43</v>
       </c>
       <c r="H38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I38">
         <v>-7.1214252719999998</v>
@@ -3864,7 +3864,7 @@
         <v>53.252740539999998</v>
       </c>
       <c r="K38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L38" s="2">
         <v>4</v>
@@ -3899,7 +3899,7 @@
         <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I39">
         <v>34.622779919999999</v>
@@ -3908,7 +3908,7 @@
         <v>31.061645519999999</v>
       </c>
       <c r="K39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L39" s="2">
         <v>4</v>
@@ -3943,7 +3943,7 @@
         <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I40">
         <v>12.570224270000001</v>
@@ -3952,7 +3952,7 @@
         <v>42.799172820000003</v>
       </c>
       <c r="K40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L40" s="2">
         <v>4</v>
@@ -3987,7 +3987,7 @@
         <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I41">
         <v>139.27161029999999</v>
@@ -3996,7 +3996,7 @@
         <v>36.655453899999998</v>
       </c>
       <c r="K41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L41" s="2">
         <v>4</v>
@@ -4031,7 +4031,7 @@
         <v>48</v>
       </c>
       <c r="H42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I42">
         <v>26.424618760000001</v>
@@ -4040,7 +4040,7 @@
         <v>56.641966359999998</v>
       </c>
       <c r="K42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L42" s="2">
         <v>4</v>
@@ -4075,7 +4075,7 @@
         <v>49</v>
       </c>
       <c r="H43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I43">
         <v>9.5529850189999994</v>
@@ -4084,7 +4084,7 @@
         <v>47.141670050000002</v>
       </c>
       <c r="K43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L43" s="2">
         <v>4</v>
@@ -4119,7 +4119,7 @@
         <v>50</v>
       </c>
       <c r="H44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I44">
         <v>23.905178070000002</v>
@@ -4128,7 +4128,7 @@
         <v>55.336803089999997</v>
       </c>
       <c r="K44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L44" s="2">
         <v>4</v>
@@ -4163,7 +4163,7 @@
         <v>51</v>
       </c>
       <c r="H45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I45">
         <v>6.0926565630000002</v>
@@ -4172,7 +4172,7 @@
         <v>49.776795380000003</v>
       </c>
       <c r="K45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L45" s="2">
         <v>4</v>
@@ -4207,7 +4207,7 @@
         <v>52</v>
       </c>
       <c r="H46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I46">
         <v>14.44617519</v>
@@ -4216,7 +4216,7 @@
         <v>35.891942749999998</v>
       </c>
       <c r="K46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L46" s="2">
         <v>4</v>
@@ -4251,7 +4251,7 @@
         <v>53</v>
       </c>
       <c r="H47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I47">
         <v>7.4242148139999999</v>
@@ -4260,7 +4260,7 @@
         <v>43.735329180000001</v>
       </c>
       <c r="K47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L47" s="2">
         <v>4</v>
@@ -4295,7 +4295,7 @@
         <v>54</v>
       </c>
       <c r="H48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I48">
         <v>28.465062400000001</v>
@@ -4304,7 +4304,7 @@
         <v>47.202367950000003</v>
       </c>
       <c r="K48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L48" s="2">
         <v>4</v>
@@ -4339,7 +4339,7 @@
         <v>55</v>
       </c>
       <c r="H49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I49">
         <v>19.252140239999999</v>
@@ -4348,7 +4348,7 @@
         <v>42.787170430000003</v>
       </c>
       <c r="K49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L49" s="2">
         <v>4</v>
@@ -4383,7 +4383,7 @@
         <v>56</v>
       </c>
       <c r="H50" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I50">
         <v>5.3314805679999999</v>
@@ -4392,7 +4392,7 @@
         <v>51.867288840000001</v>
       </c>
       <c r="K50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L50" s="2">
         <v>4</v>
@@ -4427,7 +4427,7 @@
         <v>57</v>
       </c>
       <c r="H51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I51">
         <v>170.47556729999999</v>
@@ -4436,7 +4436,7 @@
         <v>-43.987215679999998</v>
       </c>
       <c r="K51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L51" s="2">
         <v>4</v>
@@ -4471,7 +4471,7 @@
         <v>58</v>
       </c>
       <c r="H52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I52">
         <v>11.47846389</v>
@@ -4480,7 +4480,7 @@
         <v>61.34311134</v>
       </c>
       <c r="K52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L52" s="2">
         <v>4</v>
@@ -4515,7 +4515,7 @@
         <v>59</v>
       </c>
       <c r="H53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I53">
         <v>19.40660158</v>
@@ -4524,7 +4524,7 @@
         <v>52.122673300000002</v>
       </c>
       <c r="K53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L53" s="2">
         <v>4</v>
@@ -4559,7 +4559,7 @@
         <v>60</v>
       </c>
       <c r="H54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I54">
         <v>-7.9615998110000001</v>
@@ -4568,7 +4568,7 @@
         <v>39.68509315</v>
       </c>
       <c r="K54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L54" s="2">
         <v>4</v>
@@ -4603,7 +4603,7 @@
         <v>61</v>
       </c>
       <c r="H55" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I55">
         <v>24.98481009</v>
@@ -4612,7 +4612,7 @@
         <v>45.838935630000002</v>
       </c>
       <c r="K55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L55" s="2">
         <v>4</v>
@@ -4647,7 +4647,7 @@
         <v>62</v>
       </c>
       <c r="H56" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I56">
         <v>99.014049259999993</v>
@@ -4656,7 +4656,7 @@
         <v>61.618998490000003</v>
       </c>
       <c r="K56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L56" s="2">
         <v>4</v>
@@ -4691,7 +4691,7 @@
         <v>63</v>
       </c>
       <c r="H57" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I57">
         <v>12.46329038</v>
@@ -4700,7 +4700,7 @@
         <v>43.938417659999999</v>
       </c>
       <c r="K57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L57" s="2">
         <v>4</v>
@@ -4735,7 +4735,7 @@
         <v>64</v>
       </c>
       <c r="H58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I58">
         <v>20.805876000000001</v>
@@ -4744,7 +4744,7 @@
         <v>44.031456970000001</v>
       </c>
       <c r="K58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L58" s="2">
         <v>4</v>
@@ -4779,7 +4779,7 @@
         <v>65</v>
       </c>
       <c r="H59" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I59">
         <v>19.48495604</v>
@@ -4788,7 +4788,7 @@
         <v>48.707414460000003</v>
       </c>
       <c r="K59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L59" s="2">
         <v>4</v>
@@ -4823,7 +4823,7 @@
         <v>66</v>
       </c>
       <c r="H60" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I60">
         <v>14.82209486</v>
@@ -4832,7 +4832,7 @@
         <v>46.11958061</v>
       </c>
       <c r="K60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L60" s="2">
         <v>4</v>
@@ -4867,7 +4867,7 @@
         <v>67</v>
       </c>
       <c r="H61" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I61">
         <v>-3.5540782960000001</v>
@@ -4876,7 +4876,7 @@
         <v>40.392114720000002</v>
       </c>
       <c r="K61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L61" s="2">
         <v>4</v>
@@ -4911,7 +4911,7 @@
         <v>68</v>
       </c>
       <c r="H62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I62">
         <v>14.3775338</v>
@@ -4920,7 +4920,7 @@
         <v>60.601031089999999</v>
       </c>
       <c r="K62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L62" s="2">
         <v>4</v>
@@ -4955,7 +4955,7 @@
         <v>69</v>
       </c>
       <c r="H63" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I63">
         <v>8.2231579999999997</v>
@@ -4964,7 +4964,7 @@
         <v>46.96617097</v>
       </c>
       <c r="K63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L63" s="2">
         <v>4</v>
@@ -4999,7 +4999,7 @@
         <v>70</v>
       </c>
       <c r="H64" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I64">
         <v>31.402708019999999</v>
@@ -5008,7 +5008,7 @@
         <v>49.007359450000003</v>
       </c>
       <c r="K64" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L64" s="2">
         <v>4</v>
@@ -5043,7 +5043,7 @@
         <v>71</v>
       </c>
       <c r="H65" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I65">
         <v>21.700790900000001</v>
@@ -5052,7 +5052,7 @@
         <v>41.600480679999997</v>
       </c>
       <c r="K65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L65" s="2">
         <v>4</v>
@@ -5087,7 +5087,7 @@
         <v>72</v>
       </c>
       <c r="H66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I66">
         <v>-2.2383053899999998</v>
@@ -5096,7 +5096,7 @@
         <v>53.276917570000002</v>
       </c>
       <c r="K66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L66" s="2">
         <v>4</v>
@@ -5131,7 +5131,7 @@
         <v>76</v>
       </c>
       <c r="H67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I67">
         <v>2.6781642269999999</v>
@@ -5140,7 +5140,7 @@
         <v>28.15940032</v>
       </c>
       <c r="K67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L67" s="2">
         <v>4</v>
@@ -5175,7 +5175,7 @@
         <v>77</v>
       </c>
       <c r="H68" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I68">
         <v>18.029598499999999</v>
@@ -5184,7 +5184,7 @@
         <v>27.04042819</v>
       </c>
       <c r="K68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L68" s="2">
         <v>4</v>
@@ -5219,7 +5219,7 @@
         <v>78</v>
       </c>
       <c r="H69" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I69">
         <v>-6.2819428410000002</v>
@@ -5228,7 +5228,7 @@
         <v>31.844013100000002</v>
       </c>
       <c r="K69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L69" s="2">
         <v>4</v>
@@ -5263,7 +5263,7 @@
         <v>79</v>
       </c>
       <c r="H70" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I70">
         <v>9.5727374110000003</v>
@@ -5272,7 +5272,7 @@
         <v>34.114399710000001</v>
       </c>
       <c r="K70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L70" s="2">
         <v>4</v>
@@ -5307,7 +5307,7 @@
         <v>80</v>
       </c>
       <c r="H71" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I71">
         <v>29.774685340000001</v>
@@ -5316,7 +5316,7 @@
         <v>26.57438204</v>
       </c>
       <c r="K71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L71" s="2">
         <v>4</v>
@@ -5351,7 +5351,7 @@
         <v>81</v>
       </c>
       <c r="H72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I72">
         <v>160.15841169999999</v>
@@ -5360,7 +5360,7 @@
         <v>-9.6223917189999995</v>
       </c>
       <c r="K72" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L72" s="2">
         <v>4</v>
@@ -5395,7 +5395,7 @@
         <v>82</v>
       </c>
       <c r="H73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I73">
         <v>177.96608839999999</v>
@@ -5404,7 +5404,7 @@
         <v>-17.833015660000001</v>
       </c>
       <c r="K73" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L73" s="2">
         <v>4</v>
@@ -5439,7 +5439,7 @@
         <v>83</v>
       </c>
       <c r="H74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I74">
         <v>-157.5643005</v>
@@ -5448,7 +5448,7 @@
         <v>1.7688377319999999</v>
       </c>
       <c r="K74" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L74" s="2">
         <v>4</v>
@@ -5483,7 +5483,7 @@
         <v>85</v>
       </c>
       <c r="H75" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I75">
         <v>167.06797789999999</v>
@@ -5492,7 +5492,7 @@
         <v>-15.34445547</v>
       </c>
       <c r="K75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L75" s="2">
         <v>4</v>
@@ -5527,7 +5527,7 @@
         <v>86</v>
       </c>
       <c r="H76" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I76">
         <v>158.22521599999999</v>
@@ -5536,7 +5536,7 @@
         <v>6.8806700919999999</v>
       </c>
       <c r="K76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L76" s="2">
         <v>4</v>
@@ -5571,7 +5571,7 @@
         <v>87</v>
       </c>
       <c r="H77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I77">
         <v>171.0839119</v>
@@ -5580,7 +5580,7 @@
         <v>7.1102134970000002</v>
       </c>
       <c r="K77" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L77" s="2">
         <v>4</v>
@@ -5615,7 +5615,7 @@
         <v>89</v>
       </c>
       <c r="H78" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I78">
         <v>145.8587761</v>
@@ -5624,7 +5624,7 @@
         <v>-6.7560570770000004</v>
       </c>
       <c r="K78" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L78" s="2">
         <v>4</v>
@@ -5659,7 +5659,7 @@
         <v>91</v>
       </c>
       <c r="H79" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I79">
         <v>178.66796110000001</v>
@@ -5668,7 +5668,7 @@
         <v>-7.4600480710000001</v>
       </c>
       <c r="K79" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L79" s="2">
         <v>4</v>
@@ -5703,7 +5703,7 @@
         <v>92</v>
       </c>
       <c r="H80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I80">
         <v>-172.4430749</v>
@@ -5712,7 +5712,7 @@
         <v>-13.61541469</v>
       </c>
       <c r="K80" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L80" s="2">
         <v>4</v>
@@ -5747,7 +5747,7 @@
         <v>94</v>
       </c>
       <c r="H81" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I81">
         <v>17.578170620000002</v>
@@ -5791,7 +5791,7 @@
         <v>95</v>
       </c>
       <c r="H82" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I82">
         <v>23.81380223</v>
@@ -5835,7 +5835,7 @@
         <v>96</v>
       </c>
       <c r="H83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I83">
         <v>29.890809919999999</v>
@@ -5879,7 +5879,7 @@
         <v>98</v>
       </c>
       <c r="H84" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I84">
         <v>12.741982699999999</v>
@@ -5923,7 +5923,7 @@
         <v>99</v>
       </c>
       <c r="H85" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I85">
         <v>-23.63544151</v>
@@ -5967,7 +5967,7 @@
         <v>100</v>
       </c>
       <c r="H86" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I86">
         <v>20.93559492</v>
@@ -6011,7 +6011,7 @@
         <v>101</v>
       </c>
       <c r="H87" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I87">
         <v>18.666184009999998</v>
@@ -6055,7 +6055,7 @@
         <v>102</v>
       </c>
       <c r="H88" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I88">
         <v>43.342345649999999</v>
@@ -6099,7 +6099,7 @@
         <v>103</v>
       </c>
       <c r="H89" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I89">
         <v>15.220526120000001</v>
@@ -6143,7 +6143,7 @@
         <v>104</v>
       </c>
       <c r="H90" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I90">
         <v>23.654965069999999</v>
@@ -6187,7 +6187,7 @@
         <v>105</v>
       </c>
       <c r="H91" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I91">
         <v>2.3399335940000001</v>
@@ -6231,7 +6231,7 @@
         <v>106</v>
       </c>
       <c r="H92" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I92">
         <v>10.46535826</v>
@@ -6275,7 +6275,7 @@
         <v>107</v>
       </c>
       <c r="H93" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I93">
         <v>39.635052960000003</v>
@@ -6319,7 +6319,7 @@
         <v>108</v>
       </c>
       <c r="H94" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I94">
         <v>38.110742889999997</v>
@@ -6363,7 +6363,7 @@
         <v>109</v>
       </c>
       <c r="H95" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I95">
         <v>42.182747069999998</v>
@@ -6407,7 +6407,7 @@
         <v>110</v>
       </c>
       <c r="H96" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I96">
         <v>11.787277469999999</v>
@@ -6451,7 +6451,7 @@
         <v>111</v>
       </c>
       <c r="H97" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I97">
         <v>-15.39944785</v>
@@ -6495,7 +6495,7 @@
         <v>112</v>
       </c>
       <c r="H98" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I98">
         <v>-1.205623522</v>
@@ -6539,7 +6539,7 @@
         <v>113</v>
       </c>
       <c r="H99" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I99">
         <v>-11.28173419</v>
@@ -6583,7 +6583,7 @@
         <v>114</v>
       </c>
       <c r="H100" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I100">
         <v>-5.5526900159999997</v>
@@ -6627,7 +6627,7 @@
         <v>115</v>
       </c>
       <c r="H101" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I101">
         <v>37.860968159999999</v>
@@ -6671,7 +6671,7 @@
         <v>116</v>
       </c>
       <c r="H102" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I102">
         <v>28.253621949999999</v>
@@ -6715,7 +6715,7 @@
         <v>117</v>
       </c>
       <c r="H103" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I103">
         <v>-9.3118790380000007</v>
@@ -6759,7 +6759,7 @@
         <v>118</v>
       </c>
       <c r="H104" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I104">
         <v>46.698233899999998</v>
@@ -6803,7 +6803,7 @@
         <v>119</v>
       </c>
       <c r="H105" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I105">
         <v>33.488462499999997</v>
@@ -6847,7 +6847,7 @@
         <v>120</v>
       </c>
       <c r="H106" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I106">
         <v>-3.5220160389999999</v>
@@ -6891,7 +6891,7 @@
         <v>121</v>
       </c>
       <c r="H107" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I107">
         <v>-10.33187259</v>
@@ -6935,7 +6935,7 @@
         <v>122</v>
       </c>
       <c r="H108" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I108">
         <v>57.568021999999999</v>
@@ -6979,7 +6979,7 @@
         <v>123</v>
       </c>
       <c r="H109" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I109">
         <v>38.184799409999997</v>
@@ -7023,7 +7023,7 @@
         <v>124</v>
       </c>
       <c r="H110" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I110">
         <v>17.219078849999999</v>
@@ -7067,7 +7067,7 @@
         <v>125</v>
       </c>
       <c r="H111" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I111">
         <v>9.4001678769999995</v>
@@ -7111,7 +7111,7 @@
         <v>126</v>
       </c>
       <c r="H112" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I112">
         <v>8.0973632559999995</v>
@@ -7155,7 +7155,7 @@
         <v>127</v>
       </c>
       <c r="H113" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I113">
         <v>-14.40182514</v>
@@ -7199,7 +7199,7 @@
         <v>128</v>
       </c>
       <c r="H114" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I114">
         <v>29.923101939999999</v>
@@ -7243,7 +7243,7 @@
         <v>129</v>
       </c>
       <c r="H115" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I115">
         <v>6.6097722650000001</v>
@@ -7287,7 +7287,7 @@
         <v>130</v>
       </c>
       <c r="H116" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I116">
         <v>-14.46636926</v>
@@ -7331,7 +7331,7 @@
         <v>131</v>
       </c>
       <c r="H117" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I117">
         <v>55.465615909999997</v>
@@ -7375,7 +7375,7 @@
         <v>132</v>
       </c>
       <c r="H118" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I118">
         <v>-11.783065840000001</v>
@@ -7419,7 +7419,7 @@
         <v>134</v>
       </c>
       <c r="H119" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I119">
         <v>24.671843549999998</v>
@@ -7463,7 +7463,7 @@
         <v>135</v>
       </c>
       <c r="H120" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I120">
         <v>29.86909584</v>
@@ -7504,10 +7504,10 @@
         <v>748</v>
       </c>
       <c r="G121" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H121" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I121">
         <v>31.501492880000001</v>
@@ -7551,7 +7551,7 @@
         <v>137</v>
       </c>
       <c r="H122" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I122">
         <v>0.97835764999999997</v>
@@ -7595,7 +7595,7 @@
         <v>138</v>
       </c>
       <c r="H123" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I123">
         <v>32.391004379999998</v>
@@ -7639,7 +7639,7 @@
         <v>139</v>
       </c>
       <c r="H124" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I124">
         <v>34.805211819999997</v>
@@ -7683,7 +7683,7 @@
         <v>140</v>
       </c>
       <c r="H125" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I125">
         <v>-1.7428438289999999</v>
@@ -7727,7 +7727,7 @@
         <v>141</v>
       </c>
       <c r="H126" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I126">
         <v>27.850328999999999</v>
@@ -7771,7 +7771,7 @@
         <v>143</v>
       </c>
       <c r="H127" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I127">
         <v>-61.799975500000002</v>
@@ -7815,7 +7815,7 @@
         <v>144</v>
       </c>
       <c r="H128" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I128">
         <v>-65.145632739999996</v>
@@ -7859,7 +7859,7 @@
         <v>145</v>
       </c>
       <c r="H129" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I129">
         <v>-78.051116629999996</v>
@@ -7903,7 +7903,7 @@
         <v>146</v>
       </c>
       <c r="H130" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I130">
         <v>-59.534648900000001</v>
@@ -7947,7 +7947,7 @@
         <v>147</v>
       </c>
       <c r="H131" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I131">
         <v>-64.662242840000005</v>
@@ -7991,7 +7991,7 @@
         <v>148</v>
       </c>
       <c r="H132" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I132">
         <v>-53.08432878</v>
@@ -8035,7 +8035,7 @@
         <v>149</v>
       </c>
       <c r="H133" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I133">
         <v>-88.701995539999999</v>
@@ -8079,7 +8079,7 @@
         <v>150</v>
       </c>
       <c r="H134" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I134">
         <v>-71.230290190000005</v>
@@ -8123,7 +8123,7 @@
         <v>151</v>
       </c>
       <c r="H135" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I135">
         <v>-73.074467510000005</v>
@@ -8167,7 +8167,7 @@
         <v>152</v>
       </c>
       <c r="H136" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I136">
         <v>-84.197127820000006</v>
@@ -8211,7 +8211,7 @@
         <v>153</v>
       </c>
       <c r="H137" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I137">
         <v>-79.544601439999994</v>
@@ -8255,7 +8255,7 @@
         <v>154</v>
       </c>
       <c r="H138" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I138">
         <v>-61.349375600000002</v>
@@ -8299,7 +8299,7 @@
         <v>155</v>
       </c>
       <c r="H139" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I139">
         <v>-70.498475760000005</v>
@@ -8343,7 +8343,7 @@
         <v>156</v>
       </c>
       <c r="H140" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I140">
         <v>-78.37005241</v>
@@ -8387,7 +8387,7 @@
         <v>157</v>
       </c>
       <c r="H141" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I141">
         <v>-88.868629949999999</v>
@@ -8431,7 +8431,7 @@
         <v>158</v>
       </c>
       <c r="H142" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I142">
         <v>-61.682485679999999</v>
@@ -8475,7 +8475,7 @@
         <v>159</v>
       </c>
       <c r="H143" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I143">
         <v>-91.231274600000006</v>
@@ -8519,7 +8519,7 @@
         <v>160</v>
       </c>
       <c r="H144" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I144">
         <v>-58.97322037</v>
@@ -8563,7 +8563,7 @@
         <v>161</v>
       </c>
       <c r="H145" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I145">
         <v>-72.336409579999994</v>
@@ -8607,7 +8607,7 @@
         <v>162</v>
       </c>
       <c r="H146" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I146">
         <v>-86.599743810000007</v>
@@ -8651,7 +8651,7 @@
         <v>163</v>
       </c>
       <c r="H147" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I147">
         <v>-77.310684089999995</v>
@@ -8695,7 +8695,7 @@
         <v>164</v>
       </c>
       <c r="H148" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I148">
         <v>-102.5148166</v>
@@ -8739,7 +8739,7 @@
         <v>165</v>
       </c>
       <c r="H149" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I149">
         <v>-85.030603150000005</v>
@@ -8783,7 +8783,7 @@
         <v>166</v>
       </c>
       <c r="H150" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I150">
         <v>-81.266166229999996</v>
@@ -8827,7 +8827,7 @@
         <v>167</v>
       </c>
       <c r="H151" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I151">
         <v>-60.548542249999997</v>
@@ -8871,7 +8871,7 @@
         <v>168</v>
       </c>
       <c r="H152" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I152">
         <v>-71.820932769999999</v>
@@ -8915,7 +8915,7 @@
         <v>169</v>
       </c>
       <c r="H153" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I153">
         <v>-62.766286129999997</v>
@@ -8959,7 +8959,7 @@
         <v>170</v>
       </c>
       <c r="H154" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I154">
         <v>-60.965295529999999</v>
@@ -9003,7 +9003,7 @@
         <v>171</v>
       </c>
       <c r="H155" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I155">
         <v>-61.190243209999998</v>
@@ -9047,7 +9047,7 @@
         <v>172</v>
       </c>
       <c r="H156" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I156">
         <v>-55.906263940000002</v>
@@ -9091,7 +9091,7 @@
         <v>173</v>
       </c>
       <c r="H157" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I157">
         <v>-61.293895040000002</v>
@@ -9135,7 +9135,7 @@
         <v>174</v>
       </c>
       <c r="H158" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I158">
         <v>-56.013870249999997</v>
@@ -9179,7 +9179,7 @@
         <v>175</v>
       </c>
       <c r="H159" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I159">
         <v>-66.156420839999996</v>
@@ -9223,7 +9223,7 @@
         <v>176</v>
       </c>
       <c r="H160" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I160">
         <v>50.010647249999998</v>
@@ -9232,7 +9232,7 @@
         <v>40.392295439999998</v>
       </c>
       <c r="K160" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L160" s="2">
         <v>4</v>
@@ -9267,7 +9267,7 @@
         <v>177</v>
       </c>
       <c r="H161" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I161">
         <v>44.938393169999998</v>
@@ -9276,7 +9276,7 @@
         <v>40.294997410000001</v>
       </c>
       <c r="K161" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L161" s="2">
         <v>4</v>
@@ -9311,7 +9311,7 @@
         <v>178</v>
       </c>
       <c r="H162" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I162">
         <v>43.371361499999999</v>
@@ -9320,7 +9320,7 @@
         <v>42.048130280000002</v>
       </c>
       <c r="K162" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L162" s="2">
         <v>4</v>
@@ -9355,7 +9355,7 @@
         <v>179</v>
       </c>
       <c r="H163" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I163">
         <v>66.653591590000005</v>
@@ -9364,7 +9364,7 @@
         <v>48.019634940000003</v>
       </c>
       <c r="K163" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L163" s="2">
         <v>4</v>
@@ -9399,7 +9399,7 @@
         <v>180</v>
       </c>
       <c r="H164" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I164">
         <v>74.523248390000006</v>
@@ -9408,7 +9408,7 @@
         <v>41.462045160000002</v>
       </c>
       <c r="K164" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L164" s="2">
         <v>4</v>
@@ -9443,7 +9443,7 @@
         <v>181</v>
       </c>
       <c r="H165" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I165">
         <v>69.294998000000007</v>
@@ -9452,7 +9452,7 @@
         <v>38.430696660000002</v>
       </c>
       <c r="K165" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L165" s="2">
         <v>4</v>
@@ -9487,7 +9487,7 @@
         <v>182</v>
       </c>
       <c r="H166" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I166">
         <v>58.978766499999999</v>
@@ -9496,7 +9496,7 @@
         <v>40.0912346</v>
       </c>
       <c r="K166" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L166" s="2">
         <v>4</v>
@@ -9531,7 +9531,7 @@
         <v>183</v>
       </c>
       <c r="H167" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I167">
         <v>63.119445579999997</v>
@@ -9540,7 +9540,7 @@
         <v>41.775605179999999</v>
       </c>
       <c r="K167" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L167" s="2">
         <v>4</v>
@@ -9575,7 +9575,7 @@
         <v>184</v>
       </c>
       <c r="H168" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I168">
         <v>50.5490754</v>
@@ -9584,7 +9584,7 @@
         <v>26.044077470000001</v>
       </c>
       <c r="K168" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L168" s="2">
         <v>4</v>
@@ -9619,7 +9619,7 @@
         <v>186</v>
       </c>
       <c r="H169" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I169">
         <v>43.766062669999997</v>
@@ -9628,7 +9628,7 @@
         <v>33.05013795</v>
       </c>
       <c r="K169" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L169" s="2">
         <v>4</v>
@@ -9663,7 +9663,7 @@
         <v>187</v>
       </c>
       <c r="H170" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I170">
         <v>37.130247740000001</v>
@@ -9672,7 +9672,7 @@
         <v>30.653659730000001</v>
       </c>
       <c r="K170" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L170" s="2">
         <v>4</v>
@@ -9707,7 +9707,7 @@
         <v>188</v>
       </c>
       <c r="H171" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I171">
         <v>47.493050289999999</v>
@@ -9716,7 +9716,7 @@
         <v>29.539494680000001</v>
       </c>
       <c r="K171" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L171" s="2">
         <v>4</v>
@@ -9751,7 +9751,7 @@
         <v>189</v>
       </c>
       <c r="H172" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I172">
         <v>35.893917109999997</v>
@@ -9760,7 +9760,7 @@
         <v>33.921524580000003</v>
       </c>
       <c r="K172" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L172" s="2">
         <v>4</v>
@@ -9795,7 +9795,7 @@
         <v>190</v>
       </c>
       <c r="H173" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I173">
         <v>57.877434819999998</v>
@@ -9804,7 +9804,7 @@
         <v>21.988056140000001</v>
       </c>
       <c r="K173" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L173" s="2">
         <v>4</v>
@@ -9839,7 +9839,7 @@
         <v>191</v>
       </c>
       <c r="H174" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I174">
         <v>51.19152467</v>
@@ -9848,7 +9848,7 @@
         <v>25.283553789999999</v>
       </c>
       <c r="K174" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L174" s="2">
         <v>4</v>
@@ -9883,7 +9883,7 @@
         <v>192</v>
       </c>
       <c r="H175" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I175">
         <v>44.547633470000001</v>
@@ -9892,7 +9892,7 @@
         <v>24.12594211</v>
       </c>
       <c r="K175" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L175" s="2">
         <v>4</v>
@@ -9927,7 +9927,7 @@
         <v>193</v>
       </c>
       <c r="H176" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I176">
         <v>38.50466565</v>
@@ -9936,7 +9936,7 @@
         <v>35.016761760000001</v>
       </c>
       <c r="K176" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L176" s="2">
         <v>4</v>
@@ -9971,7 +9971,7 @@
         <v>194</v>
       </c>
       <c r="H177" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I177">
         <v>53.982791589999998</v>
@@ -9980,7 +9980,7 @@
         <v>23.433222189999999</v>
       </c>
       <c r="K177" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L177" s="2">
         <v>4</v>
@@ -10015,7 +10015,7 @@
         <v>195</v>
       </c>
       <c r="H178" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I178">
         <v>35.428903290000001</v>
@@ -10024,7 +10024,7 @@
         <v>38.989968400000002</v>
       </c>
       <c r="K178" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L178" s="2">
         <v>4</v>
@@ -10059,7 +10059,7 @@
         <v>196</v>
       </c>
       <c r="H179" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I179">
         <v>45.223891430000002</v>
@@ -10068,7 +10068,7 @@
         <v>15.22242099</v>
       </c>
       <c r="K179" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L179" s="2">
         <v>4</v>
@@ -10103,7 +10103,7 @@
         <v>197</v>
       </c>
       <c r="H180" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I180">
         <v>114.6288563</v>
@@ -10112,7 +10112,7 @@
         <v>4.4973698400000002</v>
       </c>
       <c r="K180" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L180" s="2">
         <v>4</v>
@@ -10147,7 +10147,7 @@
         <v>198</v>
       </c>
       <c r="H181" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I181">
         <v>96.51752295</v>
@@ -10156,7 +10156,7 @@
         <v>21.193328820000001</v>
       </c>
       <c r="K181" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L181" s="2">
         <v>4</v>
@@ -10191,7 +10191,7 @@
         <v>199</v>
       </c>
       <c r="H182" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I182">
         <v>104.922836</v>
@@ -10200,7 +10200,7 @@
         <v>12.71163737</v>
       </c>
       <c r="K182" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L182" s="2">
         <v>4</v>
@@ -10235,7 +10235,7 @@
         <v>200</v>
       </c>
       <c r="H183" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I183">
         <v>113.9174</v>
@@ -10244,7 +10244,7 @@
         <v>-0.99458220399999997</v>
       </c>
       <c r="K183" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L183" s="2">
         <v>4</v>
@@ -10279,7 +10279,7 @@
         <v>201</v>
       </c>
       <c r="H184" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I184">
         <v>101.99019680000001</v>
@@ -10288,7 +10288,7 @@
         <v>20.274827729999998</v>
       </c>
       <c r="K184" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L184" s="2">
         <v>4</v>
@@ -10323,7 +10323,7 @@
         <v>202</v>
       </c>
       <c r="H185" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I185">
         <v>116.83463140000001</v>
@@ -10332,7 +10332,7 @@
         <v>5.452415309</v>
       </c>
       <c r="K185" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L185" s="2">
         <v>4</v>
@@ -10367,7 +10367,7 @@
         <v>203</v>
       </c>
       <c r="H186" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I186">
         <v>120.86014179999999</v>
@@ -10376,7 +10376,7 @@
         <v>14.16591706</v>
       </c>
       <c r="K186" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L186" s="2">
         <v>4</v>
@@ -10411,7 +10411,7 @@
         <v>204</v>
       </c>
       <c r="H187" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I187">
         <v>125.9451052</v>
@@ -10420,7 +10420,7 @@
         <v>-8.7974972470000008</v>
       </c>
       <c r="K187" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L187" s="2">
         <v>4</v>
@@ -10455,7 +10455,7 @@
         <v>205</v>
       </c>
       <c r="H188" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I188">
         <v>103.8107883</v>
@@ -10464,7 +10464,7 @@
         <v>1.3610091550000001</v>
       </c>
       <c r="K188" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L188" s="2">
         <v>4</v>
@@ -10499,7 +10499,7 @@
         <v>206</v>
       </c>
       <c r="H189" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I189">
         <v>105.802499</v>
@@ -10508,7 +10508,7 @@
         <v>10.096430789999999</v>
       </c>
       <c r="K189" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L189" s="2">
         <v>4</v>
@@ -10543,7 +10543,7 @@
         <v>207</v>
       </c>
       <c r="H190" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I190">
         <v>101.0202951</v>
@@ -10552,7 +10552,7 @@
         <v>15.13089239</v>
       </c>
       <c r="K190" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L190" s="2">
         <v>4</v>
@@ -10587,7 +10587,7 @@
         <v>208</v>
       </c>
       <c r="H191" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I191">
         <v>104.1403375</v>
@@ -10596,7 +10596,7 @@
         <v>32.309552170000003</v>
       </c>
       <c r="K191" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L191" s="2">
         <v>4</v>
@@ -10631,7 +10631,7 @@
         <v>209</v>
       </c>
       <c r="H192" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I192">
         <v>127.1803633</v>
@@ -10640,7 +10640,7 @@
         <v>40.146264500000001</v>
       </c>
       <c r="K192" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L192" s="2">
         <v>4</v>
@@ -10675,7 +10675,7 @@
         <v>210</v>
       </c>
       <c r="H193" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I193">
         <v>127.8610254</v>
@@ -10684,7 +10684,7 @@
         <v>36.452010229999999</v>
       </c>
       <c r="K193" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L193" s="2">
         <v>4</v>
@@ -10719,7 +10719,7 @@
         <v>211</v>
       </c>
       <c r="H194" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I194">
         <v>103.0728057</v>
@@ -10728,7 +10728,7 @@
         <v>46.838920539999997</v>
       </c>
       <c r="K194" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L194" s="2">
         <v>4</v>
@@ -10763,7 +10763,7 @@
         <v>74</v>
       </c>
       <c r="H195" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I195">
         <v>-99.138303109999995</v>
@@ -10772,7 +10772,7 @@
         <v>39.527787099999998</v>
       </c>
       <c r="K195" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L195" s="2">
         <v>5</v>
@@ -10807,7 +10807,7 @@
         <v>185</v>
       </c>
       <c r="H196" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I196">
         <v>35.256941220000002</v>
@@ -10816,7 +10816,7 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K196" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L196" s="2">
         <v>10</v>
@@ -10848,10 +10848,10 @@
         <v>344</v>
       </c>
       <c r="G197" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H197" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I197">
         <v>114.0266445</v>
@@ -10860,7 +10860,7 @@
         <v>22.417499339999999</v>
       </c>
       <c r="K197" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L197" s="2">
         <v>10</v>
@@ -10895,7 +10895,7 @@
         <v>4</v>
       </c>
       <c r="H198" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I198">
         <v>89.176607880000006</v>
@@ -10904,7 +10904,7 @@
         <v>22.869616220000001</v>
       </c>
       <c r="K198" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L198" s="2">
         <v>4</v>
@@ -10939,7 +10939,7 @@
         <v>11</v>
       </c>
       <c r="H199" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I199">
         <v>80.704896539999993</v>
@@ -10948,7 +10948,7 @@
         <v>7.6146933429999999</v>
       </c>
       <c r="K199" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L199" s="2">
         <v>4</v>
@@ -10983,7 +10983,7 @@
         <v>21</v>
       </c>
       <c r="H200" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I200">
         <v>73.096725460000002</v>
@@ -10992,7 +10992,7 @@
         <v>-0.61438502100000003</v>
       </c>
       <c r="K200" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L200" s="2">
         <v>4</v>
@@ -11027,7 +11027,7 @@
         <v>22</v>
       </c>
       <c r="H201" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I201">
         <v>83.94678863</v>
@@ -11036,7 +11036,7 @@
         <v>28.25866332</v>
       </c>
       <c r="K201" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L201" s="2">
         <v>4</v>
@@ -11071,7 +11071,7 @@
         <v>24</v>
       </c>
       <c r="H202" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I202">
         <v>20.066609280000002</v>
@@ -11080,7 +11080,7 @@
         <v>41.138970069999999</v>
       </c>
       <c r="K202" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L202" s="2">
         <v>4</v>
@@ -11115,7 +11115,7 @@
         <v>25</v>
       </c>
       <c r="H203" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I203">
         <v>1.5762574170000001</v>
@@ -11124,7 +11124,7 @@
         <v>42.545486109999999</v>
       </c>
       <c r="K203" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L203" s="2">
         <v>4</v>
@@ -11159,7 +11159,7 @@
         <v>26</v>
       </c>
       <c r="H204" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I204">
         <v>134.34994119999999</v>
@@ -11168,7 +11168,7 @@
         <v>-25.577172019999999</v>
       </c>
       <c r="K204" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L204" s="2">
         <v>4</v>
@@ -11203,7 +11203,7 @@
         <v>27</v>
       </c>
       <c r="H205" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I205">
         <v>14.141724719999999</v>
@@ -11212,7 +11212,7 @@
         <v>47.58704857</v>
       </c>
       <c r="K205" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L205" s="2">
         <v>4</v>
@@ -11247,7 +11247,7 @@
         <v>28</v>
       </c>
       <c r="H206" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I206">
         <v>4.6609764560000002</v>
@@ -11256,7 +11256,7 @@
         <v>50.641049750000001</v>
       </c>
       <c r="K206" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L206" s="2">
         <v>4</v>
@@ -11291,7 +11291,7 @@
         <v>29</v>
       </c>
       <c r="H207" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I207">
         <v>17.785843320000001</v>
@@ -11300,7 +11300,7 @@
         <v>44.168455479999999</v>
       </c>
       <c r="K207" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L207" s="2">
         <v>4</v>
@@ -11335,7 +11335,7 @@
         <v>30</v>
       </c>
       <c r="H208" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I208">
         <v>25.237631530000002</v>
@@ -11344,7 +11344,7 @@
         <v>42.757313230000001</v>
       </c>
       <c r="K208" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L208" s="2">
         <v>4</v>
@@ -11379,7 +11379,7 @@
         <v>31</v>
       </c>
       <c r="H209" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I209">
         <v>28.04940161</v>
@@ -11388,7 +11388,7 @@
         <v>53.541930749999999</v>
       </c>
       <c r="K209" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L209" s="2">
         <v>4</v>
@@ -11423,7 +11423,7 @@
         <v>32</v>
       </c>
       <c r="H210" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I210">
         <v>-101.6575058</v>
@@ -11432,7 +11432,7 @@
         <v>57.723601909999999</v>
       </c>
       <c r="K210" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L210" s="2">
         <v>4</v>
@@ -11467,7 +11467,7 @@
         <v>33</v>
       </c>
       <c r="H211" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I211">
         <v>17.958745530000002</v>
@@ -11476,7 +11476,7 @@
         <v>45.451722119999999</v>
       </c>
       <c r="K211" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L211" s="2">
         <v>4</v>
@@ -11511,7 +11511,7 @@
         <v>34</v>
       </c>
       <c r="H212" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I212">
         <v>33.222859640000003</v>
@@ -11520,7 +11520,7 @@
         <v>35.056594369999999</v>
       </c>
       <c r="K212" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L212" s="2">
         <v>4</v>
@@ -11552,10 +11552,10 @@
         <v>203</v>
       </c>
       <c r="G213" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H213" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I213">
         <v>15.33151382</v>
@@ -11564,7 +11564,7 @@
         <v>49.739138709999999</v>
       </c>
       <c r="K213" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L213" s="2">
         <v>4</v>
@@ -11599,7 +11599,7 @@
         <v>35</v>
       </c>
       <c r="H214" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I214">
         <v>9.3265712829999998</v>
@@ -11608,7 +11608,7 @@
         <v>56.038297210000003</v>
       </c>
       <c r="K214" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L214" s="2">
         <v>4</v>
@@ -11643,7 +11643,7 @@
         <v>37</v>
       </c>
       <c r="H215" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I215">
         <v>23.308447000000001</v>
@@ -11652,7 +11652,7 @@
         <v>61.915867380000002</v>
       </c>
       <c r="K215" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L215" s="2">
         <v>4</v>
@@ -11687,7 +11687,7 @@
         <v>38</v>
       </c>
       <c r="H216" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I216">
         <v>2.4572881290000002</v>
@@ -11696,7 +11696,7 @@
         <v>46.626608609999998</v>
       </c>
       <c r="K216" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L216" s="2">
         <v>4</v>
@@ -11731,7 +11731,7 @@
         <v>39</v>
       </c>
       <c r="H217" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I217">
         <v>10.3806066</v>
@@ -11740,7 +11740,7 @@
         <v>51.088627430000003</v>
       </c>
       <c r="K217" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L217" s="2">
         <v>4</v>
@@ -11775,7 +11775,7 @@
         <v>40</v>
       </c>
       <c r="H218" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I218">
         <v>22.583078270000001</v>
@@ -11784,7 +11784,7 @@
         <v>39.47301873</v>
       </c>
       <c r="K218" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L218" s="2">
         <v>4</v>
@@ -11819,7 +11819,7 @@
         <v>41</v>
       </c>
       <c r="H219" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I219">
         <v>19.412215190000001</v>
@@ -11828,7 +11828,7 @@
         <v>47.1651448</v>
       </c>
       <c r="K219" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L219" s="2">
         <v>4</v>
@@ -11863,7 +11863,7 @@
         <v>42</v>
       </c>
       <c r="H220" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I220">
         <v>-19.021169660000002</v>
@@ -11872,7 +11872,7 @@
         <v>64.791347630000004</v>
       </c>
       <c r="K220" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L220" s="2">
         <v>4</v>
@@ -11907,7 +11907,7 @@
         <v>43</v>
       </c>
       <c r="H221" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I221">
         <v>-7.1214252719999998</v>
@@ -11916,7 +11916,7 @@
         <v>53.252740539999998</v>
       </c>
       <c r="K221" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L221" s="2">
         <v>4</v>
@@ -11951,7 +11951,7 @@
         <v>46</v>
       </c>
       <c r="H222" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I222">
         <v>12.570224270000001</v>
@@ -11960,7 +11960,7 @@
         <v>42.799172820000003</v>
       </c>
       <c r="K222" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L222" s="2">
         <v>4</v>
@@ -11995,7 +11995,7 @@
         <v>49</v>
       </c>
       <c r="H223" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I223">
         <v>9.5529850189999994</v>
@@ -12004,7 +12004,7 @@
         <v>47.141670050000002</v>
       </c>
       <c r="K223" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L223" s="2">
         <v>4</v>
@@ -12039,7 +12039,7 @@
         <v>50</v>
       </c>
       <c r="H224" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I224">
         <v>23.905178070000002</v>
@@ -12048,7 +12048,7 @@
         <v>55.336803089999997</v>
       </c>
       <c r="K224" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L224" s="2">
         <v>4</v>
@@ -12083,7 +12083,7 @@
         <v>51</v>
       </c>
       <c r="H225" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I225">
         <v>6.0926565630000002</v>
@@ -12092,7 +12092,7 @@
         <v>49.776795380000003</v>
       </c>
       <c r="K225" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L225" s="2">
         <v>4</v>
@@ -12127,7 +12127,7 @@
         <v>54</v>
       </c>
       <c r="H226" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I226">
         <v>28.465062400000001</v>
@@ -12136,7 +12136,7 @@
         <v>47.202367950000003</v>
       </c>
       <c r="K226" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L226" s="2">
         <v>4</v>
@@ -12171,7 +12171,7 @@
         <v>55</v>
       </c>
       <c r="H227" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I227">
         <v>19.252140239999999</v>
@@ -12180,7 +12180,7 @@
         <v>42.787170430000003</v>
       </c>
       <c r="K227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L227" s="2">
         <v>4</v>
@@ -12215,7 +12215,7 @@
         <v>56</v>
       </c>
       <c r="H228" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I228">
         <v>5.3314805679999999</v>
@@ -12224,7 +12224,7 @@
         <v>51.867288840000001</v>
       </c>
       <c r="K228" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L228" s="2">
         <v>4</v>
@@ -12259,7 +12259,7 @@
         <v>57</v>
       </c>
       <c r="H229" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I229">
         <v>170.47556729999999</v>
@@ -12268,7 +12268,7 @@
         <v>-43.987215679999998</v>
       </c>
       <c r="K229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L229" s="2">
         <v>4</v>
@@ -12303,7 +12303,7 @@
         <v>58</v>
       </c>
       <c r="H230" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I230">
         <v>11.47846389</v>
@@ -12312,7 +12312,7 @@
         <v>61.34311134</v>
       </c>
       <c r="K230" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L230" s="2">
         <v>4</v>
@@ -12347,7 +12347,7 @@
         <v>59</v>
       </c>
       <c r="H231" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I231">
         <v>19.40660158</v>
@@ -12356,7 +12356,7 @@
         <v>52.122673300000002</v>
       </c>
       <c r="K231" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L231" s="2">
         <v>4</v>
@@ -12391,7 +12391,7 @@
         <v>60</v>
       </c>
       <c r="H232" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I232">
         <v>-7.9615998110000001</v>
@@ -12400,7 +12400,7 @@
         <v>39.68509315</v>
       </c>
       <c r="K232" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L232" s="2">
         <v>4</v>
@@ -12435,7 +12435,7 @@
         <v>61</v>
       </c>
       <c r="H233" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I233">
         <v>24.98481009</v>
@@ -12444,7 +12444,7 @@
         <v>45.838935630000002</v>
       </c>
       <c r="K233" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L233" s="2">
         <v>4</v>
@@ -12479,7 +12479,7 @@
         <v>62</v>
       </c>
       <c r="H234" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I234">
         <v>99.014049259999993</v>
@@ -12488,7 +12488,7 @@
         <v>61.618998490000003</v>
       </c>
       <c r="K234" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L234" s="2">
         <v>4</v>
@@ -12523,7 +12523,7 @@
         <v>63</v>
       </c>
       <c r="H235" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I235">
         <v>12.46329038</v>
@@ -12532,7 +12532,7 @@
         <v>43.938417659999999</v>
       </c>
       <c r="K235" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L235" s="2">
         <v>4</v>
@@ -12567,7 +12567,7 @@
         <v>64</v>
       </c>
       <c r="H236" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I236">
         <v>20.805876000000001</v>
@@ -12576,7 +12576,7 @@
         <v>44.031456970000001</v>
       </c>
       <c r="K236" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L236" s="2">
         <v>4</v>
@@ -12611,7 +12611,7 @@
         <v>65</v>
       </c>
       <c r="H237" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I237">
         <v>19.48495604</v>
@@ -12620,7 +12620,7 @@
         <v>48.707414460000003</v>
       </c>
       <c r="K237" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L237" s="2">
         <v>4</v>
@@ -12655,7 +12655,7 @@
         <v>66</v>
       </c>
       <c r="H238" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I238">
         <v>14.82209486</v>
@@ -12664,7 +12664,7 @@
         <v>46.11958061</v>
       </c>
       <c r="K238" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L238" s="2">
         <v>4</v>
@@ -12699,7 +12699,7 @@
         <v>67</v>
       </c>
       <c r="H239" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I239">
         <v>-3.5540782960000001</v>
@@ -12708,7 +12708,7 @@
         <v>40.392114720000002</v>
       </c>
       <c r="K239" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L239" s="2">
         <v>4</v>
@@ -12743,7 +12743,7 @@
         <v>68</v>
       </c>
       <c r="H240" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I240">
         <v>14.3775338</v>
@@ -12752,7 +12752,7 @@
         <v>60.601031089999999</v>
       </c>
       <c r="K240" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L240" s="2">
         <v>4</v>
@@ -12787,7 +12787,7 @@
         <v>69</v>
       </c>
       <c r="H241" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I241">
         <v>8.2231579999999997</v>
@@ -12796,7 +12796,7 @@
         <v>46.96617097</v>
       </c>
       <c r="K241" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L241" s="2">
         <v>4</v>
@@ -12831,7 +12831,7 @@
         <v>70</v>
       </c>
       <c r="H242" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I242">
         <v>31.402708019999999</v>
@@ -12840,7 +12840,7 @@
         <v>49.007359450000003</v>
       </c>
       <c r="K242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L242" s="2">
         <v>4</v>
@@ -12875,7 +12875,7 @@
         <v>71</v>
       </c>
       <c r="H243" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I243">
         <v>21.700790900000001</v>
@@ -12884,7 +12884,7 @@
         <v>41.600480679999997</v>
       </c>
       <c r="K243" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L243" s="2">
         <v>4</v>
@@ -12919,7 +12919,7 @@
         <v>72</v>
       </c>
       <c r="H244" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I244">
         <v>-2.2383053899999998</v>
@@ -12928,7 +12928,7 @@
         <v>53.276917570000002</v>
       </c>
       <c r="K244" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L244" s="2">
         <v>4</v>
@@ -12963,7 +12963,7 @@
         <v>77</v>
       </c>
       <c r="H245" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I245">
         <v>18.029598499999999</v>
@@ -12972,7 +12972,7 @@
         <v>27.04042819</v>
       </c>
       <c r="K245" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L245" s="2">
         <v>4</v>
@@ -13007,7 +13007,7 @@
         <v>79</v>
       </c>
       <c r="H246" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I246">
         <v>9.5727374110000003</v>
@@ -13016,7 +13016,7 @@
         <v>34.114399710000001</v>
       </c>
       <c r="K246" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L246" s="2">
         <v>4</v>
@@ -13051,7 +13051,7 @@
         <v>81</v>
       </c>
       <c r="H247" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I247">
         <v>160.15841169999999</v>
@@ -13060,7 +13060,7 @@
         <v>-9.6223917189999995</v>
       </c>
       <c r="K247" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L247" s="2">
         <v>4</v>
@@ -13095,7 +13095,7 @@
         <v>85</v>
       </c>
       <c r="H248" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I248">
         <v>167.06797789999999</v>
@@ -13104,7 +13104,7 @@
         <v>-15.34445547</v>
       </c>
       <c r="K248" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L248" s="2">
         <v>4</v>
@@ -13139,7 +13139,7 @@
         <v>94</v>
       </c>
       <c r="H249" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I249">
         <v>17.578170620000002</v>
@@ -13183,7 +13183,7 @@
         <v>95</v>
       </c>
       <c r="H250" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I250">
         <v>23.81380223</v>
@@ -13227,7 +13227,7 @@
         <v>98</v>
       </c>
       <c r="H251" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I251">
         <v>12.741982699999999</v>
@@ -13271,7 +13271,7 @@
         <v>106</v>
       </c>
       <c r="H252" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I252">
         <v>10.46535826</v>
@@ -13315,7 +13315,7 @@
         <v>110</v>
       </c>
       <c r="H253" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I253">
         <v>11.787277469999999</v>
@@ -13359,7 +13359,7 @@
         <v>112</v>
       </c>
       <c r="H254" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I254">
         <v>-1.205623522</v>
@@ -13403,7 +13403,7 @@
         <v>116</v>
       </c>
       <c r="H255" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I255">
         <v>28.253621949999999</v>
@@ -13447,7 +13447,7 @@
         <v>120</v>
       </c>
       <c r="H256" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I256">
         <v>-3.5220160389999999</v>
@@ -13491,7 +13491,7 @@
         <v>122</v>
       </c>
       <c r="H257" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I257">
         <v>57.568021999999999</v>
@@ -13535,7 +13535,7 @@
         <v>123</v>
       </c>
       <c r="H258" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I258">
         <v>38.184799409999997</v>
@@ -13579,7 +13579,7 @@
         <v>124</v>
       </c>
       <c r="H259" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I259">
         <v>17.219078849999999</v>
@@ -13623,7 +13623,7 @@
         <v>125</v>
       </c>
       <c r="H260" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I260">
         <v>9.4001678769999995</v>
@@ -13667,7 +13667,7 @@
         <v>126</v>
       </c>
       <c r="H261" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I261">
         <v>8.0973632559999995</v>
@@ -13711,7 +13711,7 @@
         <v>127</v>
       </c>
       <c r="H262" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I262">
         <v>-14.40182514</v>
@@ -13755,7 +13755,7 @@
         <v>128</v>
       </c>
       <c r="H263" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I263">
         <v>29.923101939999999</v>
@@ -13799,7 +13799,7 @@
         <v>130</v>
       </c>
       <c r="H264" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I264">
         <v>-14.46636926</v>
@@ -13843,7 +13843,7 @@
         <v>131</v>
       </c>
       <c r="H265" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I265">
         <v>55.465615909999997</v>
@@ -13887,7 +13887,7 @@
         <v>134</v>
       </c>
       <c r="H266" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I266">
         <v>24.671843549999998</v>
@@ -13931,7 +13931,7 @@
         <v>139</v>
       </c>
       <c r="H267" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I267">
         <v>34.805211819999997</v>
@@ -13975,7 +13975,7 @@
         <v>140</v>
       </c>
       <c r="H268" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I268">
         <v>-1.7428438289999999</v>
@@ -14019,7 +14019,7 @@
         <v>143</v>
       </c>
       <c r="H269" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I269">
         <v>-61.799975500000002</v>
@@ -14063,7 +14063,7 @@
         <v>144</v>
       </c>
       <c r="H270" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I270">
         <v>-65.145632739999996</v>
@@ -14107,7 +14107,7 @@
         <v>147</v>
       </c>
       <c r="H271" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I271">
         <v>-64.662242840000005</v>
@@ -14151,7 +14151,7 @@
         <v>148</v>
       </c>
       <c r="H272" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I272">
         <v>-53.08432878</v>
@@ -14195,7 +14195,7 @@
         <v>149</v>
       </c>
       <c r="H273" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I273">
         <v>-88.701995539999999</v>
@@ -14239,7 +14239,7 @@
         <v>151</v>
       </c>
       <c r="H274" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I274">
         <v>-73.074467510000005</v>
@@ -14283,7 +14283,7 @@
         <v>152</v>
       </c>
       <c r="H275" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I275">
         <v>-84.197127820000006</v>
@@ -14327,7 +14327,7 @@
         <v>155</v>
       </c>
       <c r="H276" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I276">
         <v>-70.498475760000005</v>
@@ -14371,7 +14371,7 @@
         <v>156</v>
       </c>
       <c r="H277" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I277">
         <v>-78.37005241</v>
@@ -14415,7 +14415,7 @@
         <v>159</v>
       </c>
       <c r="H278" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I278">
         <v>-91.231274600000006</v>
@@ -14459,7 +14459,7 @@
         <v>164</v>
       </c>
       <c r="H279" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I279">
         <v>-102.5148166</v>
@@ -14503,7 +14503,7 @@
         <v>166</v>
       </c>
       <c r="H280" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I280">
         <v>-81.266166229999996</v>
@@ -14547,7 +14547,7 @@
         <v>167</v>
       </c>
       <c r="H281" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I281">
         <v>-60.548542249999997</v>
@@ -14591,7 +14591,7 @@
         <v>168</v>
       </c>
       <c r="H282" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I282">
         <v>-71.820932769999999</v>
@@ -14635,7 +14635,7 @@
         <v>169</v>
       </c>
       <c r="H283" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I283">
         <v>-62.766286129999997</v>
@@ -14679,7 +14679,7 @@
         <v>174</v>
       </c>
       <c r="H284" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I284">
         <v>-56.013870249999997</v>
@@ -14723,7 +14723,7 @@
         <v>175</v>
       </c>
       <c r="H285" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I285">
         <v>-66.156420839999996</v>
@@ -14767,7 +14767,7 @@
         <v>176</v>
       </c>
       <c r="H286" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I286">
         <v>50.010647249999998</v>
@@ -14776,7 +14776,7 @@
         <v>40.392295439999998</v>
       </c>
       <c r="K286" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L286" s="2">
         <v>4</v>
@@ -14811,7 +14811,7 @@
         <v>177</v>
       </c>
       <c r="H287" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I287">
         <v>44.938393169999998</v>
@@ -14820,7 +14820,7 @@
         <v>40.294997410000001</v>
       </c>
       <c r="K287" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L287" s="2">
         <v>4</v>
@@ -14855,7 +14855,7 @@
         <v>178</v>
       </c>
       <c r="H288" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I288">
         <v>43.371361499999999</v>
@@ -14864,7 +14864,7 @@
         <v>42.048130280000002</v>
       </c>
       <c r="K288" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L288" s="2">
         <v>4</v>
@@ -14899,7 +14899,7 @@
         <v>179</v>
       </c>
       <c r="H289" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I289">
         <v>66.653591590000005</v>
@@ -14908,7 +14908,7 @@
         <v>48.019634940000003</v>
       </c>
       <c r="K289" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L289" s="2">
         <v>4</v>
@@ -14943,7 +14943,7 @@
         <v>180</v>
       </c>
       <c r="H290" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I290">
         <v>74.523248390000006</v>
@@ -14952,7 +14952,7 @@
         <v>41.462045160000002</v>
       </c>
       <c r="K290" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L290" s="2">
         <v>4</v>
@@ -14987,7 +14987,7 @@
         <v>182</v>
       </c>
       <c r="H291" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I291">
         <v>58.978766499999999</v>
@@ -14996,7 +14996,7 @@
         <v>40.0912346</v>
       </c>
       <c r="K291" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L291" s="2">
         <v>4</v>
@@ -15031,7 +15031,7 @@
         <v>195</v>
       </c>
       <c r="H292" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I292">
         <v>35.428903290000001</v>
@@ -15040,7 +15040,7 @@
         <v>38.989968400000002</v>
       </c>
       <c r="K292" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L292" s="2">
         <v>4</v>
@@ -15075,7 +15075,7 @@
         <v>199</v>
       </c>
       <c r="H293" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I293">
         <v>104.922836</v>
@@ -15084,7 +15084,7 @@
         <v>12.71163737</v>
       </c>
       <c r="K293" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L293" s="2">
         <v>4</v>
@@ -15119,7 +15119,7 @@
         <v>203</v>
       </c>
       <c r="H294" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I294">
         <v>120.86014179999999</v>
@@ -15128,7 +15128,7 @@
         <v>14.16591706</v>
       </c>
       <c r="K294" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L294" s="2">
         <v>4</v>
@@ -15163,7 +15163,7 @@
         <v>204</v>
       </c>
       <c r="H295" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I295">
         <v>125.9451052</v>
@@ -15172,7 +15172,7 @@
         <v>-8.7974972470000008</v>
       </c>
       <c r="K295" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L295" s="2">
         <v>4</v>
@@ -15207,7 +15207,7 @@
         <v>207</v>
       </c>
       <c r="H296" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I296">
         <v>101.0202951</v>
@@ -15216,7 +15216,7 @@
         <v>15.13089239</v>
       </c>
       <c r="K296" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L296" s="2">
         <v>4</v>
@@ -15251,7 +15251,7 @@
         <v>210</v>
       </c>
       <c r="H297" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I297">
         <v>127.8610254</v>
@@ -15260,7 +15260,7 @@
         <v>36.452010229999999</v>
       </c>
       <c r="K297" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L297" s="2">
         <v>4</v>
@@ -15295,7 +15295,7 @@
         <v>211</v>
       </c>
       <c r="H298" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I298">
         <v>103.0728057</v>
@@ -15304,7 +15304,7 @@
         <v>46.838920539999997</v>
       </c>
       <c r="K298" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L298" s="2">
         <v>4</v>
@@ -15339,7 +15339,7 @@
         <v>96</v>
       </c>
       <c r="H299" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I299">
         <v>29.890809919999999</v>
@@ -15383,7 +15383,7 @@
         <v>103</v>
       </c>
       <c r="H300" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I300">
         <v>15.220526120000001</v>
@@ -15427,7 +15427,7 @@
         <v>105</v>
       </c>
       <c r="H301" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I301">
         <v>2.3399335940000001</v>
@@ -15471,7 +15471,7 @@
         <v>117</v>
       </c>
       <c r="H302" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I302">
         <v>-9.3118790380000007</v>
@@ -15515,7 +15515,7 @@
         <v>118</v>
       </c>
       <c r="H303" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I303">
         <v>46.698233899999998</v>
@@ -15559,7 +15559,7 @@
         <v>119</v>
       </c>
       <c r="H304" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I304">
         <v>33.488462499999997</v>
@@ -15603,7 +15603,7 @@
         <v>129</v>
       </c>
       <c r="H305" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I305">
         <v>6.6097722650000001</v>
@@ -15647,7 +15647,7 @@
         <v>132</v>
       </c>
       <c r="H306" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I306">
         <v>-11.783065840000001</v>
@@ -15691,7 +15691,7 @@
         <v>141</v>
       </c>
       <c r="H307" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I307">
         <v>27.850328999999999</v>
@@ -15735,7 +15735,7 @@
         <v>150</v>
       </c>
       <c r="H308" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I308">
         <v>-71.230290190000005</v>
@@ -15779,7 +15779,7 @@
         <v>153</v>
       </c>
       <c r="H309" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I309">
         <v>-79.544601439999994</v>
@@ -15823,7 +15823,7 @@
         <v>157</v>
       </c>
       <c r="H310" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I310">
         <v>-88.868629949999999</v>
@@ -15867,7 +15867,7 @@
         <v>181</v>
       </c>
       <c r="H311" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I311">
         <v>69.294998000000007</v>
@@ -15876,7 +15876,7 @@
         <v>38.430696660000002</v>
       </c>
       <c r="K311" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L311" s="2">
         <v>6</v>
@@ -15911,7 +15911,7 @@
         <v>200</v>
       </c>
       <c r="H312" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I312">
         <v>113.9174</v>
@@ -15920,7 +15920,7 @@
         <v>-0.99458220399999997</v>
       </c>
       <c r="K312" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L312" s="2">
         <v>6</v>
@@ -15955,7 +15955,7 @@
         <v>15</v>
       </c>
       <c r="H313" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I313">
         <v>54.197663480000003</v>
@@ -15964,7 +15964,7 @@
         <v>32.743708849999997</v>
       </c>
       <c r="K313" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L313" s="2">
         <v>10</v>
@@ -15999,7 +15999,7 @@
         <v>74</v>
       </c>
       <c r="H314" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I314">
         <v>-99.138303109999995</v>
@@ -16008,7 +16008,7 @@
         <v>39.527787099999998</v>
       </c>
       <c r="K314" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L314" s="2">
         <v>10</v>
@@ -16043,7 +16043,7 @@
         <v>84</v>
       </c>
       <c r="H315" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I315">
         <v>166.92312999999999</v>
@@ -16052,7 +16052,7 @@
         <v>-0.52874262299999997</v>
       </c>
       <c r="K315" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L315" s="2">
         <v>10</v>
@@ -16087,7 +16087,7 @@
         <v>88</v>
       </c>
       <c r="H316" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I316">
         <v>134.57338780000001</v>
@@ -16096,7 +16096,7 @@
         <v>7.5023075910000001</v>
       </c>
       <c r="K316" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L316" s="2">
         <v>10</v>
@@ -16131,7 +16131,7 @@
         <v>90</v>
       </c>
       <c r="H317" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I317">
         <v>-175.19599909999999</v>
@@ -16140,7 +16140,7 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K317" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L317" s="2">
         <v>10</v>
@@ -16175,7 +16175,7 @@
         <v>133</v>
       </c>
       <c r="H318" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I318">
         <v>46.203674769999999</v>
@@ -16219,7 +16219,7 @@
         <v>136</v>
       </c>
       <c r="H319" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I319">
         <v>29.956501589999998</v>
@@ -16228,7 +16228,7 @@
         <v>16.026430659999999</v>
       </c>
       <c r="K319" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L319" s="2">
         <v>10</v>
@@ -16263,7 +16263,7 @@
         <v>185</v>
       </c>
       <c r="H320" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I320">
         <v>35.256941220000002</v>
@@ -16272,7 +16272,7 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K320" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L320" s="2">
         <v>10</v>
@@ -16304,10 +16304,10 @@
         <v>344</v>
       </c>
       <c r="G321" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H321" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I321">
         <v>114.0266445</v>
@@ -16316,7 +16316,7 @@
         <v>22.417499339999999</v>
       </c>
       <c r="K321" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L321" s="2">
         <v>10</v>
@@ -16351,7 +16351,7 @@
         <v>4</v>
       </c>
       <c r="H322" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I322">
         <v>89.176607880000006</v>
@@ -16360,7 +16360,7 @@
         <v>22.869616220000001</v>
       </c>
       <c r="K322" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L322" s="2">
         <v>7</v>
@@ -16395,7 +16395,7 @@
         <v>12</v>
       </c>
       <c r="H323" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I323">
         <v>79.3608464</v>
@@ -16404,7 +16404,7 @@
         <v>22.346420739999999</v>
       </c>
       <c r="K323" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L323" s="2">
         <v>7</v>
@@ -16442,7 +16442,7 @@
         <v>21</v>
       </c>
       <c r="H324" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I324">
         <v>73.096725460000002</v>
@@ -16451,7 +16451,7 @@
         <v>-0.61438502100000003</v>
       </c>
       <c r="K324" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L324" s="2">
         <v>7</v>
@@ -16486,7 +16486,7 @@
         <v>45</v>
       </c>
       <c r="H325" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I325">
         <v>34.622779919999999</v>
@@ -16495,7 +16495,7 @@
         <v>31.061645519999999</v>
       </c>
       <c r="K325" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L325" s="2">
         <v>7</v>
@@ -16530,7 +16530,7 @@
         <v>57</v>
       </c>
       <c r="H326" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I326">
         <v>170.47556729999999</v>
@@ -16539,7 +16539,7 @@
         <v>-43.987215679999998</v>
       </c>
       <c r="K326" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L326" s="2">
         <v>7</v>
@@ -16574,7 +16574,7 @@
         <v>77</v>
       </c>
       <c r="H327" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I327">
         <v>18.029598499999999</v>
@@ -16583,7 +16583,7 @@
         <v>27.04042819</v>
       </c>
       <c r="K327" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L327" s="2">
         <v>7</v>
@@ -16618,7 +16618,7 @@
         <v>78</v>
       </c>
       <c r="H328" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I328">
         <v>-6.2819428410000002</v>
@@ -16627,7 +16627,7 @@
         <v>31.844013100000002</v>
       </c>
       <c r="K328" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L328" s="2">
         <v>7</v>
@@ -16665,7 +16665,7 @@
         <v>80</v>
       </c>
       <c r="H329" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I329">
         <v>29.774685340000001</v>
@@ -16674,7 +16674,7 @@
         <v>26.57438204</v>
       </c>
       <c r="K329" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L329" s="2">
         <v>7</v>
@@ -16709,7 +16709,7 @@
         <v>116</v>
       </c>
       <c r="H330" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I330">
         <v>28.253621949999999</v>
@@ -16753,7 +16753,7 @@
         <v>121</v>
       </c>
       <c r="H331" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I331">
         <v>-10.33187259</v>
@@ -16797,7 +16797,7 @@
         <v>125</v>
       </c>
       <c r="H332" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I332">
         <v>9.4001678769999995</v>
@@ -16841,7 +16841,7 @@
         <v>184</v>
       </c>
       <c r="H333" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I333">
         <v>50.5490754</v>
@@ -16850,7 +16850,7 @@
         <v>26.044077470000001</v>
       </c>
       <c r="K333" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L333" s="2">
         <v>7</v>
@@ -16885,7 +16885,7 @@
         <v>186</v>
       </c>
       <c r="H334" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I334">
         <v>43.766062669999997</v>
@@ -16894,7 +16894,7 @@
         <v>33.05013795</v>
       </c>
       <c r="K334" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L334" s="2">
         <v>7</v>
@@ -16929,7 +16929,7 @@
         <v>188</v>
       </c>
       <c r="H335" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I335">
         <v>47.493050289999999</v>
@@ -16938,7 +16938,7 @@
         <v>29.539494680000001</v>
       </c>
       <c r="K335" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L335" s="2">
         <v>7</v>
@@ -16973,7 +16973,7 @@
         <v>190</v>
       </c>
       <c r="H336" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I336">
         <v>57.877434819999998</v>
@@ -16982,7 +16982,7 @@
         <v>21.988056140000001</v>
       </c>
       <c r="K336" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L336" s="2">
         <v>7</v>
@@ -17017,7 +17017,7 @@
         <v>191</v>
       </c>
       <c r="H337" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I337">
         <v>51.19152467</v>
@@ -17026,7 +17026,7 @@
         <v>25.283553789999999</v>
       </c>
       <c r="K337" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L337" s="2">
         <v>7</v>
@@ -17064,7 +17064,7 @@
         <v>192</v>
       </c>
       <c r="H338" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I338">
         <v>44.547633470000001</v>
@@ -17073,7 +17073,7 @@
         <v>24.12594211</v>
       </c>
       <c r="K338" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L338" s="2">
         <v>7</v>
@@ -17108,7 +17108,7 @@
         <v>193</v>
       </c>
       <c r="H339" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I339">
         <v>38.50466565</v>
@@ -17117,7 +17117,7 @@
         <v>35.016761760000001</v>
       </c>
       <c r="K339" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L339" s="2">
         <v>7</v>
@@ -17152,7 +17152,7 @@
         <v>194</v>
       </c>
       <c r="H340" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I340">
         <v>53.982791589999998</v>
@@ -17161,7 +17161,7 @@
         <v>23.433222189999999</v>
       </c>
       <c r="K340" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L340" s="2">
         <v>7</v>
@@ -17196,7 +17196,7 @@
         <v>197</v>
       </c>
       <c r="H341" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I341">
         <v>114.6288563</v>
@@ -17205,7 +17205,7 @@
         <v>4.4973698400000002</v>
       </c>
       <c r="K341" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L341" s="2">
         <v>7</v>
@@ -17240,7 +17240,7 @@
         <v>202</v>
       </c>
       <c r="H342" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I342">
         <v>116.83463140000001</v>
@@ -17249,7 +17249,7 @@
         <v>5.452415309</v>
       </c>
       <c r="K342" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L342" s="2">
         <v>7</v>
@@ -17284,7 +17284,7 @@
         <v>205</v>
       </c>
       <c r="H343" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I343">
         <v>103.8107883</v>
@@ -17293,7 +17293,7 @@
         <v>1.3610091550000001</v>
       </c>
       <c r="K343" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L343" s="2">
         <v>7</v>
@@ -17328,7 +17328,7 @@
         <v>15</v>
       </c>
       <c r="H344" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I344">
         <v>54.197663480000003</v>
@@ -17337,7 +17337,7 @@
         <v>32.743708849999997</v>
       </c>
       <c r="K344" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L344" s="2">
         <v>10</v>
@@ -17372,7 +17372,7 @@
         <v>74</v>
       </c>
       <c r="H345" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I345">
         <v>-99.138303109999995</v>
@@ -17381,7 +17381,7 @@
         <v>39.527787099999998</v>
       </c>
       <c r="K345" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L345" s="2">
         <v>10</v>
@@ -17416,7 +17416,7 @@
         <v>84</v>
       </c>
       <c r="H346" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I346">
         <v>166.92312999999999</v>
@@ -17425,7 +17425,7 @@
         <v>-0.52874262299999997</v>
       </c>
       <c r="K346" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L346" s="2">
         <v>10</v>
@@ -17460,7 +17460,7 @@
         <v>88</v>
       </c>
       <c r="H347" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I347">
         <v>134.57338780000001</v>
@@ -17469,7 +17469,7 @@
         <v>7.5023075910000001</v>
       </c>
       <c r="K347" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L347" s="2">
         <v>10</v>
@@ -17504,7 +17504,7 @@
         <v>90</v>
       </c>
       <c r="H348" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I348">
         <v>-175.19599909999999</v>
@@ -17513,7 +17513,7 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K348" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L348" s="2">
         <v>10</v>
@@ -17548,7 +17548,7 @@
         <v>133</v>
       </c>
       <c r="H349" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I349">
         <v>46.203674769999999</v>
@@ -17592,7 +17592,7 @@
         <v>136</v>
       </c>
       <c r="H350" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I350">
         <v>29.956501589999998</v>
@@ -17601,7 +17601,7 @@
         <v>16.026430659999999</v>
       </c>
       <c r="K350" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L350" s="2">
         <v>10</v>
@@ -17636,7 +17636,7 @@
         <v>185</v>
       </c>
       <c r="H351" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I351">
         <v>35.256941220000002</v>
@@ -17645,7 +17645,7 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K351" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L351" s="2">
         <v>10</v>
@@ -17677,10 +17677,10 @@
         <v>344</v>
       </c>
       <c r="G352" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H352" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I352">
         <v>114.0266445</v>
@@ -17689,7 +17689,7 @@
         <v>22.417499339999999</v>
       </c>
       <c r="K352" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L352" s="2">
         <v>10</v>
@@ -17724,7 +17724,7 @@
         <v>4</v>
       </c>
       <c r="H353" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I353">
         <v>89.176607880000006</v>
@@ -17733,7 +17733,7 @@
         <v>22.869616220000001</v>
       </c>
       <c r="K353" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L353" s="2">
         <v>7</v>
@@ -17768,7 +17768,7 @@
         <v>57</v>
       </c>
       <c r="H354" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I354">
         <v>170.47556729999999</v>
@@ -17777,7 +17777,7 @@
         <v>-43.987215679999998</v>
       </c>
       <c r="K354" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L354" s="2">
         <v>7</v>
@@ -17812,7 +17812,7 @@
         <v>76</v>
       </c>
       <c r="H355" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I355">
         <v>2.6781642269999999</v>
@@ -17821,7 +17821,7 @@
         <v>28.15940032</v>
       </c>
       <c r="K355" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L355" s="2">
         <v>7</v>
@@ -17856,7 +17856,7 @@
         <v>77</v>
       </c>
       <c r="H356" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I356">
         <v>18.029598499999999</v>
@@ -17865,7 +17865,7 @@
         <v>27.04042819</v>
       </c>
       <c r="K356" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L356" s="2">
         <v>7</v>
@@ -17900,7 +17900,7 @@
         <v>78</v>
       </c>
       <c r="H357" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I357">
         <v>-6.2819428410000002</v>
@@ -17909,7 +17909,7 @@
         <v>31.844013100000002</v>
       </c>
       <c r="K357" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L357" s="2">
         <v>7</v>
@@ -17947,7 +17947,7 @@
         <v>80</v>
       </c>
       <c r="H358" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I358">
         <v>29.774685340000001</v>
@@ -17956,7 +17956,7 @@
         <v>26.57438204</v>
       </c>
       <c r="K358" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L358" s="2">
         <v>7</v>
@@ -17991,7 +17991,7 @@
         <v>86</v>
       </c>
       <c r="H359" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I359">
         <v>158.22521599999999</v>
@@ -18000,7 +18000,7 @@
         <v>6.8806700919999999</v>
       </c>
       <c r="K359" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L359" s="2">
         <v>7</v>
@@ -18035,7 +18035,7 @@
         <v>116</v>
       </c>
       <c r="H360" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I360">
         <v>28.253621949999999</v>
@@ -18079,7 +18079,7 @@
         <v>125</v>
       </c>
       <c r="H361" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I361">
         <v>9.4001678769999995</v>
@@ -18123,7 +18123,7 @@
         <v>145</v>
       </c>
       <c r="H362" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I362">
         <v>-78.051116629999996</v>
@@ -18167,7 +18167,7 @@
         <v>184</v>
       </c>
       <c r="H363" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I363">
         <v>50.5490754</v>
@@ -18176,7 +18176,7 @@
         <v>26.044077470000001</v>
       </c>
       <c r="K363" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L363" s="2">
         <v>7</v>
@@ -18211,7 +18211,7 @@
         <v>186</v>
       </c>
       <c r="H364" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I364">
         <v>43.766062669999997</v>
@@ -18220,7 +18220,7 @@
         <v>33.05013795</v>
       </c>
       <c r="K364" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L364" s="2">
         <v>7</v>
@@ -18255,7 +18255,7 @@
         <v>191</v>
       </c>
       <c r="H365" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I365">
         <v>51.19152467</v>
@@ -18264,7 +18264,7 @@
         <v>25.283553789999999</v>
       </c>
       <c r="K365" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L365" s="2">
         <v>7</v>
@@ -18299,7 +18299,7 @@
         <v>193</v>
       </c>
       <c r="H366" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I366">
         <v>38.50466565</v>
@@ -18308,7 +18308,7 @@
         <v>35.016761760000001</v>
       </c>
       <c r="K366" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L366" s="2">
         <v>7</v>
@@ -18343,7 +18343,7 @@
         <v>194</v>
       </c>
       <c r="H367" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I367">
         <v>53.982791589999998</v>
@@ -18352,7 +18352,7 @@
         <v>23.433222189999999</v>
       </c>
       <c r="K367" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L367" s="2">
         <v>7</v>
@@ -18387,7 +18387,7 @@
         <v>205</v>
       </c>
       <c r="H368" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I368">
         <v>103.8107883</v>
@@ -18396,7 +18396,7 @@
         <v>1.3610091550000001</v>
       </c>
       <c r="K368" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L368" s="2">
         <v>7</v>
@@ -18431,7 +18431,7 @@
         <v>209</v>
       </c>
       <c r="H369" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I369">
         <v>127.1803633</v>
@@ -18440,7 +18440,7 @@
         <v>40.146264500000001</v>
       </c>
       <c r="K369" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L369" s="2">
         <v>7</v>
@@ -18475,7 +18475,7 @@
         <v>15</v>
       </c>
       <c r="H370" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I370">
         <v>54.197663480000003</v>
@@ -18484,7 +18484,7 @@
         <v>32.743708849999997</v>
       </c>
       <c r="K370" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L370" s="2">
         <v>10</v>
@@ -18519,7 +18519,7 @@
         <v>74</v>
       </c>
       <c r="H371" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I371">
         <v>-99.138303109999995</v>
@@ -18528,7 +18528,7 @@
         <v>39.527787099999998</v>
       </c>
       <c r="K371" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L371" s="2">
         <v>10</v>
@@ -18563,7 +18563,7 @@
         <v>84</v>
       </c>
       <c r="H372" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I372">
         <v>166.92312999999999</v>
@@ -18572,7 +18572,7 @@
         <v>-0.52874262299999997</v>
       </c>
       <c r="K372" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L372" s="2">
         <v>10</v>
@@ -18607,7 +18607,7 @@
         <v>88</v>
       </c>
       <c r="H373" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I373">
         <v>134.57338780000001</v>
@@ -18616,7 +18616,7 @@
         <v>7.5023075910000001</v>
       </c>
       <c r="K373" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L373" s="2">
         <v>10</v>
@@ -18651,7 +18651,7 @@
         <v>90</v>
       </c>
       <c r="H374" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I374">
         <v>-175.19599909999999</v>
@@ -18660,7 +18660,7 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K374" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L374" s="2">
         <v>10</v>
@@ -18695,7 +18695,7 @@
         <v>133</v>
       </c>
       <c r="H375" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I375">
         <v>46.203674769999999</v>
@@ -18739,7 +18739,7 @@
         <v>136</v>
       </c>
       <c r="H376" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I376">
         <v>29.956501589999998</v>
@@ -18748,7 +18748,7 @@
         <v>16.026430659999999</v>
       </c>
       <c r="K376" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L376" s="2">
         <v>10</v>
@@ -18783,7 +18783,7 @@
         <v>185</v>
       </c>
       <c r="H377" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I377">
         <v>35.256941220000002</v>
@@ -18792,7 +18792,7 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K377" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L377" s="2">
         <v>10</v>
@@ -18824,10 +18824,10 @@
         <v>344</v>
       </c>
       <c r="G378" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H378" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I378">
         <v>114.0266445</v>
@@ -18836,7 +18836,7 @@
         <v>22.417499339999999</v>
       </c>
       <c r="K378" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L378" s="2">
         <v>10</v>
@@ -18871,7 +18871,7 @@
         <v>4</v>
       </c>
       <c r="H379" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I379">
         <v>89.176607880000006</v>
@@ -18880,7 +18880,7 @@
         <v>22.869616220000001</v>
       </c>
       <c r="K379" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L379" s="2">
         <v>7</v>
@@ -18915,7 +18915,7 @@
         <v>12</v>
       </c>
       <c r="H380" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I380">
         <v>79.3608464</v>
@@ -18924,7 +18924,7 @@
         <v>22.346420739999999</v>
       </c>
       <c r="K380" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L380" s="2">
         <v>7</v>
@@ -18962,7 +18962,7 @@
         <v>21</v>
       </c>
       <c r="H381" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I381">
         <v>73.096725460000002</v>
@@ -18971,7 +18971,7 @@
         <v>-0.61438502100000003</v>
       </c>
       <c r="K381" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L381" s="2">
         <v>7</v>
@@ -19006,7 +19006,7 @@
         <v>38</v>
       </c>
       <c r="H382" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I382">
         <v>2.4572881290000002</v>
@@ -19015,7 +19015,7 @@
         <v>46.626608609999998</v>
       </c>
       <c r="K382" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L382" s="2">
         <v>7</v>
@@ -19050,7 +19050,7 @@
         <v>43</v>
       </c>
       <c r="H383" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I383">
         <v>-7.1214252719999998</v>
@@ -19059,7 +19059,7 @@
         <v>53.252740539999998</v>
       </c>
       <c r="K383" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L383" s="2">
         <v>7</v>
@@ -19097,7 +19097,7 @@
         <v>45</v>
       </c>
       <c r="H384" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I384">
         <v>34.622779919999999</v>
@@ -19106,7 +19106,7 @@
         <v>31.061645519999999</v>
       </c>
       <c r="K384" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L384" s="2">
         <v>7</v>
@@ -19141,7 +19141,7 @@
         <v>52</v>
       </c>
       <c r="H385" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I385">
         <v>14.44617519</v>
@@ -19150,7 +19150,7 @@
         <v>35.891942749999998</v>
       </c>
       <c r="K385" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L385" s="2">
         <v>7</v>
@@ -19185,7 +19185,7 @@
         <v>53</v>
       </c>
       <c r="H386" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I386">
         <v>7.4242148139999999</v>
@@ -19194,7 +19194,7 @@
         <v>43.735329180000001</v>
       </c>
       <c r="K386" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L386" s="2">
         <v>7</v>
@@ -19229,7 +19229,7 @@
         <v>69</v>
       </c>
       <c r="H387" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I387">
         <v>8.2231579999999997</v>
@@ -19238,7 +19238,7 @@
         <v>46.96617097</v>
       </c>
       <c r="K387" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L387" s="2">
         <v>7</v>
@@ -19273,7 +19273,7 @@
         <v>72</v>
       </c>
       <c r="H388" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I388">
         <v>-2.2383053899999998</v>
@@ -19282,7 +19282,7 @@
         <v>53.276917570000002</v>
       </c>
       <c r="K388" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L388" s="2">
         <v>7</v>
@@ -19320,7 +19320,7 @@
         <v>76</v>
       </c>
       <c r="H389" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I389">
         <v>2.6781642269999999</v>
@@ -19329,7 +19329,7 @@
         <v>28.15940032</v>
       </c>
       <c r="K389" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L389" s="2">
         <v>7</v>
@@ -19364,7 +19364,7 @@
         <v>77</v>
       </c>
       <c r="H390" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I390">
         <v>18.029598499999999</v>
@@ -19373,7 +19373,7 @@
         <v>27.04042819</v>
       </c>
       <c r="K390" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L390" s="2">
         <v>7</v>
@@ -19408,7 +19408,7 @@
         <v>78</v>
       </c>
       <c r="H391" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I391">
         <v>-6.2819428410000002</v>
@@ -19417,7 +19417,7 @@
         <v>31.844013100000002</v>
       </c>
       <c r="K391" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L391" s="2">
         <v>7</v>
@@ -19455,7 +19455,7 @@
         <v>79</v>
       </c>
       <c r="H392" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I392">
         <v>9.5727374110000003</v>
@@ -19464,7 +19464,7 @@
         <v>34.114399710000001</v>
       </c>
       <c r="K392" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L392" s="2">
         <v>7</v>
@@ -19499,7 +19499,7 @@
         <v>80</v>
       </c>
       <c r="H393" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I393">
         <v>29.774685340000001</v>
@@ -19508,7 +19508,7 @@
         <v>26.57438204</v>
       </c>
       <c r="K393" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L393" s="2">
         <v>7</v>
@@ -19543,7 +19543,7 @@
         <v>86</v>
       </c>
       <c r="H394" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I394">
         <v>158.22521599999999</v>
@@ -19552,7 +19552,7 @@
         <v>6.8806700919999999</v>
       </c>
       <c r="K394" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L394" s="2">
         <v>7</v>
@@ -19587,7 +19587,7 @@
         <v>125</v>
       </c>
       <c r="H395" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I395">
         <v>9.4001678769999995</v>
@@ -19631,7 +19631,7 @@
         <v>184</v>
       </c>
       <c r="H396" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I396">
         <v>50.5490754</v>
@@ -19640,7 +19640,7 @@
         <v>26.044077470000001</v>
       </c>
       <c r="K396" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L396" s="2">
         <v>7</v>
@@ -19675,7 +19675,7 @@
         <v>186</v>
       </c>
       <c r="H397" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I397">
         <v>43.766062669999997</v>
@@ -19684,7 +19684,7 @@
         <v>33.05013795</v>
       </c>
       <c r="K397" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L397" s="2">
         <v>7</v>
@@ -19719,7 +19719,7 @@
         <v>187</v>
       </c>
       <c r="H398" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I398">
         <v>37.130247740000001</v>
@@ -19728,7 +19728,7 @@
         <v>30.653659730000001</v>
       </c>
       <c r="K398" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L398" s="2">
         <v>7</v>
@@ -19763,7 +19763,7 @@
         <v>188</v>
       </c>
       <c r="H399" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I399">
         <v>47.493050289999999</v>
@@ -19772,7 +19772,7 @@
         <v>29.539494680000001</v>
       </c>
       <c r="K399" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L399" s="2">
         <v>7</v>
@@ -19807,7 +19807,7 @@
         <v>189</v>
       </c>
       <c r="H400" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I400">
         <v>35.893917109999997</v>
@@ -19816,7 +19816,7 @@
         <v>33.921524580000003</v>
       </c>
       <c r="K400" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L400" s="2">
         <v>7</v>
@@ -19851,7 +19851,7 @@
         <v>190</v>
       </c>
       <c r="H401" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I401">
         <v>57.877434819999998</v>
@@ -19860,7 +19860,7 @@
         <v>21.988056140000001</v>
       </c>
       <c r="K401" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L401" s="2">
         <v>7</v>
@@ -19895,7 +19895,7 @@
         <v>191</v>
       </c>
       <c r="H402" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I402">
         <v>51.19152467</v>
@@ -19904,7 +19904,7 @@
         <v>25.283553789999999</v>
       </c>
       <c r="K402" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L402" s="2">
         <v>7</v>
@@ -19939,7 +19939,7 @@
         <v>193</v>
       </c>
       <c r="H403" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I403">
         <v>38.50466565</v>
@@ -19948,7 +19948,7 @@
         <v>35.016761760000001</v>
       </c>
       <c r="K403" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L403" s="2">
         <v>7</v>
@@ -19983,7 +19983,7 @@
         <v>194</v>
       </c>
       <c r="H404" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I404">
         <v>53.982791589999998</v>
@@ -19992,7 +19992,7 @@
         <v>23.433222189999999</v>
       </c>
       <c r="K404" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L404" s="2">
         <v>7</v>
@@ -20027,7 +20027,7 @@
         <v>202</v>
       </c>
       <c r="H405" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I405">
         <v>116.83463140000001</v>
@@ -20036,7 +20036,7 @@
         <v>5.452415309</v>
       </c>
       <c r="K405" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L405" s="2">
         <v>7</v>
@@ -20071,7 +20071,7 @@
         <v>205</v>
       </c>
       <c r="H406" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I406">
         <v>103.8107883</v>
@@ -20080,7 +20080,7 @@
         <v>1.3610091550000001</v>
       </c>
       <c r="K406" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L406" s="2">
         <v>7</v>
@@ -20115,7 +20115,7 @@
         <v>207</v>
       </c>
       <c r="H407" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I407">
         <v>101.0202951</v>
@@ -20124,7 +20124,7 @@
         <v>15.13089239</v>
       </c>
       <c r="K407" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L407" s="2">
         <v>7</v>
@@ -20159,7 +20159,7 @@
         <v>210</v>
       </c>
       <c r="H408" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I408">
         <v>127.8610254</v>
@@ -20168,7 +20168,7 @@
         <v>36.452010229999999</v>
       </c>
       <c r="K408" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L408" s="2">
         <v>7</v>
@@ -20203,7 +20203,7 @@
         <v>15</v>
       </c>
       <c r="H409" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I409">
         <v>54.197663480000003</v>
@@ -20212,7 +20212,7 @@
         <v>32.743708849999997</v>
       </c>
       <c r="K409" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L409" s="2">
         <v>10</v>
@@ -20247,7 +20247,7 @@
         <v>74</v>
       </c>
       <c r="H410" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I410">
         <v>-99.138303109999995</v>
@@ -20256,7 +20256,7 @@
         <v>39.527787099999998</v>
       </c>
       <c r="K410" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L410" s="2">
         <v>10</v>
@@ -20291,7 +20291,7 @@
         <v>84</v>
       </c>
       <c r="H411" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I411">
         <v>166.92312999999999</v>
@@ -20300,7 +20300,7 @@
         <v>-0.52874262299999997</v>
       </c>
       <c r="K411" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L411" s="2">
         <v>10</v>
@@ -20335,7 +20335,7 @@
         <v>88</v>
       </c>
       <c r="H412" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I412">
         <v>134.57338780000001</v>
@@ -20344,7 +20344,7 @@
         <v>7.5023075910000001</v>
       </c>
       <c r="K412" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L412" s="2">
         <v>10</v>
@@ -20379,7 +20379,7 @@
         <v>90</v>
       </c>
       <c r="H413" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I413">
         <v>-175.19599909999999</v>
@@ -20388,7 +20388,7 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K413" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L413" s="2">
         <v>10</v>
@@ -20423,7 +20423,7 @@
         <v>133</v>
       </c>
       <c r="H414" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I414">
         <v>46.203674769999999</v>
@@ -20467,7 +20467,7 @@
         <v>136</v>
       </c>
       <c r="H415" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I415">
         <v>29.956501589999998</v>
@@ -20476,7 +20476,7 @@
         <v>16.026430659999999</v>
       </c>
       <c r="K415" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L415" s="2">
         <v>10</v>
@@ -20511,7 +20511,7 @@
         <v>185</v>
       </c>
       <c r="H416" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I416">
         <v>35.256941220000002</v>
@@ -20520,7 +20520,7 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K416" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L416" s="2">
         <v>10</v>
@@ -20552,10 +20552,10 @@
         <v>344</v>
       </c>
       <c r="G417" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H417" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I417">
         <v>114.0266445</v>
@@ -20564,7 +20564,7 @@
         <v>22.417499339999999</v>
       </c>
       <c r="K417" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L417" s="2">
         <v>10</v>
@@ -20599,7 +20599,7 @@
         <v>26</v>
       </c>
       <c r="H418" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I418">
         <v>134.34994119999999</v>
@@ -20608,7 +20608,7 @@
         <v>-25.577172019999999</v>
       </c>
       <c r="K418" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L418" s="2">
         <v>7</v>
@@ -20643,7 +20643,7 @@
         <v>27</v>
       </c>
       <c r="H419" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I419">
         <v>14.141724719999999</v>
@@ -20652,7 +20652,7 @@
         <v>47.58704857</v>
       </c>
       <c r="K419" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L419" s="2">
         <v>7</v>
@@ -20687,7 +20687,7 @@
         <v>43</v>
       </c>
       <c r="H420" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I420">
         <v>-7.1214252719999998</v>
@@ -20696,7 +20696,7 @@
         <v>53.252740539999998</v>
       </c>
       <c r="K420" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L420" s="2">
         <v>7</v>
@@ -20731,7 +20731,7 @@
         <v>52</v>
       </c>
       <c r="H421" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I421">
         <v>14.44617519</v>
@@ -20740,7 +20740,7 @@
         <v>35.891942749999998</v>
       </c>
       <c r="K421" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L421" s="2">
         <v>7</v>
@@ -20775,7 +20775,7 @@
         <v>72</v>
       </c>
       <c r="H422" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I422">
         <v>-2.2383053899999998</v>
@@ -20784,7 +20784,7 @@
         <v>53.276917570000002</v>
       </c>
       <c r="K422" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L422" s="2">
         <v>7</v>
@@ -20819,7 +20819,7 @@
         <v>86</v>
       </c>
       <c r="H423" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I423">
         <v>158.22521599999999</v>
@@ -20828,7 +20828,7 @@
         <v>6.8806700919999999</v>
       </c>
       <c r="K423" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L423" s="2">
         <v>7</v>
@@ -20863,7 +20863,7 @@
         <v>205</v>
       </c>
       <c r="H424" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I424">
         <v>103.8107883</v>
@@ -20872,7 +20872,7 @@
         <v>1.3610091550000001</v>
       </c>
       <c r="K424" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L424" s="2">
         <v>7</v>
@@ -20907,7 +20907,7 @@
         <v>15</v>
       </c>
       <c r="H425" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I425">
         <v>54.197663480000003</v>
@@ -20916,7 +20916,7 @@
         <v>32.743708849999997</v>
       </c>
       <c r="K425" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L425" s="2">
         <v>10</v>
@@ -20951,7 +20951,7 @@
         <v>74</v>
       </c>
       <c r="H426" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I426">
         <v>-99.138303109999995</v>
@@ -20960,7 +20960,7 @@
         <v>39.527787099999998</v>
       </c>
       <c r="K426" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L426" s="2">
         <v>10</v>
@@ -20995,7 +20995,7 @@
         <v>84</v>
       </c>
       <c r="H427" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I427">
         <v>166.92312999999999</v>
@@ -21004,7 +21004,7 @@
         <v>-0.52874262299999997</v>
       </c>
       <c r="K427" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L427" s="2">
         <v>10</v>
@@ -21039,7 +21039,7 @@
         <v>88</v>
       </c>
       <c r="H428" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I428">
         <v>134.57338780000001</v>
@@ -21048,7 +21048,7 @@
         <v>7.5023075910000001</v>
       </c>
       <c r="K428" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L428" s="2">
         <v>10</v>
@@ -21083,7 +21083,7 @@
         <v>90</v>
       </c>
       <c r="H429" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I429">
         <v>-175.19599909999999</v>
@@ -21092,7 +21092,7 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K429" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L429" s="2">
         <v>10</v>
@@ -21127,7 +21127,7 @@
         <v>133</v>
       </c>
       <c r="H430" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I430">
         <v>46.203674769999999</v>
@@ -21171,7 +21171,7 @@
         <v>136</v>
       </c>
       <c r="H431" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I431">
         <v>29.956501589999998</v>
@@ -21180,7 +21180,7 @@
         <v>16.026430659999999</v>
       </c>
       <c r="K431" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L431" s="2">
         <v>10</v>
@@ -21215,7 +21215,7 @@
         <v>185</v>
       </c>
       <c r="H432" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I432">
         <v>35.256941220000002</v>
@@ -21224,7 +21224,7 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K432" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L432" s="2">
         <v>10</v>
@@ -21256,10 +21256,10 @@
         <v>344</v>
       </c>
       <c r="G433" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H433" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I433">
         <v>114.0266445</v>
@@ -21268,7 +21268,7 @@
         <v>22.417499339999999</v>
       </c>
       <c r="K433" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L433" s="2">
         <v>10</v>
@@ -21303,7 +21303,7 @@
         <v>38</v>
       </c>
       <c r="H434" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I434">
         <v>2.4572881290000002</v>
@@ -21312,7 +21312,7 @@
         <v>46.626608609999998</v>
       </c>
       <c r="K434" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L434" s="2">
         <v>7</v>
@@ -21347,7 +21347,7 @@
         <v>53</v>
       </c>
       <c r="H435" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I435">
         <v>7.4242148139999999</v>
@@ -21356,7 +21356,7 @@
         <v>43.735329180000001</v>
       </c>
       <c r="K435" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L435" s="2">
         <v>7</v>
@@ -21391,7 +21391,7 @@
         <v>72</v>
       </c>
       <c r="H436" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I436">
         <v>-2.2383053899999998</v>
@@ -21400,7 +21400,7 @@
         <v>53.276917570000002</v>
       </c>
       <c r="K436" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L436" s="2">
         <v>7</v>
@@ -21435,7 +21435,7 @@
         <v>78</v>
       </c>
       <c r="H437" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I437">
         <v>-6.2819428410000002</v>
@@ -21444,7 +21444,7 @@
         <v>31.844013100000002</v>
       </c>
       <c r="K437" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L437" s="2">
         <v>7</v>
@@ -21482,7 +21482,7 @@
         <v>79</v>
       </c>
       <c r="H438" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I438">
         <v>9.5727374110000003</v>
@@ -21491,7 +21491,7 @@
         <v>34.114399710000001</v>
       </c>
       <c r="K438" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L438" s="2">
         <v>7</v>
@@ -21526,7 +21526,7 @@
         <v>145</v>
       </c>
       <c r="H439" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I439">
         <v>-78.051116629999996</v>
@@ -21570,7 +21570,7 @@
         <v>184</v>
       </c>
       <c r="H440" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I440">
         <v>50.5490754</v>
@@ -21579,7 +21579,7 @@
         <v>26.044077470000001</v>
       </c>
       <c r="K440" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L440" s="2">
         <v>7</v>
@@ -21614,7 +21614,7 @@
         <v>186</v>
       </c>
       <c r="H441" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I441">
         <v>43.766062669999997</v>
@@ -21623,7 +21623,7 @@
         <v>33.05013795</v>
       </c>
       <c r="K441" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L441" s="2">
         <v>7</v>
@@ -21658,7 +21658,7 @@
         <v>187</v>
       </c>
       <c r="H442" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I442">
         <v>37.130247740000001</v>
@@ -21667,7 +21667,7 @@
         <v>30.653659730000001</v>
       </c>
       <c r="K442" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L442" s="2">
         <v>7</v>
@@ -21702,7 +21702,7 @@
         <v>188</v>
       </c>
       <c r="H443" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I443">
         <v>47.493050289999999</v>
@@ -21711,7 +21711,7 @@
         <v>29.539494680000001</v>
       </c>
       <c r="K443" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L443" s="2">
         <v>7</v>
@@ -21746,7 +21746,7 @@
         <v>189</v>
       </c>
       <c r="H444" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I444">
         <v>35.893917109999997</v>
@@ -21755,7 +21755,7 @@
         <v>33.921524580000003</v>
       </c>
       <c r="K444" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L444" s="2">
         <v>7</v>
@@ -21790,7 +21790,7 @@
         <v>190</v>
       </c>
       <c r="H445" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I445">
         <v>57.877434819999998</v>
@@ -21799,7 +21799,7 @@
         <v>21.988056140000001</v>
       </c>
       <c r="K445" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L445" s="2">
         <v>7</v>
@@ -21834,7 +21834,7 @@
         <v>191</v>
       </c>
       <c r="H446" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I446">
         <v>51.19152467</v>
@@ -21843,7 +21843,7 @@
         <v>25.283553789999999</v>
       </c>
       <c r="K446" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L446" s="2">
         <v>7</v>
@@ -21878,7 +21878,7 @@
         <v>192</v>
       </c>
       <c r="H447" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I447">
         <v>44.547633470000001</v>
@@ -21887,7 +21887,7 @@
         <v>24.12594211</v>
       </c>
       <c r="K447" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L447" s="2">
         <v>7</v>
@@ -21922,7 +21922,7 @@
         <v>193</v>
       </c>
       <c r="H448" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I448">
         <v>38.50466565</v>
@@ -21931,7 +21931,7 @@
         <v>35.016761760000001</v>
       </c>
       <c r="K448" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L448" s="2">
         <v>7</v>
@@ -21966,7 +21966,7 @@
         <v>194</v>
       </c>
       <c r="H449" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I449">
         <v>53.982791589999998</v>
@@ -21975,7 +21975,7 @@
         <v>23.433222189999999</v>
       </c>
       <c r="K449" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L449" s="2">
         <v>7</v>
@@ -22010,7 +22010,7 @@
         <v>197</v>
       </c>
       <c r="H450" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I450">
         <v>114.6288563</v>
@@ -22019,7 +22019,7 @@
         <v>4.4973698400000002</v>
       </c>
       <c r="K450" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L450" s="2">
         <v>7</v>
@@ -22054,7 +22054,7 @@
         <v>202</v>
       </c>
       <c r="H451" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I451">
         <v>116.83463140000001</v>
@@ -22063,7 +22063,7 @@
         <v>5.452415309</v>
       </c>
       <c r="K451" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L451" s="2">
         <v>7</v>
@@ -22098,7 +22098,7 @@
         <v>209</v>
       </c>
       <c r="H452" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I452">
         <v>127.1803633</v>
@@ -22107,7 +22107,7 @@
         <v>40.146264500000001</v>
       </c>
       <c r="K452" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L452" s="2">
         <v>7</v>
@@ -22142,7 +22142,7 @@
         <v>210</v>
       </c>
       <c r="H453" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I453">
         <v>127.8610254</v>
@@ -22151,7 +22151,7 @@
         <v>36.452010229999999</v>
       </c>
       <c r="K453" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L453" s="2">
         <v>7</v>
@@ -22186,7 +22186,7 @@
         <v>15</v>
       </c>
       <c r="H454" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I454">
         <v>54.197663480000003</v>
@@ -22195,7 +22195,7 @@
         <v>32.743708849999997</v>
       </c>
       <c r="K454" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L454" s="2">
         <v>10</v>
@@ -22230,7 +22230,7 @@
         <v>74</v>
       </c>
       <c r="H455" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I455">
         <v>-99.138303109999995</v>
@@ -22239,7 +22239,7 @@
         <v>39.527787099999998</v>
       </c>
       <c r="K455" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L455" s="2">
         <v>10</v>
@@ -22274,7 +22274,7 @@
         <v>84</v>
       </c>
       <c r="H456" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I456">
         <v>166.92312999999999</v>
@@ -22283,7 +22283,7 @@
         <v>-0.52874262299999997</v>
       </c>
       <c r="K456" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L456" s="2">
         <v>10</v>
@@ -22318,7 +22318,7 @@
         <v>88</v>
       </c>
       <c r="H457" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I457">
         <v>134.57338780000001</v>
@@ -22327,7 +22327,7 @@
         <v>7.5023075910000001</v>
       </c>
       <c r="K457" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L457" s="2">
         <v>10</v>
@@ -22362,7 +22362,7 @@
         <v>90</v>
       </c>
       <c r="H458" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I458">
         <v>-175.19599909999999</v>
@@ -22371,7 +22371,7 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K458" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L458" s="2">
         <v>10</v>
@@ -22406,7 +22406,7 @@
         <v>133</v>
       </c>
       <c r="H459" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I459">
         <v>46.203674769999999</v>
@@ -22450,7 +22450,7 @@
         <v>136</v>
       </c>
       <c r="H460" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I460">
         <v>29.956501589999998</v>
@@ -22459,7 +22459,7 @@
         <v>16.026430659999999</v>
       </c>
       <c r="K460" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L460" s="2">
         <v>10</v>
@@ -22494,7 +22494,7 @@
         <v>185</v>
       </c>
       <c r="H461" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I461">
         <v>35.256941220000002</v>
@@ -22503,7 +22503,7 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K461" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L461" s="2">
         <v>10</v>
@@ -22535,10 +22535,10 @@
         <v>344</v>
       </c>
       <c r="G462" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H462" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I462">
         <v>114.0266445</v>
@@ -22547,7 +22547,7 @@
         <v>22.417499339999999</v>
       </c>
       <c r="K462" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L462" s="2">
         <v>10</v>
@@ -22582,7 +22582,7 @@
         <v>76</v>
       </c>
       <c r="H463" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I463">
         <v>2.6781642269999999</v>
@@ -22591,7 +22591,7 @@
         <v>28.15940032</v>
       </c>
       <c r="K463" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L463" s="2">
         <v>7</v>
@@ -22626,7 +22626,7 @@
         <v>78</v>
       </c>
       <c r="H464" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I464">
         <v>-6.2819428410000002</v>
@@ -22635,7 +22635,7 @@
         <v>31.844013100000002</v>
       </c>
       <c r="K464" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L464" s="2">
         <v>7</v>
@@ -22673,7 +22673,7 @@
         <v>79</v>
       </c>
       <c r="H465" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I465">
         <v>9.5727374110000003</v>
@@ -22682,7 +22682,7 @@
         <v>34.114399710000001</v>
       </c>
       <c r="K465" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L465" s="2">
         <v>7</v>
@@ -22717,7 +22717,7 @@
         <v>125</v>
       </c>
       <c r="H466" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I466">
         <v>9.4001678769999995</v>
@@ -22761,7 +22761,7 @@
         <v>184</v>
       </c>
       <c r="H467" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I467">
         <v>50.5490754</v>
@@ -22770,7 +22770,7 @@
         <v>26.044077470000001</v>
       </c>
       <c r="K467" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L467" s="2">
         <v>7</v>
@@ -22805,7 +22805,7 @@
         <v>190</v>
       </c>
       <c r="H468" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I468">
         <v>57.877434819999998</v>
@@ -22814,7 +22814,7 @@
         <v>21.988056140000001</v>
       </c>
       <c r="K468" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L468" s="2">
         <v>7</v>
@@ -22849,7 +22849,7 @@
         <v>191</v>
       </c>
       <c r="H469" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I469">
         <v>51.19152467</v>
@@ -22858,7 +22858,7 @@
         <v>25.283553789999999</v>
       </c>
       <c r="K469" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L469" s="2">
         <v>7</v>
@@ -22893,7 +22893,7 @@
         <v>193</v>
       </c>
       <c r="H470" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I470">
         <v>38.50466565</v>
@@ -22902,7 +22902,7 @@
         <v>35.016761760000001</v>
       </c>
       <c r="K470" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L470" s="2">
         <v>7</v>
@@ -22937,7 +22937,7 @@
         <v>15</v>
       </c>
       <c r="H471" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I471">
         <v>54.197663480000003</v>
@@ -22946,7 +22946,7 @@
         <v>32.743708849999997</v>
       </c>
       <c r="K471" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L471" s="2">
         <v>10</v>
@@ -22981,7 +22981,7 @@
         <v>74</v>
       </c>
       <c r="H472" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I472">
         <v>-99.138303109999995</v>
@@ -22990,7 +22990,7 @@
         <v>39.527787099999998</v>
       </c>
       <c r="K472" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L472" s="2">
         <v>10</v>
@@ -23025,7 +23025,7 @@
         <v>84</v>
       </c>
       <c r="H473" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I473">
         <v>166.92312999999999</v>
@@ -23034,7 +23034,7 @@
         <v>-0.52874262299999997</v>
       </c>
       <c r="K473" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L473" s="2">
         <v>10</v>
@@ -23069,7 +23069,7 @@
         <v>88</v>
       </c>
       <c r="H474" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I474">
         <v>134.57338780000001</v>
@@ -23078,7 +23078,7 @@
         <v>7.5023075910000001</v>
       </c>
       <c r="K474" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L474" s="2">
         <v>10</v>
@@ -23113,7 +23113,7 @@
         <v>90</v>
       </c>
       <c r="H475" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I475">
         <v>-175.19599909999999</v>
@@ -23122,7 +23122,7 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K475" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L475" s="2">
         <v>10</v>
@@ -23157,7 +23157,7 @@
         <v>133</v>
       </c>
       <c r="H476" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I476">
         <v>46.203674769999999</v>
@@ -23201,7 +23201,7 @@
         <v>136</v>
       </c>
       <c r="H477" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I477">
         <v>29.956501589999998</v>
@@ -23210,7 +23210,7 @@
         <v>16.026430659999999</v>
       </c>
       <c r="K477" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L477" s="2">
         <v>10</v>
@@ -23245,7 +23245,7 @@
         <v>185</v>
       </c>
       <c r="H478" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I478">
         <v>35.256941220000002</v>
@@ -23254,7 +23254,7 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K478" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L478" s="2">
         <v>10</v>
@@ -23286,10 +23286,10 @@
         <v>344</v>
       </c>
       <c r="G479" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H479" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I479">
         <v>114.0266445</v>
@@ -23298,7 +23298,7 @@
         <v>22.417499339999999</v>
       </c>
       <c r="K479" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L479" s="2">
         <v>10</v>
@@ -23333,7 +23333,7 @@
         <v>12</v>
       </c>
       <c r="H480" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I480">
         <v>79.3608464</v>
@@ -23342,7 +23342,7 @@
         <v>22.346420739999999</v>
       </c>
       <c r="K480" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L480" s="2">
         <v>7</v>
@@ -23380,7 +23380,7 @@
         <v>26</v>
       </c>
       <c r="H481" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I481">
         <v>134.34994119999999</v>
@@ -23389,7 +23389,7 @@
         <v>-25.577172019999999</v>
       </c>
       <c r="K481" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L481" s="2">
         <v>7</v>
@@ -23424,7 +23424,7 @@
         <v>38</v>
       </c>
       <c r="H482" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I482">
         <v>2.4572881290000002</v>
@@ -23433,7 +23433,7 @@
         <v>46.626608609999998</v>
       </c>
       <c r="K482" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L482" s="2">
         <v>7</v>
@@ -23468,7 +23468,7 @@
         <v>43</v>
       </c>
       <c r="H483" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I483">
         <v>-7.1214252719999998</v>
@@ -23477,7 +23477,7 @@
         <v>53.252740539999998</v>
       </c>
       <c r="K483" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L483" s="2">
         <v>7</v>
@@ -23512,7 +23512,7 @@
         <v>45</v>
       </c>
       <c r="H484" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I484">
         <v>34.622779919999999</v>
@@ -23521,7 +23521,7 @@
         <v>31.061645519999999</v>
       </c>
       <c r="K484" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L484" s="2">
         <v>7</v>
@@ -23556,7 +23556,7 @@
         <v>49</v>
       </c>
       <c r="H485" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I485">
         <v>9.5529850189999994</v>
@@ -23565,7 +23565,7 @@
         <v>47.141670050000002</v>
       </c>
       <c r="K485" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L485" s="2">
         <v>7</v>
@@ -23600,7 +23600,7 @@
         <v>52</v>
       </c>
       <c r="H486" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I486">
         <v>14.44617519</v>
@@ -23609,7 +23609,7 @@
         <v>35.891942749999998</v>
       </c>
       <c r="K486" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L486" s="2">
         <v>7</v>
@@ -23644,7 +23644,7 @@
         <v>53</v>
       </c>
       <c r="H487" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I487">
         <v>7.4242148139999999</v>
@@ -23653,7 +23653,7 @@
         <v>43.735329180000001</v>
       </c>
       <c r="K487" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L487" s="2">
         <v>7</v>
@@ -23688,7 +23688,7 @@
         <v>57</v>
       </c>
       <c r="H488" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I488">
         <v>170.47556729999999</v>
@@ -23697,7 +23697,7 @@
         <v>-43.987215679999998</v>
       </c>
       <c r="K488" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L488" s="2">
         <v>7</v>
@@ -23732,7 +23732,7 @@
         <v>67</v>
       </c>
       <c r="H489" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I489">
         <v>-3.5540782960000001</v>
@@ -23741,7 +23741,7 @@
         <v>40.392114720000002</v>
       </c>
       <c r="K489" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L489" s="2">
         <v>7</v>
@@ -23779,7 +23779,7 @@
         <v>69</v>
       </c>
       <c r="H490" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I490">
         <v>8.2231579999999997</v>
@@ -23788,7 +23788,7 @@
         <v>46.96617097</v>
       </c>
       <c r="K490" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L490" s="2">
         <v>7</v>
@@ -23823,7 +23823,7 @@
         <v>72</v>
       </c>
       <c r="H491" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I491">
         <v>-2.2383053899999998</v>
@@ -23832,7 +23832,7 @@
         <v>53.276917570000002</v>
       </c>
       <c r="K491" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L491" s="2">
         <v>7</v>
@@ -23867,7 +23867,7 @@
         <v>78</v>
       </c>
       <c r="H492" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I492">
         <v>-6.2819428410000002</v>
@@ -23876,7 +23876,7 @@
         <v>31.844013100000002</v>
       </c>
       <c r="K492" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L492" s="2">
         <v>7</v>
@@ -23914,7 +23914,7 @@
         <v>86</v>
       </c>
       <c r="H493" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I493">
         <v>158.22521599999999</v>
@@ -23923,7 +23923,7 @@
         <v>6.8806700919999999</v>
       </c>
       <c r="K493" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L493" s="2">
         <v>7</v>
@@ -23958,7 +23958,7 @@
         <v>125</v>
       </c>
       <c r="H494" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I494">
         <v>9.4001678769999995</v>
@@ -24002,7 +24002,7 @@
         <v>164</v>
       </c>
       <c r="H495" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I495">
         <v>-102.5148166</v>
@@ -24049,7 +24049,7 @@
         <v>191</v>
       </c>
       <c r="H496" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I496">
         <v>51.19152467</v>
@@ -24058,7 +24058,7 @@
         <v>25.283553789999999</v>
       </c>
       <c r="K496" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L496" s="2">
         <v>7</v>
@@ -24093,7 +24093,7 @@
         <v>194</v>
       </c>
       <c r="H497" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I497">
         <v>53.982791589999998</v>
@@ -24102,7 +24102,7 @@
         <v>23.433222189999999</v>
       </c>
       <c r="K497" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L497" s="2">
         <v>7</v>
@@ -24137,7 +24137,7 @@
         <v>202</v>
       </c>
       <c r="H498" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I498">
         <v>116.83463140000001</v>
@@ -24146,7 +24146,7 @@
         <v>5.452415309</v>
       </c>
       <c r="K498" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L498" s="2">
         <v>7</v>
@@ -24164,256 +24164,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96691d2a4c347ae1a5dfc0cee8216ec1">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f18913b399a1948fbd1deaf24005938" ns2:_="" ns3:_="">
-    <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
-    <xsd:import namespace="81cf108f-c583-47b3-8493-b6de3c823d22"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:File" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="File" ma:index="20" nillable="true" ma:displayName="File" ma:list="{3d137487-0b15-4ad9-abee-bf6b36a5a6e0}" ma:internalName="File" ma:showField="Title">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="81cf108f-c583-47b3-8493-b6de3c823d22" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E6739C5-AA80-4A26-8DC4-24662BE9726C}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8404D9E3-E33E-42C9-B84D-2223D66D5481}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3DCEE06-47C1-4A12-B998-BF4C8BF2A071}"/>
 </file>
--- a/source_data/Qual_8_data.xlsx
+++ b/source_data/Qual_8_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingyan.hu\Downloads\Step2_MinSetStaticCopy_reformat&amp;upload\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\gender_data_portal\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA0EAD6-6D82-4B04-A60A-9FF3F46C388C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B71FDE-1647-4E2E-B811-DD4C77191E5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8 - Whether or not reservation " sheetId="1" r:id="rId1"/>
@@ -671,12 +671,6 @@
     <t>Mongolia</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>ISO3</t>
   </si>
   <si>
@@ -1323,6 +1317,12 @@
   </si>
   <si>
     <t>MINSET_SERIES_DESC</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -2182,7 +2182,7 @@
   <dimension ref="A1:O498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2203,49 +2203,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J1" t="s">
+        <v>429</v>
+      </c>
+      <c r="K1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="N1" t="s">
         <v>424</v>
       </c>
-      <c r="B1" t="s">
+      <c r="O1" t="s">
         <v>425</v>
-      </c>
-      <c r="C1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E1" t="s">
-        <v>429</v>
-      </c>
-      <c r="F1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K1" t="s">
-        <v>421</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="N1" t="s">
-        <v>426</v>
-      </c>
-      <c r="O1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2271,7 +2271,7 @@
         <v>185</v>
       </c>
       <c r="H2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I2">
         <v>35.256941220000002</v>
@@ -2280,7 +2280,7 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L2" s="2">
         <v>10</v>
@@ -2312,10 +2312,10 @@
         <v>344</v>
       </c>
       <c r="G3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I3">
         <v>114.0266445</v>
@@ -2324,7 +2324,7 @@
         <v>22.417499339999999</v>
       </c>
       <c r="K3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L3" s="2">
         <v>10</v>
@@ -2359,7 +2359,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I4">
         <v>54.197663480000003</v>
@@ -2368,7 +2368,7 @@
         <v>32.743708849999997</v>
       </c>
       <c r="K4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L4" s="2">
         <v>3</v>
@@ -2403,7 +2403,7 @@
         <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I5">
         <v>166.92312999999999</v>
@@ -2412,7 +2412,7 @@
         <v>-0.52874262299999997</v>
       </c>
       <c r="K5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L5" s="2">
         <v>3</v>
@@ -2447,7 +2447,7 @@
         <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I6">
         <v>134.57338780000001</v>
@@ -2456,7 +2456,7 @@
         <v>7.5023075910000001</v>
       </c>
       <c r="K6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L6" s="2">
         <v>3</v>
@@ -2491,7 +2491,7 @@
         <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I7">
         <v>-175.19599909999999</v>
@@ -2500,7 +2500,7 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L7" s="2">
         <v>3</v>
@@ -2535,7 +2535,7 @@
         <v>133</v>
       </c>
       <c r="H8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I8">
         <v>46.203674769999999</v>
@@ -2579,7 +2579,7 @@
         <v>136</v>
       </c>
       <c r="H9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I9">
         <v>29.956501589999998</v>
@@ -2588,7 +2588,7 @@
         <v>16.026430659999999</v>
       </c>
       <c r="K9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L9" s="2">
         <v>3</v>
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I10">
         <v>66.026881979999999</v>
@@ -2632,7 +2632,7 @@
         <v>33.831601990000003</v>
       </c>
       <c r="K10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L10" s="2">
         <v>4</v>
@@ -2667,7 +2667,7 @@
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I11">
         <v>89.176607880000006</v>
@@ -2676,7 +2676,7 @@
         <v>22.869616220000001</v>
       </c>
       <c r="K11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L11" s="2">
         <v>4</v>
@@ -2711,7 +2711,7 @@
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I12">
         <v>90.450984840000004</v>
@@ -2720,7 +2720,7 @@
         <v>27.395985679999999</v>
       </c>
       <c r="K12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L12" s="2">
         <v>4</v>
@@ -2755,7 +2755,7 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I13">
         <v>80.704896539999993</v>
@@ -2764,7 +2764,7 @@
         <v>7.6146933429999999</v>
       </c>
       <c r="K13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L13" s="2">
         <v>4</v>
@@ -2799,7 +2799,7 @@
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I14">
         <v>79.3608464</v>
@@ -2808,7 +2808,7 @@
         <v>22.346420739999999</v>
       </c>
       <c r="K14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L14" s="2">
         <v>4</v>
@@ -2843,7 +2843,7 @@
         <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I15">
         <v>73.096725460000002</v>
@@ -2852,7 +2852,7 @@
         <v>-0.61438502100000003</v>
       </c>
       <c r="K15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L15" s="2">
         <v>4</v>
@@ -2887,7 +2887,7 @@
         <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I16">
         <v>83.94678863</v>
@@ -2896,7 +2896,7 @@
         <v>28.25866332</v>
       </c>
       <c r="K16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L16" s="2">
         <v>4</v>
@@ -2931,7 +2931,7 @@
         <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I17">
         <v>68.804796839999995</v>
@@ -2940,7 +2940,7 @@
         <v>29.364916340000001</v>
       </c>
       <c r="K17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L17" s="2">
         <v>4</v>
@@ -2975,7 +2975,7 @@
         <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I18">
         <v>20.066609280000002</v>
@@ -2984,7 +2984,7 @@
         <v>41.138970069999999</v>
       </c>
       <c r="K18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L18" s="2">
         <v>4</v>
@@ -3019,7 +3019,7 @@
         <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I19">
         <v>1.5762574170000001</v>
@@ -3028,7 +3028,7 @@
         <v>42.545486109999999</v>
       </c>
       <c r="K19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L19" s="2">
         <v>4</v>
@@ -3063,7 +3063,7 @@
         <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I20">
         <v>134.34994119999999</v>
@@ -3072,7 +3072,7 @@
         <v>-25.577172019999999</v>
       </c>
       <c r="K20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L20" s="2">
         <v>4</v>
@@ -3107,7 +3107,7 @@
         <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I21">
         <v>14.141724719999999</v>
@@ -3116,7 +3116,7 @@
         <v>47.58704857</v>
       </c>
       <c r="K21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L21" s="2">
         <v>4</v>
@@ -3151,7 +3151,7 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I22">
         <v>4.6609764560000002</v>
@@ -3160,7 +3160,7 @@
         <v>50.641049750000001</v>
       </c>
       <c r="K22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L22" s="2">
         <v>4</v>
@@ -3195,7 +3195,7 @@
         <v>29</v>
       </c>
       <c r="H23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I23">
         <v>17.785843320000001</v>
@@ -3204,7 +3204,7 @@
         <v>44.168455479999999</v>
       </c>
       <c r="K23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L23" s="2">
         <v>4</v>
@@ -3239,7 +3239,7 @@
         <v>30</v>
       </c>
       <c r="H24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I24">
         <v>25.237631530000002</v>
@@ -3248,7 +3248,7 @@
         <v>42.757313230000001</v>
       </c>
       <c r="K24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L24" s="2">
         <v>4</v>
@@ -3283,7 +3283,7 @@
         <v>31</v>
       </c>
       <c r="H25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I25">
         <v>28.04940161</v>
@@ -3292,7 +3292,7 @@
         <v>53.541930749999999</v>
       </c>
       <c r="K25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L25" s="2">
         <v>4</v>
@@ -3327,7 +3327,7 @@
         <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I26">
         <v>-101.6575058</v>
@@ -3336,7 +3336,7 @@
         <v>57.723601909999999</v>
       </c>
       <c r="K26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L26" s="2">
         <v>4</v>
@@ -3371,7 +3371,7 @@
         <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I27">
         <v>17.958745530000002</v>
@@ -3380,7 +3380,7 @@
         <v>45.451722119999999</v>
       </c>
       <c r="K27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L27" s="2">
         <v>4</v>
@@ -3415,7 +3415,7 @@
         <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I28">
         <v>33.222859640000003</v>
@@ -3424,7 +3424,7 @@
         <v>35.056594369999999</v>
       </c>
       <c r="K28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L28" s="2">
         <v>4</v>
@@ -3456,10 +3456,10 @@
         <v>203</v>
       </c>
       <c r="G29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H29" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I29">
         <v>15.33151382</v>
@@ -3468,7 +3468,7 @@
         <v>49.739138709999999</v>
       </c>
       <c r="K29" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L29" s="2">
         <v>4</v>
@@ -3503,7 +3503,7 @@
         <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I30">
         <v>9.3265712829999998</v>
@@ -3512,7 +3512,7 @@
         <v>56.038297210000003</v>
       </c>
       <c r="K30" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L30" s="2">
         <v>4</v>
@@ -3547,7 +3547,7 @@
         <v>36</v>
       </c>
       <c r="H31" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I31">
         <v>25.84093481</v>
@@ -3556,7 +3556,7 @@
         <v>58.684871719999997</v>
       </c>
       <c r="K31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L31" s="2">
         <v>4</v>
@@ -3591,7 +3591,7 @@
         <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I32">
         <v>23.308447000000001</v>
@@ -3600,7 +3600,7 @@
         <v>61.915867380000002</v>
       </c>
       <c r="K32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L32" s="2">
         <v>4</v>
@@ -3635,7 +3635,7 @@
         <v>38</v>
       </c>
       <c r="H33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I33">
         <v>2.4572881290000002</v>
@@ -3644,7 +3644,7 @@
         <v>46.626608609999998</v>
       </c>
       <c r="K33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L33" s="2">
         <v>4</v>
@@ -3679,7 +3679,7 @@
         <v>39</v>
       </c>
       <c r="H34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I34">
         <v>10.3806066</v>
@@ -3688,7 +3688,7 @@
         <v>51.088627430000003</v>
       </c>
       <c r="K34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L34" s="2">
         <v>4</v>
@@ -3723,7 +3723,7 @@
         <v>40</v>
       </c>
       <c r="H35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I35">
         <v>22.583078270000001</v>
@@ -3732,7 +3732,7 @@
         <v>39.47301873</v>
       </c>
       <c r="K35" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L35" s="2">
         <v>4</v>
@@ -3767,7 +3767,7 @@
         <v>41</v>
       </c>
       <c r="H36" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I36">
         <v>19.412215190000001</v>
@@ -3776,7 +3776,7 @@
         <v>47.1651448</v>
       </c>
       <c r="K36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L36" s="2">
         <v>4</v>
@@ -3811,7 +3811,7 @@
         <v>42</v>
       </c>
       <c r="H37" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I37">
         <v>-19.021169660000002</v>
@@ -3820,7 +3820,7 @@
         <v>64.791347630000004</v>
       </c>
       <c r="K37" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L37" s="2">
         <v>4</v>
@@ -3855,7 +3855,7 @@
         <v>43</v>
       </c>
       <c r="H38" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I38">
         <v>-7.1214252719999998</v>
@@ -3864,7 +3864,7 @@
         <v>53.252740539999998</v>
       </c>
       <c r="K38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L38" s="2">
         <v>4</v>
@@ -3899,7 +3899,7 @@
         <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I39">
         <v>34.622779919999999</v>
@@ -3908,7 +3908,7 @@
         <v>31.061645519999999</v>
       </c>
       <c r="K39" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L39" s="2">
         <v>4</v>
@@ -3943,7 +3943,7 @@
         <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I40">
         <v>12.570224270000001</v>
@@ -3952,7 +3952,7 @@
         <v>42.799172820000003</v>
       </c>
       <c r="K40" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L40" s="2">
         <v>4</v>
@@ -3987,7 +3987,7 @@
         <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I41">
         <v>139.27161029999999</v>
@@ -3996,7 +3996,7 @@
         <v>36.655453899999998</v>
       </c>
       <c r="K41" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L41" s="2">
         <v>4</v>
@@ -4031,7 +4031,7 @@
         <v>48</v>
       </c>
       <c r="H42" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I42">
         <v>26.424618760000001</v>
@@ -4040,7 +4040,7 @@
         <v>56.641966359999998</v>
       </c>
       <c r="K42" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L42" s="2">
         <v>4</v>
@@ -4075,7 +4075,7 @@
         <v>49</v>
       </c>
       <c r="H43" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I43">
         <v>9.5529850189999994</v>
@@ -4084,7 +4084,7 @@
         <v>47.141670050000002</v>
       </c>
       <c r="K43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L43" s="2">
         <v>4</v>
@@ -4119,7 +4119,7 @@
         <v>50</v>
       </c>
       <c r="H44" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I44">
         <v>23.905178070000002</v>
@@ -4128,7 +4128,7 @@
         <v>55.336803089999997</v>
       </c>
       <c r="K44" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L44" s="2">
         <v>4</v>
@@ -4163,7 +4163,7 @@
         <v>51</v>
       </c>
       <c r="H45" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I45">
         <v>6.0926565630000002</v>
@@ -4172,7 +4172,7 @@
         <v>49.776795380000003</v>
       </c>
       <c r="K45" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L45" s="2">
         <v>4</v>
@@ -4207,7 +4207,7 @@
         <v>52</v>
       </c>
       <c r="H46" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I46">
         <v>14.44617519</v>
@@ -4216,7 +4216,7 @@
         <v>35.891942749999998</v>
       </c>
       <c r="K46" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L46" s="2">
         <v>4</v>
@@ -4251,7 +4251,7 @@
         <v>53</v>
       </c>
       <c r="H47" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I47">
         <v>7.4242148139999999</v>
@@ -4260,7 +4260,7 @@
         <v>43.735329180000001</v>
       </c>
       <c r="K47" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L47" s="2">
         <v>4</v>
@@ -4295,7 +4295,7 @@
         <v>54</v>
       </c>
       <c r="H48" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I48">
         <v>28.465062400000001</v>
@@ -4304,7 +4304,7 @@
         <v>47.202367950000003</v>
       </c>
       <c r="K48" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L48" s="2">
         <v>4</v>
@@ -4339,7 +4339,7 @@
         <v>55</v>
       </c>
       <c r="H49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I49">
         <v>19.252140239999999</v>
@@ -4348,7 +4348,7 @@
         <v>42.787170430000003</v>
       </c>
       <c r="K49" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L49" s="2">
         <v>4</v>
@@ -4383,7 +4383,7 @@
         <v>56</v>
       </c>
       <c r="H50" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I50">
         <v>5.3314805679999999</v>
@@ -4392,7 +4392,7 @@
         <v>51.867288840000001</v>
       </c>
       <c r="K50" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L50" s="2">
         <v>4</v>
@@ -4427,7 +4427,7 @@
         <v>57</v>
       </c>
       <c r="H51" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I51">
         <v>170.47556729999999</v>
@@ -4436,7 +4436,7 @@
         <v>-43.987215679999998</v>
       </c>
       <c r="K51" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L51" s="2">
         <v>4</v>
@@ -4471,7 +4471,7 @@
         <v>58</v>
       </c>
       <c r="H52" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I52">
         <v>11.47846389</v>
@@ -4480,7 +4480,7 @@
         <v>61.34311134</v>
       </c>
       <c r="K52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L52" s="2">
         <v>4</v>
@@ -4515,7 +4515,7 @@
         <v>59</v>
       </c>
       <c r="H53" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I53">
         <v>19.40660158</v>
@@ -4524,7 +4524,7 @@
         <v>52.122673300000002</v>
       </c>
       <c r="K53" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L53" s="2">
         <v>4</v>
@@ -4559,7 +4559,7 @@
         <v>60</v>
       </c>
       <c r="H54" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I54">
         <v>-7.9615998110000001</v>
@@ -4568,7 +4568,7 @@
         <v>39.68509315</v>
       </c>
       <c r="K54" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L54" s="2">
         <v>4</v>
@@ -4603,7 +4603,7 @@
         <v>61</v>
       </c>
       <c r="H55" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I55">
         <v>24.98481009</v>
@@ -4612,7 +4612,7 @@
         <v>45.838935630000002</v>
       </c>
       <c r="K55" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L55" s="2">
         <v>4</v>
@@ -4647,7 +4647,7 @@
         <v>62</v>
       </c>
       <c r="H56" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I56">
         <v>99.014049259999993</v>
@@ -4656,7 +4656,7 @@
         <v>61.618998490000003</v>
       </c>
       <c r="K56" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L56" s="2">
         <v>4</v>
@@ -4691,7 +4691,7 @@
         <v>63</v>
       </c>
       <c r="H57" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I57">
         <v>12.46329038</v>
@@ -4700,7 +4700,7 @@
         <v>43.938417659999999</v>
       </c>
       <c r="K57" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L57" s="2">
         <v>4</v>
@@ -4735,7 +4735,7 @@
         <v>64</v>
       </c>
       <c r="H58" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I58">
         <v>20.805876000000001</v>
@@ -4744,7 +4744,7 @@
         <v>44.031456970000001</v>
       </c>
       <c r="K58" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L58" s="2">
         <v>4</v>
@@ -4779,7 +4779,7 @@
         <v>65</v>
       </c>
       <c r="H59" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I59">
         <v>19.48495604</v>
@@ -4788,7 +4788,7 @@
         <v>48.707414460000003</v>
       </c>
       <c r="K59" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L59" s="2">
         <v>4</v>
@@ -4823,7 +4823,7 @@
         <v>66</v>
       </c>
       <c r="H60" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I60">
         <v>14.82209486</v>
@@ -4832,7 +4832,7 @@
         <v>46.11958061</v>
       </c>
       <c r="K60" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L60" s="2">
         <v>4</v>
@@ -4867,7 +4867,7 @@
         <v>67</v>
       </c>
       <c r="H61" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I61">
         <v>-3.5540782960000001</v>
@@ -4876,7 +4876,7 @@
         <v>40.392114720000002</v>
       </c>
       <c r="K61" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L61" s="2">
         <v>4</v>
@@ -4911,7 +4911,7 @@
         <v>68</v>
       </c>
       <c r="H62" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I62">
         <v>14.3775338</v>
@@ -4920,7 +4920,7 @@
         <v>60.601031089999999</v>
       </c>
       <c r="K62" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L62" s="2">
         <v>4</v>
@@ -4955,7 +4955,7 @@
         <v>69</v>
       </c>
       <c r="H63" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I63">
         <v>8.2231579999999997</v>
@@ -4964,7 +4964,7 @@
         <v>46.96617097</v>
       </c>
       <c r="K63" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L63" s="2">
         <v>4</v>
@@ -4999,7 +4999,7 @@
         <v>70</v>
       </c>
       <c r="H64" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I64">
         <v>31.402708019999999</v>
@@ -5008,7 +5008,7 @@
         <v>49.007359450000003</v>
       </c>
       <c r="K64" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L64" s="2">
         <v>4</v>
@@ -5043,7 +5043,7 @@
         <v>71</v>
       </c>
       <c r="H65" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I65">
         <v>21.700790900000001</v>
@@ -5052,7 +5052,7 @@
         <v>41.600480679999997</v>
       </c>
       <c r="K65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L65" s="2">
         <v>4</v>
@@ -5087,7 +5087,7 @@
         <v>72</v>
       </c>
       <c r="H66" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I66">
         <v>-2.2383053899999998</v>
@@ -5096,7 +5096,7 @@
         <v>53.276917570000002</v>
       </c>
       <c r="K66" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L66" s="2">
         <v>4</v>
@@ -5131,7 +5131,7 @@
         <v>76</v>
       </c>
       <c r="H67" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I67">
         <v>2.6781642269999999</v>
@@ -5140,7 +5140,7 @@
         <v>28.15940032</v>
       </c>
       <c r="K67" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L67" s="2">
         <v>4</v>
@@ -5175,7 +5175,7 @@
         <v>77</v>
       </c>
       <c r="H68" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I68">
         <v>18.029598499999999</v>
@@ -5184,7 +5184,7 @@
         <v>27.04042819</v>
       </c>
       <c r="K68" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L68" s="2">
         <v>4</v>
@@ -5219,7 +5219,7 @@
         <v>78</v>
       </c>
       <c r="H69" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I69">
         <v>-6.2819428410000002</v>
@@ -5228,7 +5228,7 @@
         <v>31.844013100000002</v>
       </c>
       <c r="K69" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L69" s="2">
         <v>4</v>
@@ -5263,7 +5263,7 @@
         <v>79</v>
       </c>
       <c r="H70" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I70">
         <v>9.5727374110000003</v>
@@ -5272,7 +5272,7 @@
         <v>34.114399710000001</v>
       </c>
       <c r="K70" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L70" s="2">
         <v>4</v>
@@ -5307,7 +5307,7 @@
         <v>80</v>
       </c>
       <c r="H71" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I71">
         <v>29.774685340000001</v>
@@ -5316,7 +5316,7 @@
         <v>26.57438204</v>
       </c>
       <c r="K71" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L71" s="2">
         <v>4</v>
@@ -5351,7 +5351,7 @@
         <v>81</v>
       </c>
       <c r="H72" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I72">
         <v>160.15841169999999</v>
@@ -5360,7 +5360,7 @@
         <v>-9.6223917189999995</v>
       </c>
       <c r="K72" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L72" s="2">
         <v>4</v>
@@ -5395,7 +5395,7 @@
         <v>82</v>
       </c>
       <c r="H73" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I73">
         <v>177.96608839999999</v>
@@ -5404,7 +5404,7 @@
         <v>-17.833015660000001</v>
       </c>
       <c r="K73" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L73" s="2">
         <v>4</v>
@@ -5439,7 +5439,7 @@
         <v>83</v>
       </c>
       <c r="H74" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I74">
         <v>-157.5643005</v>
@@ -5448,7 +5448,7 @@
         <v>1.7688377319999999</v>
       </c>
       <c r="K74" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L74" s="2">
         <v>4</v>
@@ -5483,7 +5483,7 @@
         <v>85</v>
       </c>
       <c r="H75" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I75">
         <v>167.06797789999999</v>
@@ -5492,7 +5492,7 @@
         <v>-15.34445547</v>
       </c>
       <c r="K75" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L75" s="2">
         <v>4</v>
@@ -5527,7 +5527,7 @@
         <v>86</v>
       </c>
       <c r="H76" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I76">
         <v>158.22521599999999</v>
@@ -5536,7 +5536,7 @@
         <v>6.8806700919999999</v>
       </c>
       <c r="K76" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L76" s="2">
         <v>4</v>
@@ -5571,7 +5571,7 @@
         <v>87</v>
       </c>
       <c r="H77" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I77">
         <v>171.0839119</v>
@@ -5580,7 +5580,7 @@
         <v>7.1102134970000002</v>
       </c>
       <c r="K77" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L77" s="2">
         <v>4</v>
@@ -5615,7 +5615,7 @@
         <v>89</v>
       </c>
       <c r="H78" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I78">
         <v>145.8587761</v>
@@ -5624,7 +5624,7 @@
         <v>-6.7560570770000004</v>
       </c>
       <c r="K78" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L78" s="2">
         <v>4</v>
@@ -5659,7 +5659,7 @@
         <v>91</v>
       </c>
       <c r="H79" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I79">
         <v>178.66796110000001</v>
@@ -5668,7 +5668,7 @@
         <v>-7.4600480710000001</v>
       </c>
       <c r="K79" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L79" s="2">
         <v>4</v>
@@ -5703,7 +5703,7 @@
         <v>92</v>
       </c>
       <c r="H80" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I80">
         <v>-172.4430749</v>
@@ -5712,7 +5712,7 @@
         <v>-13.61541469</v>
       </c>
       <c r="K80" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L80" s="2">
         <v>4</v>
@@ -5747,7 +5747,7 @@
         <v>94</v>
       </c>
       <c r="H81" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I81">
         <v>17.578170620000002</v>
@@ -5791,7 +5791,7 @@
         <v>95</v>
       </c>
       <c r="H82" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I82">
         <v>23.81380223</v>
@@ -5835,7 +5835,7 @@
         <v>96</v>
       </c>
       <c r="H83" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I83">
         <v>29.890809919999999</v>
@@ -5879,7 +5879,7 @@
         <v>98</v>
       </c>
       <c r="H84" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I84">
         <v>12.741982699999999</v>
@@ -5923,7 +5923,7 @@
         <v>99</v>
       </c>
       <c r="H85" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I85">
         <v>-23.63544151</v>
@@ -5967,7 +5967,7 @@
         <v>100</v>
       </c>
       <c r="H86" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I86">
         <v>20.93559492</v>
@@ -6011,7 +6011,7 @@
         <v>101</v>
       </c>
       <c r="H87" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I87">
         <v>18.666184009999998</v>
@@ -6055,7 +6055,7 @@
         <v>102</v>
       </c>
       <c r="H88" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I88">
         <v>43.342345649999999</v>
@@ -6099,7 +6099,7 @@
         <v>103</v>
       </c>
       <c r="H89" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I89">
         <v>15.220526120000001</v>
@@ -6143,7 +6143,7 @@
         <v>104</v>
       </c>
       <c r="H90" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I90">
         <v>23.654965069999999</v>
@@ -6187,7 +6187,7 @@
         <v>105</v>
       </c>
       <c r="H91" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I91">
         <v>2.3399335940000001</v>
@@ -6231,7 +6231,7 @@
         <v>106</v>
       </c>
       <c r="H92" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I92">
         <v>10.46535826</v>
@@ -6275,7 +6275,7 @@
         <v>107</v>
       </c>
       <c r="H93" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I93">
         <v>39.635052960000003</v>
@@ -6319,7 +6319,7 @@
         <v>108</v>
       </c>
       <c r="H94" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I94">
         <v>38.110742889999997</v>
@@ -6363,7 +6363,7 @@
         <v>109</v>
       </c>
       <c r="H95" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I95">
         <v>42.182747069999998</v>
@@ -6407,7 +6407,7 @@
         <v>110</v>
       </c>
       <c r="H96" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I96">
         <v>11.787277469999999</v>
@@ -6451,7 +6451,7 @@
         <v>111</v>
       </c>
       <c r="H97" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I97">
         <v>-15.39944785</v>
@@ -6495,7 +6495,7 @@
         <v>112</v>
       </c>
       <c r="H98" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I98">
         <v>-1.205623522</v>
@@ -6539,7 +6539,7 @@
         <v>113</v>
       </c>
       <c r="H99" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I99">
         <v>-11.28173419</v>
@@ -6583,7 +6583,7 @@
         <v>114</v>
       </c>
       <c r="H100" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I100">
         <v>-5.5526900159999997</v>
@@ -6627,7 +6627,7 @@
         <v>115</v>
       </c>
       <c r="H101" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I101">
         <v>37.860968159999999</v>
@@ -6671,7 +6671,7 @@
         <v>116</v>
       </c>
       <c r="H102" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I102">
         <v>28.253621949999999</v>
@@ -6715,7 +6715,7 @@
         <v>117</v>
       </c>
       <c r="H103" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I103">
         <v>-9.3118790380000007</v>
@@ -6759,7 +6759,7 @@
         <v>118</v>
       </c>
       <c r="H104" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I104">
         <v>46.698233899999998</v>
@@ -6803,7 +6803,7 @@
         <v>119</v>
       </c>
       <c r="H105" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I105">
         <v>33.488462499999997</v>
@@ -6847,7 +6847,7 @@
         <v>120</v>
       </c>
       <c r="H106" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I106">
         <v>-3.5220160389999999</v>
@@ -6891,7 +6891,7 @@
         <v>121</v>
       </c>
       <c r="H107" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I107">
         <v>-10.33187259</v>
@@ -6935,7 +6935,7 @@
         <v>122</v>
       </c>
       <c r="H108" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I108">
         <v>57.568021999999999</v>
@@ -6979,7 +6979,7 @@
         <v>123</v>
       </c>
       <c r="H109" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I109">
         <v>38.184799409999997</v>
@@ -7023,7 +7023,7 @@
         <v>124</v>
       </c>
       <c r="H110" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I110">
         <v>17.219078849999999</v>
@@ -7067,7 +7067,7 @@
         <v>125</v>
       </c>
       <c r="H111" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I111">
         <v>9.4001678769999995</v>
@@ -7111,7 +7111,7 @@
         <v>126</v>
       </c>
       <c r="H112" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I112">
         <v>8.0973632559999995</v>
@@ -7155,7 +7155,7 @@
         <v>127</v>
       </c>
       <c r="H113" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I113">
         <v>-14.40182514</v>
@@ -7199,7 +7199,7 @@
         <v>128</v>
       </c>
       <c r="H114" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I114">
         <v>29.923101939999999</v>
@@ -7243,7 +7243,7 @@
         <v>129</v>
       </c>
       <c r="H115" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I115">
         <v>6.6097722650000001</v>
@@ -7287,7 +7287,7 @@
         <v>130</v>
       </c>
       <c r="H116" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I116">
         <v>-14.46636926</v>
@@ -7331,7 +7331,7 @@
         <v>131</v>
       </c>
       <c r="H117" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I117">
         <v>55.465615909999997</v>
@@ -7375,7 +7375,7 @@
         <v>132</v>
       </c>
       <c r="H118" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I118">
         <v>-11.783065840000001</v>
@@ -7419,7 +7419,7 @@
         <v>134</v>
       </c>
       <c r="H119" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I119">
         <v>24.671843549999998</v>
@@ -7463,7 +7463,7 @@
         <v>135</v>
       </c>
       <c r="H120" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I120">
         <v>29.86909584</v>
@@ -7504,10 +7504,10 @@
         <v>748</v>
       </c>
       <c r="G121" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H121" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I121">
         <v>31.501492880000001</v>
@@ -7551,7 +7551,7 @@
         <v>137</v>
       </c>
       <c r="H122" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I122">
         <v>0.97835764999999997</v>
@@ -7595,7 +7595,7 @@
         <v>138</v>
       </c>
       <c r="H123" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I123">
         <v>32.391004379999998</v>
@@ -7639,7 +7639,7 @@
         <v>139</v>
       </c>
       <c r="H124" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I124">
         <v>34.805211819999997</v>
@@ -7683,7 +7683,7 @@
         <v>140</v>
       </c>
       <c r="H125" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I125">
         <v>-1.7428438289999999</v>
@@ -7727,7 +7727,7 @@
         <v>141</v>
       </c>
       <c r="H126" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I126">
         <v>27.850328999999999</v>
@@ -7771,7 +7771,7 @@
         <v>143</v>
       </c>
       <c r="H127" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I127">
         <v>-61.799975500000002</v>
@@ -7815,7 +7815,7 @@
         <v>144</v>
       </c>
       <c r="H128" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I128">
         <v>-65.145632739999996</v>
@@ -7859,7 +7859,7 @@
         <v>145</v>
       </c>
       <c r="H129" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I129">
         <v>-78.051116629999996</v>
@@ -7903,7 +7903,7 @@
         <v>146</v>
       </c>
       <c r="H130" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I130">
         <v>-59.534648900000001</v>
@@ -7947,7 +7947,7 @@
         <v>147</v>
       </c>
       <c r="H131" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I131">
         <v>-64.662242840000005</v>
@@ -7991,7 +7991,7 @@
         <v>148</v>
       </c>
       <c r="H132" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I132">
         <v>-53.08432878</v>
@@ -8035,7 +8035,7 @@
         <v>149</v>
       </c>
       <c r="H133" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I133">
         <v>-88.701995539999999</v>
@@ -8079,7 +8079,7 @@
         <v>150</v>
       </c>
       <c r="H134" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I134">
         <v>-71.230290190000005</v>
@@ -8123,7 +8123,7 @@
         <v>151</v>
       </c>
       <c r="H135" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I135">
         <v>-73.074467510000005</v>
@@ -8167,7 +8167,7 @@
         <v>152</v>
       </c>
       <c r="H136" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I136">
         <v>-84.197127820000006</v>
@@ -8211,7 +8211,7 @@
         <v>153</v>
       </c>
       <c r="H137" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I137">
         <v>-79.544601439999994</v>
@@ -8255,7 +8255,7 @@
         <v>154</v>
       </c>
       <c r="H138" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I138">
         <v>-61.349375600000002</v>
@@ -8299,7 +8299,7 @@
         <v>155</v>
       </c>
       <c r="H139" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I139">
         <v>-70.498475760000005</v>
@@ -8343,7 +8343,7 @@
         <v>156</v>
       </c>
       <c r="H140" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I140">
         <v>-78.37005241</v>
@@ -8387,7 +8387,7 @@
         <v>157</v>
       </c>
       <c r="H141" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I141">
         <v>-88.868629949999999</v>
@@ -8431,7 +8431,7 @@
         <v>158</v>
       </c>
       <c r="H142" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I142">
         <v>-61.682485679999999</v>
@@ -8475,7 +8475,7 @@
         <v>159</v>
       </c>
       <c r="H143" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I143">
         <v>-91.231274600000006</v>
@@ -8519,7 +8519,7 @@
         <v>160</v>
       </c>
       <c r="H144" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I144">
         <v>-58.97322037</v>
@@ -8563,7 +8563,7 @@
         <v>161</v>
       </c>
       <c r="H145" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I145">
         <v>-72.336409579999994</v>
@@ -8607,7 +8607,7 @@
         <v>162</v>
       </c>
       <c r="H146" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I146">
         <v>-86.599743810000007</v>
@@ -8651,7 +8651,7 @@
         <v>163</v>
       </c>
       <c r="H147" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I147">
         <v>-77.310684089999995</v>
@@ -8695,7 +8695,7 @@
         <v>164</v>
       </c>
       <c r="H148" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I148">
         <v>-102.5148166</v>
@@ -8739,7 +8739,7 @@
         <v>165</v>
       </c>
       <c r="H149" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I149">
         <v>-85.030603150000005</v>
@@ -8783,7 +8783,7 @@
         <v>166</v>
       </c>
       <c r="H150" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I150">
         <v>-81.266166229999996</v>
@@ -8827,7 +8827,7 @@
         <v>167</v>
       </c>
       <c r="H151" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I151">
         <v>-60.548542249999997</v>
@@ -8871,7 +8871,7 @@
         <v>168</v>
       </c>
       <c r="H152" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I152">
         <v>-71.820932769999999</v>
@@ -8915,7 +8915,7 @@
         <v>169</v>
       </c>
       <c r="H153" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I153">
         <v>-62.766286129999997</v>
@@ -8959,7 +8959,7 @@
         <v>170</v>
       </c>
       <c r="H154" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I154">
         <v>-60.965295529999999</v>
@@ -9003,7 +9003,7 @@
         <v>171</v>
       </c>
       <c r="H155" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I155">
         <v>-61.190243209999998</v>
@@ -9047,7 +9047,7 @@
         <v>172</v>
       </c>
       <c r="H156" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I156">
         <v>-55.906263940000002</v>
@@ -9091,7 +9091,7 @@
         <v>173</v>
       </c>
       <c r="H157" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I157">
         <v>-61.293895040000002</v>
@@ -9135,7 +9135,7 @@
         <v>174</v>
       </c>
       <c r="H158" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I158">
         <v>-56.013870249999997</v>
@@ -9179,7 +9179,7 @@
         <v>175</v>
       </c>
       <c r="H159" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I159">
         <v>-66.156420839999996</v>
@@ -9223,7 +9223,7 @@
         <v>176</v>
       </c>
       <c r="H160" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I160">
         <v>50.010647249999998</v>
@@ -9232,7 +9232,7 @@
         <v>40.392295439999998</v>
       </c>
       <c r="K160" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L160" s="2">
         <v>4</v>
@@ -9267,7 +9267,7 @@
         <v>177</v>
       </c>
       <c r="H161" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I161">
         <v>44.938393169999998</v>
@@ -9276,7 +9276,7 @@
         <v>40.294997410000001</v>
       </c>
       <c r="K161" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L161" s="2">
         <v>4</v>
@@ -9311,7 +9311,7 @@
         <v>178</v>
       </c>
       <c r="H162" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I162">
         <v>43.371361499999999</v>
@@ -9320,7 +9320,7 @@
         <v>42.048130280000002</v>
       </c>
       <c r="K162" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L162" s="2">
         <v>4</v>
@@ -9355,7 +9355,7 @@
         <v>179</v>
       </c>
       <c r="H163" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I163">
         <v>66.653591590000005</v>
@@ -9364,7 +9364,7 @@
         <v>48.019634940000003</v>
       </c>
       <c r="K163" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L163" s="2">
         <v>4</v>
@@ -9399,7 +9399,7 @@
         <v>180</v>
       </c>
       <c r="H164" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I164">
         <v>74.523248390000006</v>
@@ -9408,7 +9408,7 @@
         <v>41.462045160000002</v>
       </c>
       <c r="K164" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L164" s="2">
         <v>4</v>
@@ -9443,7 +9443,7 @@
         <v>181</v>
       </c>
       <c r="H165" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I165">
         <v>69.294998000000007</v>
@@ -9452,7 +9452,7 @@
         <v>38.430696660000002</v>
       </c>
       <c r="K165" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L165" s="2">
         <v>4</v>
@@ -9487,7 +9487,7 @@
         <v>182</v>
       </c>
       <c r="H166" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I166">
         <v>58.978766499999999</v>
@@ -9496,7 +9496,7 @@
         <v>40.0912346</v>
       </c>
       <c r="K166" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L166" s="2">
         <v>4</v>
@@ -9531,7 +9531,7 @@
         <v>183</v>
       </c>
       <c r="H167" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I167">
         <v>63.119445579999997</v>
@@ -9540,7 +9540,7 @@
         <v>41.775605179999999</v>
       </c>
       <c r="K167" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L167" s="2">
         <v>4</v>
@@ -9575,7 +9575,7 @@
         <v>184</v>
       </c>
       <c r="H168" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I168">
         <v>50.5490754</v>
@@ -9584,7 +9584,7 @@
         <v>26.044077470000001</v>
       </c>
       <c r="K168" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L168" s="2">
         <v>4</v>
@@ -9619,7 +9619,7 @@
         <v>186</v>
       </c>
       <c r="H169" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I169">
         <v>43.766062669999997</v>
@@ -9628,7 +9628,7 @@
         <v>33.05013795</v>
       </c>
       <c r="K169" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L169" s="2">
         <v>4</v>
@@ -9663,7 +9663,7 @@
         <v>187</v>
       </c>
       <c r="H170" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I170">
         <v>37.130247740000001</v>
@@ -9672,7 +9672,7 @@
         <v>30.653659730000001</v>
       </c>
       <c r="K170" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L170" s="2">
         <v>4</v>
@@ -9707,7 +9707,7 @@
         <v>188</v>
       </c>
       <c r="H171" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I171">
         <v>47.493050289999999</v>
@@ -9716,7 +9716,7 @@
         <v>29.539494680000001</v>
       </c>
       <c r="K171" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L171" s="2">
         <v>4</v>
@@ -9751,7 +9751,7 @@
         <v>189</v>
       </c>
       <c r="H172" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I172">
         <v>35.893917109999997</v>
@@ -9760,7 +9760,7 @@
         <v>33.921524580000003</v>
       </c>
       <c r="K172" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L172" s="2">
         <v>4</v>
@@ -9795,7 +9795,7 @@
         <v>190</v>
       </c>
       <c r="H173" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I173">
         <v>57.877434819999998</v>
@@ -9804,7 +9804,7 @@
         <v>21.988056140000001</v>
       </c>
       <c r="K173" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L173" s="2">
         <v>4</v>
@@ -9839,7 +9839,7 @@
         <v>191</v>
       </c>
       <c r="H174" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I174">
         <v>51.19152467</v>
@@ -9848,7 +9848,7 @@
         <v>25.283553789999999</v>
       </c>
       <c r="K174" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L174" s="2">
         <v>4</v>
@@ -9883,7 +9883,7 @@
         <v>192</v>
       </c>
       <c r="H175" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I175">
         <v>44.547633470000001</v>
@@ -9892,7 +9892,7 @@
         <v>24.12594211</v>
       </c>
       <c r="K175" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L175" s="2">
         <v>4</v>
@@ -9927,7 +9927,7 @@
         <v>193</v>
       </c>
       <c r="H176" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I176">
         <v>38.50466565</v>
@@ -9936,7 +9936,7 @@
         <v>35.016761760000001</v>
       </c>
       <c r="K176" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L176" s="2">
         <v>4</v>
@@ -9971,7 +9971,7 @@
         <v>194</v>
       </c>
       <c r="H177" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I177">
         <v>53.982791589999998</v>
@@ -9980,7 +9980,7 @@
         <v>23.433222189999999</v>
       </c>
       <c r="K177" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L177" s="2">
         <v>4</v>
@@ -10015,7 +10015,7 @@
         <v>195</v>
       </c>
       <c r="H178" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I178">
         <v>35.428903290000001</v>
@@ -10024,7 +10024,7 @@
         <v>38.989968400000002</v>
       </c>
       <c r="K178" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L178" s="2">
         <v>4</v>
@@ -10059,7 +10059,7 @@
         <v>196</v>
       </c>
       <c r="H179" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I179">
         <v>45.223891430000002</v>
@@ -10068,7 +10068,7 @@
         <v>15.22242099</v>
       </c>
       <c r="K179" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L179" s="2">
         <v>4</v>
@@ -10103,7 +10103,7 @@
         <v>197</v>
       </c>
       <c r="H180" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I180">
         <v>114.6288563</v>
@@ -10112,7 +10112,7 @@
         <v>4.4973698400000002</v>
       </c>
       <c r="K180" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L180" s="2">
         <v>4</v>
@@ -10147,7 +10147,7 @@
         <v>198</v>
       </c>
       <c r="H181" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I181">
         <v>96.51752295</v>
@@ -10156,7 +10156,7 @@
         <v>21.193328820000001</v>
       </c>
       <c r="K181" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L181" s="2">
         <v>4</v>
@@ -10191,7 +10191,7 @@
         <v>199</v>
       </c>
       <c r="H182" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I182">
         <v>104.922836</v>
@@ -10200,7 +10200,7 @@
         <v>12.71163737</v>
       </c>
       <c r="K182" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L182" s="2">
         <v>4</v>
@@ -10235,7 +10235,7 @@
         <v>200</v>
       </c>
       <c r="H183" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I183">
         <v>113.9174</v>
@@ -10244,7 +10244,7 @@
         <v>-0.99458220399999997</v>
       </c>
       <c r="K183" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L183" s="2">
         <v>4</v>
@@ -10279,7 +10279,7 @@
         <v>201</v>
       </c>
       <c r="H184" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I184">
         <v>101.99019680000001</v>
@@ -10288,7 +10288,7 @@
         <v>20.274827729999998</v>
       </c>
       <c r="K184" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L184" s="2">
         <v>4</v>
@@ -10323,7 +10323,7 @@
         <v>202</v>
       </c>
       <c r="H185" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I185">
         <v>116.83463140000001</v>
@@ -10332,7 +10332,7 @@
         <v>5.452415309</v>
       </c>
       <c r="K185" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L185" s="2">
         <v>4</v>
@@ -10367,7 +10367,7 @@
         <v>203</v>
       </c>
       <c r="H186" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I186">
         <v>120.86014179999999</v>
@@ -10376,7 +10376,7 @@
         <v>14.16591706</v>
       </c>
       <c r="K186" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L186" s="2">
         <v>4</v>
@@ -10411,7 +10411,7 @@
         <v>204</v>
       </c>
       <c r="H187" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I187">
         <v>125.9451052</v>
@@ -10420,7 +10420,7 @@
         <v>-8.7974972470000008</v>
       </c>
       <c r="K187" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L187" s="2">
         <v>4</v>
@@ -10455,7 +10455,7 @@
         <v>205</v>
       </c>
       <c r="H188" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I188">
         <v>103.8107883</v>
@@ -10464,7 +10464,7 @@
         <v>1.3610091550000001</v>
       </c>
       <c r="K188" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L188" s="2">
         <v>4</v>
@@ -10499,7 +10499,7 @@
         <v>206</v>
       </c>
       <c r="H189" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I189">
         <v>105.802499</v>
@@ -10508,7 +10508,7 @@
         <v>10.096430789999999</v>
       </c>
       <c r="K189" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L189" s="2">
         <v>4</v>
@@ -10543,7 +10543,7 @@
         <v>207</v>
       </c>
       <c r="H190" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I190">
         <v>101.0202951</v>
@@ -10552,7 +10552,7 @@
         <v>15.13089239</v>
       </c>
       <c r="K190" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L190" s="2">
         <v>4</v>
@@ -10587,7 +10587,7 @@
         <v>208</v>
       </c>
       <c r="H191" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I191">
         <v>104.1403375</v>
@@ -10596,7 +10596,7 @@
         <v>32.309552170000003</v>
       </c>
       <c r="K191" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L191" s="2">
         <v>4</v>
@@ -10631,7 +10631,7 @@
         <v>209</v>
       </c>
       <c r="H192" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I192">
         <v>127.1803633</v>
@@ -10640,7 +10640,7 @@
         <v>40.146264500000001</v>
       </c>
       <c r="K192" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L192" s="2">
         <v>4</v>
@@ -10675,7 +10675,7 @@
         <v>210</v>
       </c>
       <c r="H193" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I193">
         <v>127.8610254</v>
@@ -10684,7 +10684,7 @@
         <v>36.452010229999999</v>
       </c>
       <c r="K193" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L193" s="2">
         <v>4</v>
@@ -10719,7 +10719,7 @@
         <v>211</v>
       </c>
       <c r="H194" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I194">
         <v>103.0728057</v>
@@ -10728,7 +10728,7 @@
         <v>46.838920539999997</v>
       </c>
       <c r="K194" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L194" s="2">
         <v>4</v>
@@ -10763,7 +10763,7 @@
         <v>74</v>
       </c>
       <c r="H195" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I195">
         <v>-99.138303109999995</v>
@@ -10772,7 +10772,7 @@
         <v>39.527787099999998</v>
       </c>
       <c r="K195" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L195" s="2">
         <v>5</v>
@@ -10807,7 +10807,7 @@
         <v>185</v>
       </c>
       <c r="H196" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I196">
         <v>35.256941220000002</v>
@@ -10816,7 +10816,7 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K196" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L196" s="2">
         <v>10</v>
@@ -10848,10 +10848,10 @@
         <v>344</v>
       </c>
       <c r="G197" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H197" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I197">
         <v>114.0266445</v>
@@ -10860,7 +10860,7 @@
         <v>22.417499339999999</v>
       </c>
       <c r="K197" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L197" s="2">
         <v>10</v>
@@ -10895,7 +10895,7 @@
         <v>4</v>
       </c>
       <c r="H198" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I198">
         <v>89.176607880000006</v>
@@ -10904,7 +10904,7 @@
         <v>22.869616220000001</v>
       </c>
       <c r="K198" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L198" s="2">
         <v>4</v>
@@ -10939,7 +10939,7 @@
         <v>11</v>
       </c>
       <c r="H199" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I199">
         <v>80.704896539999993</v>
@@ -10948,7 +10948,7 @@
         <v>7.6146933429999999</v>
       </c>
       <c r="K199" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L199" s="2">
         <v>4</v>
@@ -10983,7 +10983,7 @@
         <v>21</v>
       </c>
       <c r="H200" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I200">
         <v>73.096725460000002</v>
@@ -10992,7 +10992,7 @@
         <v>-0.61438502100000003</v>
       </c>
       <c r="K200" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L200" s="2">
         <v>4</v>
@@ -11027,7 +11027,7 @@
         <v>22</v>
       </c>
       <c r="H201" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I201">
         <v>83.94678863</v>
@@ -11036,7 +11036,7 @@
         <v>28.25866332</v>
       </c>
       <c r="K201" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L201" s="2">
         <v>4</v>
@@ -11071,7 +11071,7 @@
         <v>24</v>
       </c>
       <c r="H202" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I202">
         <v>20.066609280000002</v>
@@ -11080,7 +11080,7 @@
         <v>41.138970069999999</v>
       </c>
       <c r="K202" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L202" s="2">
         <v>4</v>
@@ -11115,7 +11115,7 @@
         <v>25</v>
       </c>
       <c r="H203" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I203">
         <v>1.5762574170000001</v>
@@ -11124,7 +11124,7 @@
         <v>42.545486109999999</v>
       </c>
       <c r="K203" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L203" s="2">
         <v>4</v>
@@ -11159,7 +11159,7 @@
         <v>26</v>
       </c>
       <c r="H204" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I204">
         <v>134.34994119999999</v>
@@ -11168,7 +11168,7 @@
         <v>-25.577172019999999</v>
       </c>
       <c r="K204" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L204" s="2">
         <v>4</v>
@@ -11203,7 +11203,7 @@
         <v>27</v>
       </c>
       <c r="H205" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I205">
         <v>14.141724719999999</v>
@@ -11212,7 +11212,7 @@
         <v>47.58704857</v>
       </c>
       <c r="K205" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L205" s="2">
         <v>4</v>
@@ -11247,7 +11247,7 @@
         <v>28</v>
       </c>
       <c r="H206" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I206">
         <v>4.6609764560000002</v>
@@ -11256,7 +11256,7 @@
         <v>50.641049750000001</v>
       </c>
       <c r="K206" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L206" s="2">
         <v>4</v>
@@ -11291,7 +11291,7 @@
         <v>29</v>
       </c>
       <c r="H207" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I207">
         <v>17.785843320000001</v>
@@ -11300,7 +11300,7 @@
         <v>44.168455479999999</v>
       </c>
       <c r="K207" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L207" s="2">
         <v>4</v>
@@ -11335,7 +11335,7 @@
         <v>30</v>
       </c>
       <c r="H208" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I208">
         <v>25.237631530000002</v>
@@ -11344,7 +11344,7 @@
         <v>42.757313230000001</v>
       </c>
       <c r="K208" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L208" s="2">
         <v>4</v>
@@ -11379,7 +11379,7 @@
         <v>31</v>
       </c>
       <c r="H209" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I209">
         <v>28.04940161</v>
@@ -11388,7 +11388,7 @@
         <v>53.541930749999999</v>
       </c>
       <c r="K209" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L209" s="2">
         <v>4</v>
@@ -11423,7 +11423,7 @@
         <v>32</v>
       </c>
       <c r="H210" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I210">
         <v>-101.6575058</v>
@@ -11432,7 +11432,7 @@
         <v>57.723601909999999</v>
       </c>
       <c r="K210" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L210" s="2">
         <v>4</v>
@@ -11467,7 +11467,7 @@
         <v>33</v>
       </c>
       <c r="H211" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I211">
         <v>17.958745530000002</v>
@@ -11476,7 +11476,7 @@
         <v>45.451722119999999</v>
       </c>
       <c r="K211" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L211" s="2">
         <v>4</v>
@@ -11511,7 +11511,7 @@
         <v>34</v>
       </c>
       <c r="H212" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I212">
         <v>33.222859640000003</v>
@@ -11520,7 +11520,7 @@
         <v>35.056594369999999</v>
       </c>
       <c r="K212" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L212" s="2">
         <v>4</v>
@@ -11552,10 +11552,10 @@
         <v>203</v>
       </c>
       <c r="G213" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H213" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I213">
         <v>15.33151382</v>
@@ -11564,7 +11564,7 @@
         <v>49.739138709999999</v>
       </c>
       <c r="K213" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L213" s="2">
         <v>4</v>
@@ -11599,7 +11599,7 @@
         <v>35</v>
       </c>
       <c r="H214" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I214">
         <v>9.3265712829999998</v>
@@ -11608,7 +11608,7 @@
         <v>56.038297210000003</v>
       </c>
       <c r="K214" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L214" s="2">
         <v>4</v>
@@ -11643,7 +11643,7 @@
         <v>37</v>
       </c>
       <c r="H215" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I215">
         <v>23.308447000000001</v>
@@ -11652,7 +11652,7 @@
         <v>61.915867380000002</v>
       </c>
       <c r="K215" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L215" s="2">
         <v>4</v>
@@ -11687,7 +11687,7 @@
         <v>38</v>
       </c>
       <c r="H216" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I216">
         <v>2.4572881290000002</v>
@@ -11696,7 +11696,7 @@
         <v>46.626608609999998</v>
       </c>
       <c r="K216" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L216" s="2">
         <v>4</v>
@@ -11731,7 +11731,7 @@
         <v>39</v>
       </c>
       <c r="H217" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I217">
         <v>10.3806066</v>
@@ -11740,7 +11740,7 @@
         <v>51.088627430000003</v>
       </c>
       <c r="K217" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L217" s="2">
         <v>4</v>
@@ -11775,7 +11775,7 @@
         <v>40</v>
       </c>
       <c r="H218" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I218">
         <v>22.583078270000001</v>
@@ -11784,7 +11784,7 @@
         <v>39.47301873</v>
       </c>
       <c r="K218" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L218" s="2">
         <v>4</v>
@@ -11819,7 +11819,7 @@
         <v>41</v>
       </c>
       <c r="H219" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I219">
         <v>19.412215190000001</v>
@@ -11828,7 +11828,7 @@
         <v>47.1651448</v>
       </c>
       <c r="K219" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L219" s="2">
         <v>4</v>
@@ -11863,7 +11863,7 @@
         <v>42</v>
       </c>
       <c r="H220" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I220">
         <v>-19.021169660000002</v>
@@ -11872,7 +11872,7 @@
         <v>64.791347630000004</v>
       </c>
       <c r="K220" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L220" s="2">
         <v>4</v>
@@ -11907,7 +11907,7 @@
         <v>43</v>
       </c>
       <c r="H221" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I221">
         <v>-7.1214252719999998</v>
@@ -11916,7 +11916,7 @@
         <v>53.252740539999998</v>
       </c>
       <c r="K221" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L221" s="2">
         <v>4</v>
@@ -11951,7 +11951,7 @@
         <v>46</v>
       </c>
       <c r="H222" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I222">
         <v>12.570224270000001</v>
@@ -11960,7 +11960,7 @@
         <v>42.799172820000003</v>
       </c>
       <c r="K222" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L222" s="2">
         <v>4</v>
@@ -11995,7 +11995,7 @@
         <v>49</v>
       </c>
       <c r="H223" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I223">
         <v>9.5529850189999994</v>
@@ -12004,7 +12004,7 @@
         <v>47.141670050000002</v>
       </c>
       <c r="K223" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L223" s="2">
         <v>4</v>
@@ -12039,7 +12039,7 @@
         <v>50</v>
       </c>
       <c r="H224" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I224">
         <v>23.905178070000002</v>
@@ -12048,7 +12048,7 @@
         <v>55.336803089999997</v>
       </c>
       <c r="K224" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L224" s="2">
         <v>4</v>
@@ -12083,7 +12083,7 @@
         <v>51</v>
       </c>
       <c r="H225" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I225">
         <v>6.0926565630000002</v>
@@ -12092,7 +12092,7 @@
         <v>49.776795380000003</v>
       </c>
       <c r="K225" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L225" s="2">
         <v>4</v>
@@ -12127,7 +12127,7 @@
         <v>54</v>
       </c>
       <c r="H226" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I226">
         <v>28.465062400000001</v>
@@ -12136,7 +12136,7 @@
         <v>47.202367950000003</v>
       </c>
       <c r="K226" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L226" s="2">
         <v>4</v>
@@ -12171,7 +12171,7 @@
         <v>55</v>
       </c>
       <c r="H227" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I227">
         <v>19.252140239999999</v>
@@ -12180,7 +12180,7 @@
         <v>42.787170430000003</v>
       </c>
       <c r="K227" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L227" s="2">
         <v>4</v>
@@ -12215,7 +12215,7 @@
         <v>56</v>
       </c>
       <c r="H228" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I228">
         <v>5.3314805679999999</v>
@@ -12224,7 +12224,7 @@
         <v>51.867288840000001</v>
       </c>
       <c r="K228" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L228" s="2">
         <v>4</v>
@@ -12259,7 +12259,7 @@
         <v>57</v>
       </c>
       <c r="H229" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I229">
         <v>170.47556729999999</v>
@@ -12268,7 +12268,7 @@
         <v>-43.987215679999998</v>
       </c>
       <c r="K229" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L229" s="2">
         <v>4</v>
@@ -12303,7 +12303,7 @@
         <v>58</v>
       </c>
       <c r="H230" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I230">
         <v>11.47846389</v>
@@ -12312,7 +12312,7 @@
         <v>61.34311134</v>
       </c>
       <c r="K230" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L230" s="2">
         <v>4</v>
@@ -12347,7 +12347,7 @@
         <v>59</v>
       </c>
       <c r="H231" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I231">
         <v>19.40660158</v>
@@ -12356,7 +12356,7 @@
         <v>52.122673300000002</v>
       </c>
       <c r="K231" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L231" s="2">
         <v>4</v>
@@ -12391,7 +12391,7 @@
         <v>60</v>
       </c>
       <c r="H232" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I232">
         <v>-7.9615998110000001</v>
@@ -12400,7 +12400,7 @@
         <v>39.68509315</v>
       </c>
       <c r="K232" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L232" s="2">
         <v>4</v>
@@ -12435,7 +12435,7 @@
         <v>61</v>
       </c>
       <c r="H233" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I233">
         <v>24.98481009</v>
@@ -12444,7 +12444,7 @@
         <v>45.838935630000002</v>
       </c>
       <c r="K233" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L233" s="2">
         <v>4</v>
@@ -12479,7 +12479,7 @@
         <v>62</v>
       </c>
       <c r="H234" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I234">
         <v>99.014049259999993</v>
@@ -12488,7 +12488,7 @@
         <v>61.618998490000003</v>
       </c>
       <c r="K234" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L234" s="2">
         <v>4</v>
@@ -12523,7 +12523,7 @@
         <v>63</v>
       </c>
       <c r="H235" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I235">
         <v>12.46329038</v>
@@ -12532,7 +12532,7 @@
         <v>43.938417659999999</v>
       </c>
       <c r="K235" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L235" s="2">
         <v>4</v>
@@ -12567,7 +12567,7 @@
         <v>64</v>
       </c>
       <c r="H236" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I236">
         <v>20.805876000000001</v>
@@ -12576,7 +12576,7 @@
         <v>44.031456970000001</v>
       </c>
       <c r="K236" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L236" s="2">
         <v>4</v>
@@ -12611,7 +12611,7 @@
         <v>65</v>
       </c>
       <c r="H237" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I237">
         <v>19.48495604</v>
@@ -12620,7 +12620,7 @@
         <v>48.707414460000003</v>
       </c>
       <c r="K237" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L237" s="2">
         <v>4</v>
@@ -12655,7 +12655,7 @@
         <v>66</v>
       </c>
       <c r="H238" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I238">
         <v>14.82209486</v>
@@ -12664,7 +12664,7 @@
         <v>46.11958061</v>
       </c>
       <c r="K238" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L238" s="2">
         <v>4</v>
@@ -12699,7 +12699,7 @@
         <v>67</v>
       </c>
       <c r="H239" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I239">
         <v>-3.5540782960000001</v>
@@ -12708,7 +12708,7 @@
         <v>40.392114720000002</v>
       </c>
       <c r="K239" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L239" s="2">
         <v>4</v>
@@ -12743,7 +12743,7 @@
         <v>68</v>
       </c>
       <c r="H240" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I240">
         <v>14.3775338</v>
@@ -12752,7 +12752,7 @@
         <v>60.601031089999999</v>
       </c>
       <c r="K240" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L240" s="2">
         <v>4</v>
@@ -12787,7 +12787,7 @@
         <v>69</v>
       </c>
       <c r="H241" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I241">
         <v>8.2231579999999997</v>
@@ -12796,7 +12796,7 @@
         <v>46.96617097</v>
       </c>
       <c r="K241" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L241" s="2">
         <v>4</v>
@@ -12831,7 +12831,7 @@
         <v>70</v>
       </c>
       <c r="H242" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I242">
         <v>31.402708019999999</v>
@@ -12840,7 +12840,7 @@
         <v>49.007359450000003</v>
       </c>
       <c r="K242" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L242" s="2">
         <v>4</v>
@@ -12875,7 +12875,7 @@
         <v>71</v>
       </c>
       <c r="H243" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I243">
         <v>21.700790900000001</v>
@@ -12884,7 +12884,7 @@
         <v>41.600480679999997</v>
       </c>
       <c r="K243" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L243" s="2">
         <v>4</v>
@@ -12919,7 +12919,7 @@
         <v>72</v>
       </c>
       <c r="H244" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I244">
         <v>-2.2383053899999998</v>
@@ -12928,7 +12928,7 @@
         <v>53.276917570000002</v>
       </c>
       <c r="K244" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L244" s="2">
         <v>4</v>
@@ -12963,7 +12963,7 @@
         <v>77</v>
       </c>
       <c r="H245" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I245">
         <v>18.029598499999999</v>
@@ -12972,7 +12972,7 @@
         <v>27.04042819</v>
       </c>
       <c r="K245" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L245" s="2">
         <v>4</v>
@@ -13007,7 +13007,7 @@
         <v>79</v>
       </c>
       <c r="H246" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I246">
         <v>9.5727374110000003</v>
@@ -13016,7 +13016,7 @@
         <v>34.114399710000001</v>
       </c>
       <c r="K246" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L246" s="2">
         <v>4</v>
@@ -13051,7 +13051,7 @@
         <v>81</v>
       </c>
       <c r="H247" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I247">
         <v>160.15841169999999</v>
@@ -13060,7 +13060,7 @@
         <v>-9.6223917189999995</v>
       </c>
       <c r="K247" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L247" s="2">
         <v>4</v>
@@ -13095,7 +13095,7 @@
         <v>85</v>
       </c>
       <c r="H248" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I248">
         <v>167.06797789999999</v>
@@ -13104,7 +13104,7 @@
         <v>-15.34445547</v>
       </c>
       <c r="K248" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L248" s="2">
         <v>4</v>
@@ -13139,7 +13139,7 @@
         <v>94</v>
       </c>
       <c r="H249" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I249">
         <v>17.578170620000002</v>
@@ -13183,7 +13183,7 @@
         <v>95</v>
       </c>
       <c r="H250" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I250">
         <v>23.81380223</v>
@@ -13227,7 +13227,7 @@
         <v>98</v>
       </c>
       <c r="H251" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I251">
         <v>12.741982699999999</v>
@@ -13271,7 +13271,7 @@
         <v>106</v>
       </c>
       <c r="H252" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I252">
         <v>10.46535826</v>
@@ -13315,7 +13315,7 @@
         <v>110</v>
       </c>
       <c r="H253" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I253">
         <v>11.787277469999999</v>
@@ -13359,7 +13359,7 @@
         <v>112</v>
       </c>
       <c r="H254" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I254">
         <v>-1.205623522</v>
@@ -13403,7 +13403,7 @@
         <v>116</v>
       </c>
       <c r="H255" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I255">
         <v>28.253621949999999</v>
@@ -13447,7 +13447,7 @@
         <v>120</v>
       </c>
       <c r="H256" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I256">
         <v>-3.5220160389999999</v>
@@ -13491,7 +13491,7 @@
         <v>122</v>
       </c>
       <c r="H257" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I257">
         <v>57.568021999999999</v>
@@ -13535,7 +13535,7 @@
         <v>123</v>
       </c>
       <c r="H258" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I258">
         <v>38.184799409999997</v>
@@ -13579,7 +13579,7 @@
         <v>124</v>
       </c>
       <c r="H259" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I259">
         <v>17.219078849999999</v>
@@ -13623,7 +13623,7 @@
         <v>125</v>
       </c>
       <c r="H260" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I260">
         <v>9.4001678769999995</v>
@@ -13667,7 +13667,7 @@
         <v>126</v>
       </c>
       <c r="H261" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I261">
         <v>8.0973632559999995</v>
@@ -13711,7 +13711,7 @@
         <v>127</v>
       </c>
       <c r="H262" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I262">
         <v>-14.40182514</v>
@@ -13755,7 +13755,7 @@
         <v>128</v>
       </c>
       <c r="H263" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I263">
         <v>29.923101939999999</v>
@@ -13799,7 +13799,7 @@
         <v>130</v>
       </c>
       <c r="H264" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I264">
         <v>-14.46636926</v>
@@ -13843,7 +13843,7 @@
         <v>131</v>
       </c>
       <c r="H265" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I265">
         <v>55.465615909999997</v>
@@ -13887,7 +13887,7 @@
         <v>134</v>
       </c>
       <c r="H266" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I266">
         <v>24.671843549999998</v>
@@ -13931,7 +13931,7 @@
         <v>139</v>
       </c>
       <c r="H267" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I267">
         <v>34.805211819999997</v>
@@ -13975,7 +13975,7 @@
         <v>140</v>
       </c>
       <c r="H268" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I268">
         <v>-1.7428438289999999</v>
@@ -14019,7 +14019,7 @@
         <v>143</v>
       </c>
       <c r="H269" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I269">
         <v>-61.799975500000002</v>
@@ -14063,7 +14063,7 @@
         <v>144</v>
       </c>
       <c r="H270" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I270">
         <v>-65.145632739999996</v>
@@ -14107,7 +14107,7 @@
         <v>147</v>
       </c>
       <c r="H271" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I271">
         <v>-64.662242840000005</v>
@@ -14151,7 +14151,7 @@
         <v>148</v>
       </c>
       <c r="H272" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I272">
         <v>-53.08432878</v>
@@ -14195,7 +14195,7 @@
         <v>149</v>
       </c>
       <c r="H273" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I273">
         <v>-88.701995539999999</v>
@@ -14239,7 +14239,7 @@
         <v>151</v>
       </c>
       <c r="H274" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I274">
         <v>-73.074467510000005</v>
@@ -14283,7 +14283,7 @@
         <v>152</v>
       </c>
       <c r="H275" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I275">
         <v>-84.197127820000006</v>
@@ -14327,7 +14327,7 @@
         <v>155</v>
       </c>
       <c r="H276" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I276">
         <v>-70.498475760000005</v>
@@ -14371,7 +14371,7 @@
         <v>156</v>
       </c>
       <c r="H277" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I277">
         <v>-78.37005241</v>
@@ -14415,7 +14415,7 @@
         <v>159</v>
       </c>
       <c r="H278" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I278">
         <v>-91.231274600000006</v>
@@ -14459,7 +14459,7 @@
         <v>164</v>
       </c>
       <c r="H279" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I279">
         <v>-102.5148166</v>
@@ -14503,7 +14503,7 @@
         <v>166</v>
       </c>
       <c r="H280" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I280">
         <v>-81.266166229999996</v>
@@ -14547,7 +14547,7 @@
         <v>167</v>
       </c>
       <c r="H281" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I281">
         <v>-60.548542249999997</v>
@@ -14591,7 +14591,7 @@
         <v>168</v>
       </c>
       <c r="H282" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I282">
         <v>-71.820932769999999</v>
@@ -14635,7 +14635,7 @@
         <v>169</v>
       </c>
       <c r="H283" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I283">
         <v>-62.766286129999997</v>
@@ -14679,7 +14679,7 @@
         <v>174</v>
       </c>
       <c r="H284" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I284">
         <v>-56.013870249999997</v>
@@ -14723,7 +14723,7 @@
         <v>175</v>
       </c>
       <c r="H285" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I285">
         <v>-66.156420839999996</v>
@@ -14767,7 +14767,7 @@
         <v>176</v>
       </c>
       <c r="H286" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I286">
         <v>50.010647249999998</v>
@@ -14776,7 +14776,7 @@
         <v>40.392295439999998</v>
       </c>
       <c r="K286" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L286" s="2">
         <v>4</v>
@@ -14811,7 +14811,7 @@
         <v>177</v>
       </c>
       <c r="H287" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I287">
         <v>44.938393169999998</v>
@@ -14820,7 +14820,7 @@
         <v>40.294997410000001</v>
       </c>
       <c r="K287" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L287" s="2">
         <v>4</v>
@@ -14855,7 +14855,7 @@
         <v>178</v>
       </c>
       <c r="H288" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I288">
         <v>43.371361499999999</v>
@@ -14864,7 +14864,7 @@
         <v>42.048130280000002</v>
       </c>
       <c r="K288" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L288" s="2">
         <v>4</v>
@@ -14899,7 +14899,7 @@
         <v>179</v>
       </c>
       <c r="H289" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I289">
         <v>66.653591590000005</v>
@@ -14908,7 +14908,7 @@
         <v>48.019634940000003</v>
       </c>
       <c r="K289" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L289" s="2">
         <v>4</v>
@@ -14943,7 +14943,7 @@
         <v>180</v>
       </c>
       <c r="H290" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I290">
         <v>74.523248390000006</v>
@@ -14952,7 +14952,7 @@
         <v>41.462045160000002</v>
       </c>
       <c r="K290" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L290" s="2">
         <v>4</v>
@@ -14987,7 +14987,7 @@
         <v>182</v>
       </c>
       <c r="H291" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I291">
         <v>58.978766499999999</v>
@@ -14996,7 +14996,7 @@
         <v>40.0912346</v>
       </c>
       <c r="K291" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L291" s="2">
         <v>4</v>
@@ -15031,7 +15031,7 @@
         <v>195</v>
       </c>
       <c r="H292" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I292">
         <v>35.428903290000001</v>
@@ -15040,7 +15040,7 @@
         <v>38.989968400000002</v>
       </c>
       <c r="K292" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L292" s="2">
         <v>4</v>
@@ -15075,7 +15075,7 @@
         <v>199</v>
       </c>
       <c r="H293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I293">
         <v>104.922836</v>
@@ -15084,7 +15084,7 @@
         <v>12.71163737</v>
       </c>
       <c r="K293" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L293" s="2">
         <v>4</v>
@@ -15119,7 +15119,7 @@
         <v>203</v>
       </c>
       <c r="H294" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I294">
         <v>120.86014179999999</v>
@@ -15128,7 +15128,7 @@
         <v>14.16591706</v>
       </c>
       <c r="K294" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L294" s="2">
         <v>4</v>
@@ -15163,7 +15163,7 @@
         <v>204</v>
       </c>
       <c r="H295" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I295">
         <v>125.9451052</v>
@@ -15172,7 +15172,7 @@
         <v>-8.7974972470000008</v>
       </c>
       <c r="K295" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L295" s="2">
         <v>4</v>
@@ -15207,7 +15207,7 @@
         <v>207</v>
       </c>
       <c r="H296" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I296">
         <v>101.0202951</v>
@@ -15216,7 +15216,7 @@
         <v>15.13089239</v>
       </c>
       <c r="K296" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L296" s="2">
         <v>4</v>
@@ -15251,7 +15251,7 @@
         <v>210</v>
       </c>
       <c r="H297" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I297">
         <v>127.8610254</v>
@@ -15260,7 +15260,7 @@
         <v>36.452010229999999</v>
       </c>
       <c r="K297" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L297" s="2">
         <v>4</v>
@@ -15295,7 +15295,7 @@
         <v>211</v>
       </c>
       <c r="H298" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I298">
         <v>103.0728057</v>
@@ -15304,7 +15304,7 @@
         <v>46.838920539999997</v>
       </c>
       <c r="K298" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L298" s="2">
         <v>4</v>
@@ -15339,7 +15339,7 @@
         <v>96</v>
       </c>
       <c r="H299" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I299">
         <v>29.890809919999999</v>
@@ -15383,7 +15383,7 @@
         <v>103</v>
       </c>
       <c r="H300" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I300">
         <v>15.220526120000001</v>
@@ -15427,7 +15427,7 @@
         <v>105</v>
       </c>
       <c r="H301" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I301">
         <v>2.3399335940000001</v>
@@ -15471,7 +15471,7 @@
         <v>117</v>
       </c>
       <c r="H302" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I302">
         <v>-9.3118790380000007</v>
@@ -15515,7 +15515,7 @@
         <v>118</v>
       </c>
       <c r="H303" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I303">
         <v>46.698233899999998</v>
@@ -15559,7 +15559,7 @@
         <v>119</v>
       </c>
       <c r="H304" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I304">
         <v>33.488462499999997</v>
@@ -15603,7 +15603,7 @@
         <v>129</v>
       </c>
       <c r="H305" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I305">
         <v>6.6097722650000001</v>
@@ -15647,7 +15647,7 @@
         <v>132</v>
       </c>
       <c r="H306" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I306">
         <v>-11.783065840000001</v>
@@ -15691,7 +15691,7 @@
         <v>141</v>
       </c>
       <c r="H307" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I307">
         <v>27.850328999999999</v>
@@ -15735,7 +15735,7 @@
         <v>150</v>
       </c>
       <c r="H308" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I308">
         <v>-71.230290190000005</v>
@@ -15779,7 +15779,7 @@
         <v>153</v>
       </c>
       <c r="H309" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I309">
         <v>-79.544601439999994</v>
@@ -15823,7 +15823,7 @@
         <v>157</v>
       </c>
       <c r="H310" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I310">
         <v>-88.868629949999999</v>
@@ -15867,7 +15867,7 @@
         <v>181</v>
       </c>
       <c r="H311" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I311">
         <v>69.294998000000007</v>
@@ -15876,7 +15876,7 @@
         <v>38.430696660000002</v>
       </c>
       <c r="K311" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L311" s="2">
         <v>6</v>
@@ -15911,7 +15911,7 @@
         <v>200</v>
       </c>
       <c r="H312" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I312">
         <v>113.9174</v>
@@ -15920,7 +15920,7 @@
         <v>-0.99458220399999997</v>
       </c>
       <c r="K312" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L312" s="2">
         <v>6</v>
@@ -15955,7 +15955,7 @@
         <v>15</v>
       </c>
       <c r="H313" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I313">
         <v>54.197663480000003</v>
@@ -15964,7 +15964,7 @@
         <v>32.743708849999997</v>
       </c>
       <c r="K313" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L313" s="2">
         <v>10</v>
@@ -15999,7 +15999,7 @@
         <v>74</v>
       </c>
       <c r="H314" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I314">
         <v>-99.138303109999995</v>
@@ -16008,7 +16008,7 @@
         <v>39.527787099999998</v>
       </c>
       <c r="K314" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L314" s="2">
         <v>10</v>
@@ -16043,7 +16043,7 @@
         <v>84</v>
       </c>
       <c r="H315" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I315">
         <v>166.92312999999999</v>
@@ -16052,7 +16052,7 @@
         <v>-0.52874262299999997</v>
       </c>
       <c r="K315" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L315" s="2">
         <v>10</v>
@@ -16087,7 +16087,7 @@
         <v>88</v>
       </c>
       <c r="H316" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I316">
         <v>134.57338780000001</v>
@@ -16096,7 +16096,7 @@
         <v>7.5023075910000001</v>
       </c>
       <c r="K316" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L316" s="2">
         <v>10</v>
@@ -16131,7 +16131,7 @@
         <v>90</v>
       </c>
       <c r="H317" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I317">
         <v>-175.19599909999999</v>
@@ -16140,7 +16140,7 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K317" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L317" s="2">
         <v>10</v>
@@ -16175,7 +16175,7 @@
         <v>133</v>
       </c>
       <c r="H318" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I318">
         <v>46.203674769999999</v>
@@ -16219,7 +16219,7 @@
         <v>136</v>
       </c>
       <c r="H319" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I319">
         <v>29.956501589999998</v>
@@ -16228,7 +16228,7 @@
         <v>16.026430659999999</v>
       </c>
       <c r="K319" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L319" s="2">
         <v>10</v>
@@ -16263,7 +16263,7 @@
         <v>185</v>
       </c>
       <c r="H320" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I320">
         <v>35.256941220000002</v>
@@ -16272,7 +16272,7 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K320" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L320" s="2">
         <v>10</v>
@@ -16304,10 +16304,10 @@
         <v>344</v>
       </c>
       <c r="G321" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H321" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I321">
         <v>114.0266445</v>
@@ -16316,7 +16316,7 @@
         <v>22.417499339999999</v>
       </c>
       <c r="K321" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L321" s="2">
         <v>10</v>
@@ -16351,7 +16351,7 @@
         <v>4</v>
       </c>
       <c r="H322" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I322">
         <v>89.176607880000006</v>
@@ -16360,7 +16360,7 @@
         <v>22.869616220000001</v>
       </c>
       <c r="K322" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L322" s="2">
         <v>7</v>
@@ -16395,7 +16395,7 @@
         <v>12</v>
       </c>
       <c r="H323" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I323">
         <v>79.3608464</v>
@@ -16404,7 +16404,7 @@
         <v>22.346420739999999</v>
       </c>
       <c r="K323" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L323" s="2">
         <v>7</v>
@@ -16442,7 +16442,7 @@
         <v>21</v>
       </c>
       <c r="H324" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I324">
         <v>73.096725460000002</v>
@@ -16451,7 +16451,7 @@
         <v>-0.61438502100000003</v>
       </c>
       <c r="K324" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L324" s="2">
         <v>7</v>
@@ -16486,7 +16486,7 @@
         <v>45</v>
       </c>
       <c r="H325" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I325">
         <v>34.622779919999999</v>
@@ -16495,7 +16495,7 @@
         <v>31.061645519999999</v>
       </c>
       <c r="K325" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L325" s="2">
         <v>7</v>
@@ -16530,7 +16530,7 @@
         <v>57</v>
       </c>
       <c r="H326" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I326">
         <v>170.47556729999999</v>
@@ -16539,7 +16539,7 @@
         <v>-43.987215679999998</v>
       </c>
       <c r="K326" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L326" s="2">
         <v>7</v>
@@ -16574,7 +16574,7 @@
         <v>77</v>
       </c>
       <c r="H327" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I327">
         <v>18.029598499999999</v>
@@ -16583,7 +16583,7 @@
         <v>27.04042819</v>
       </c>
       <c r="K327" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L327" s="2">
         <v>7</v>
@@ -16618,7 +16618,7 @@
         <v>78</v>
       </c>
       <c r="H328" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I328">
         <v>-6.2819428410000002</v>
@@ -16627,7 +16627,7 @@
         <v>31.844013100000002</v>
       </c>
       <c r="K328" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L328" s="2">
         <v>7</v>
@@ -16665,7 +16665,7 @@
         <v>80</v>
       </c>
       <c r="H329" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I329">
         <v>29.774685340000001</v>
@@ -16674,7 +16674,7 @@
         <v>26.57438204</v>
       </c>
       <c r="K329" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L329" s="2">
         <v>7</v>
@@ -16709,7 +16709,7 @@
         <v>116</v>
       </c>
       <c r="H330" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I330">
         <v>28.253621949999999</v>
@@ -16753,7 +16753,7 @@
         <v>121</v>
       </c>
       <c r="H331" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I331">
         <v>-10.33187259</v>
@@ -16797,7 +16797,7 @@
         <v>125</v>
       </c>
       <c r="H332" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I332">
         <v>9.4001678769999995</v>
@@ -16841,7 +16841,7 @@
         <v>184</v>
       </c>
       <c r="H333" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I333">
         <v>50.5490754</v>
@@ -16850,7 +16850,7 @@
         <v>26.044077470000001</v>
       </c>
       <c r="K333" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L333" s="2">
         <v>7</v>
@@ -16885,7 +16885,7 @@
         <v>186</v>
       </c>
       <c r="H334" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I334">
         <v>43.766062669999997</v>
@@ -16894,7 +16894,7 @@
         <v>33.05013795</v>
       </c>
       <c r="K334" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L334" s="2">
         <v>7</v>
@@ -16929,7 +16929,7 @@
         <v>188</v>
       </c>
       <c r="H335" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I335">
         <v>47.493050289999999</v>
@@ -16938,7 +16938,7 @@
         <v>29.539494680000001</v>
       </c>
       <c r="K335" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L335" s="2">
         <v>7</v>
@@ -16973,7 +16973,7 @@
         <v>190</v>
       </c>
       <c r="H336" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I336">
         <v>57.877434819999998</v>
@@ -16982,7 +16982,7 @@
         <v>21.988056140000001</v>
       </c>
       <c r="K336" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L336" s="2">
         <v>7</v>
@@ -17017,7 +17017,7 @@
         <v>191</v>
       </c>
       <c r="H337" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I337">
         <v>51.19152467</v>
@@ -17026,7 +17026,7 @@
         <v>25.283553789999999</v>
       </c>
       <c r="K337" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L337" s="2">
         <v>7</v>
@@ -17064,7 +17064,7 @@
         <v>192</v>
       </c>
       <c r="H338" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I338">
         <v>44.547633470000001</v>
@@ -17073,7 +17073,7 @@
         <v>24.12594211</v>
       </c>
       <c r="K338" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L338" s="2">
         <v>7</v>
@@ -17108,7 +17108,7 @@
         <v>193</v>
       </c>
       <c r="H339" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I339">
         <v>38.50466565</v>
@@ -17117,7 +17117,7 @@
         <v>35.016761760000001</v>
       </c>
       <c r="K339" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L339" s="2">
         <v>7</v>
@@ -17152,7 +17152,7 @@
         <v>194</v>
       </c>
       <c r="H340" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I340">
         <v>53.982791589999998</v>
@@ -17161,7 +17161,7 @@
         <v>23.433222189999999</v>
       </c>
       <c r="K340" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L340" s="2">
         <v>7</v>
@@ -17196,7 +17196,7 @@
         <v>197</v>
       </c>
       <c r="H341" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I341">
         <v>114.6288563</v>
@@ -17205,7 +17205,7 @@
         <v>4.4973698400000002</v>
       </c>
       <c r="K341" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L341" s="2">
         <v>7</v>
@@ -17240,7 +17240,7 @@
         <v>202</v>
       </c>
       <c r="H342" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I342">
         <v>116.83463140000001</v>
@@ -17249,7 +17249,7 @@
         <v>5.452415309</v>
       </c>
       <c r="K342" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L342" s="2">
         <v>7</v>
@@ -17284,7 +17284,7 @@
         <v>205</v>
       </c>
       <c r="H343" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I343">
         <v>103.8107883</v>
@@ -17293,7 +17293,7 @@
         <v>1.3610091550000001</v>
       </c>
       <c r="K343" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L343" s="2">
         <v>7</v>
@@ -17328,7 +17328,7 @@
         <v>15</v>
       </c>
       <c r="H344" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I344">
         <v>54.197663480000003</v>
@@ -17337,7 +17337,7 @@
         <v>32.743708849999997</v>
       </c>
       <c r="K344" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L344" s="2">
         <v>10</v>
@@ -17372,7 +17372,7 @@
         <v>74</v>
       </c>
       <c r="H345" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I345">
         <v>-99.138303109999995</v>
@@ -17381,7 +17381,7 @@
         <v>39.527787099999998</v>
       </c>
       <c r="K345" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L345" s="2">
         <v>10</v>
@@ -17416,7 +17416,7 @@
         <v>84</v>
       </c>
       <c r="H346" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I346">
         <v>166.92312999999999</v>
@@ -17425,7 +17425,7 @@
         <v>-0.52874262299999997</v>
       </c>
       <c r="K346" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L346" s="2">
         <v>10</v>
@@ -17460,7 +17460,7 @@
         <v>88</v>
       </c>
       <c r="H347" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I347">
         <v>134.57338780000001</v>
@@ -17469,7 +17469,7 @@
         <v>7.5023075910000001</v>
       </c>
       <c r="K347" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L347" s="2">
         <v>10</v>
@@ -17504,7 +17504,7 @@
         <v>90</v>
       </c>
       <c r="H348" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I348">
         <v>-175.19599909999999</v>
@@ -17513,7 +17513,7 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K348" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L348" s="2">
         <v>10</v>
@@ -17548,7 +17548,7 @@
         <v>133</v>
       </c>
       <c r="H349" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I349">
         <v>46.203674769999999</v>
@@ -17592,7 +17592,7 @@
         <v>136</v>
       </c>
       <c r="H350" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I350">
         <v>29.956501589999998</v>
@@ -17601,7 +17601,7 @@
         <v>16.026430659999999</v>
       </c>
       <c r="K350" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L350" s="2">
         <v>10</v>
@@ -17636,7 +17636,7 @@
         <v>185</v>
       </c>
       <c r="H351" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I351">
         <v>35.256941220000002</v>
@@ -17645,7 +17645,7 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K351" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L351" s="2">
         <v>10</v>
@@ -17677,10 +17677,10 @@
         <v>344</v>
       </c>
       <c r="G352" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H352" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I352">
         <v>114.0266445</v>
@@ -17689,7 +17689,7 @@
         <v>22.417499339999999</v>
       </c>
       <c r="K352" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L352" s="2">
         <v>10</v>
@@ -17724,7 +17724,7 @@
         <v>4</v>
       </c>
       <c r="H353" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I353">
         <v>89.176607880000006</v>
@@ -17733,7 +17733,7 @@
         <v>22.869616220000001</v>
       </c>
       <c r="K353" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L353" s="2">
         <v>7</v>
@@ -17768,7 +17768,7 @@
         <v>57</v>
       </c>
       <c r="H354" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I354">
         <v>170.47556729999999</v>
@@ -17777,7 +17777,7 @@
         <v>-43.987215679999998</v>
       </c>
       <c r="K354" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L354" s="2">
         <v>7</v>
@@ -17812,7 +17812,7 @@
         <v>76</v>
       </c>
       <c r="H355" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I355">
         <v>2.6781642269999999</v>
@@ -17821,7 +17821,7 @@
         <v>28.15940032</v>
       </c>
       <c r="K355" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L355" s="2">
         <v>7</v>
@@ -17856,7 +17856,7 @@
         <v>77</v>
       </c>
       <c r="H356" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I356">
         <v>18.029598499999999</v>
@@ -17865,7 +17865,7 @@
         <v>27.04042819</v>
       </c>
       <c r="K356" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L356" s="2">
         <v>7</v>
@@ -17900,7 +17900,7 @@
         <v>78</v>
       </c>
       <c r="H357" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I357">
         <v>-6.2819428410000002</v>
@@ -17909,7 +17909,7 @@
         <v>31.844013100000002</v>
       </c>
       <c r="K357" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L357" s="2">
         <v>7</v>
@@ -17947,7 +17947,7 @@
         <v>80</v>
       </c>
       <c r="H358" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I358">
         <v>29.774685340000001</v>
@@ -17956,7 +17956,7 @@
         <v>26.57438204</v>
       </c>
       <c r="K358" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L358" s="2">
         <v>7</v>
@@ -17991,7 +17991,7 @@
         <v>86</v>
       </c>
       <c r="H359" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I359">
         <v>158.22521599999999</v>
@@ -18000,7 +18000,7 @@
         <v>6.8806700919999999</v>
       </c>
       <c r="K359" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L359" s="2">
         <v>7</v>
@@ -18035,7 +18035,7 @@
         <v>116</v>
       </c>
       <c r="H360" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I360">
         <v>28.253621949999999</v>
@@ -18079,7 +18079,7 @@
         <v>125</v>
       </c>
       <c r="H361" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I361">
         <v>9.4001678769999995</v>
@@ -18123,7 +18123,7 @@
         <v>145</v>
       </c>
       <c r="H362" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I362">
         <v>-78.051116629999996</v>
@@ -18167,7 +18167,7 @@
         <v>184</v>
       </c>
       <c r="H363" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I363">
         <v>50.5490754</v>
@@ -18176,7 +18176,7 @@
         <v>26.044077470000001</v>
       </c>
       <c r="K363" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L363" s="2">
         <v>7</v>
@@ -18211,7 +18211,7 @@
         <v>186</v>
       </c>
       <c r="H364" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I364">
         <v>43.766062669999997</v>
@@ -18220,7 +18220,7 @@
         <v>33.05013795</v>
       </c>
       <c r="K364" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L364" s="2">
         <v>7</v>
@@ -18255,7 +18255,7 @@
         <v>191</v>
       </c>
       <c r="H365" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I365">
         <v>51.19152467</v>
@@ -18264,7 +18264,7 @@
         <v>25.283553789999999</v>
       </c>
       <c r="K365" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L365" s="2">
         <v>7</v>
@@ -18299,7 +18299,7 @@
         <v>193</v>
       </c>
       <c r="H366" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I366">
         <v>38.50466565</v>
@@ -18308,7 +18308,7 @@
         <v>35.016761760000001</v>
       </c>
       <c r="K366" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L366" s="2">
         <v>7</v>
@@ -18343,7 +18343,7 @@
         <v>194</v>
       </c>
       <c r="H367" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I367">
         <v>53.982791589999998</v>
@@ -18352,7 +18352,7 @@
         <v>23.433222189999999</v>
       </c>
       <c r="K367" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L367" s="2">
         <v>7</v>
@@ -18387,7 +18387,7 @@
         <v>205</v>
       </c>
       <c r="H368" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I368">
         <v>103.8107883</v>
@@ -18396,7 +18396,7 @@
         <v>1.3610091550000001</v>
       </c>
       <c r="K368" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L368" s="2">
         <v>7</v>
@@ -18431,7 +18431,7 @@
         <v>209</v>
       </c>
       <c r="H369" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I369">
         <v>127.1803633</v>
@@ -18440,7 +18440,7 @@
         <v>40.146264500000001</v>
       </c>
       <c r="K369" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L369" s="2">
         <v>7</v>
@@ -18475,7 +18475,7 @@
         <v>15</v>
       </c>
       <c r="H370" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I370">
         <v>54.197663480000003</v>
@@ -18484,7 +18484,7 @@
         <v>32.743708849999997</v>
       </c>
       <c r="K370" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L370" s="2">
         <v>10</v>
@@ -18519,7 +18519,7 @@
         <v>74</v>
       </c>
       <c r="H371" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I371">
         <v>-99.138303109999995</v>
@@ -18528,7 +18528,7 @@
         <v>39.527787099999998</v>
       </c>
       <c r="K371" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L371" s="2">
         <v>10</v>
@@ -18563,7 +18563,7 @@
         <v>84</v>
       </c>
       <c r="H372" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I372">
         <v>166.92312999999999</v>
@@ -18572,7 +18572,7 @@
         <v>-0.52874262299999997</v>
       </c>
       <c r="K372" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L372" s="2">
         <v>10</v>
@@ -18607,7 +18607,7 @@
         <v>88</v>
       </c>
       <c r="H373" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I373">
         <v>134.57338780000001</v>
@@ -18616,7 +18616,7 @@
         <v>7.5023075910000001</v>
       </c>
       <c r="K373" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L373" s="2">
         <v>10</v>
@@ -18651,7 +18651,7 @@
         <v>90</v>
       </c>
       <c r="H374" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I374">
         <v>-175.19599909999999</v>
@@ -18660,7 +18660,7 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K374" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L374" s="2">
         <v>10</v>
@@ -18695,7 +18695,7 @@
         <v>133</v>
       </c>
       <c r="H375" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I375">
         <v>46.203674769999999</v>
@@ -18739,7 +18739,7 @@
         <v>136</v>
       </c>
       <c r="H376" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I376">
         <v>29.956501589999998</v>
@@ -18748,7 +18748,7 @@
         <v>16.026430659999999</v>
       </c>
       <c r="K376" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L376" s="2">
         <v>10</v>
@@ -18783,7 +18783,7 @@
         <v>185</v>
       </c>
       <c r="H377" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I377">
         <v>35.256941220000002</v>
@@ -18792,7 +18792,7 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K377" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L377" s="2">
         <v>10</v>
@@ -18824,10 +18824,10 @@
         <v>344</v>
       </c>
       <c r="G378" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H378" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I378">
         <v>114.0266445</v>
@@ -18836,7 +18836,7 @@
         <v>22.417499339999999</v>
       </c>
       <c r="K378" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L378" s="2">
         <v>10</v>
@@ -18871,7 +18871,7 @@
         <v>4</v>
       </c>
       <c r="H379" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I379">
         <v>89.176607880000006</v>
@@ -18880,7 +18880,7 @@
         <v>22.869616220000001</v>
       </c>
       <c r="K379" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L379" s="2">
         <v>7</v>
@@ -18915,7 +18915,7 @@
         <v>12</v>
       </c>
       <c r="H380" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I380">
         <v>79.3608464</v>
@@ -18924,7 +18924,7 @@
         <v>22.346420739999999</v>
       </c>
       <c r="K380" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L380" s="2">
         <v>7</v>
@@ -18962,7 +18962,7 @@
         <v>21</v>
       </c>
       <c r="H381" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I381">
         <v>73.096725460000002</v>
@@ -18971,7 +18971,7 @@
         <v>-0.61438502100000003</v>
       </c>
       <c r="K381" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L381" s="2">
         <v>7</v>
@@ -19006,7 +19006,7 @@
         <v>38</v>
       </c>
       <c r="H382" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I382">
         <v>2.4572881290000002</v>
@@ -19015,7 +19015,7 @@
         <v>46.626608609999998</v>
       </c>
       <c r="K382" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L382" s="2">
         <v>7</v>
@@ -19050,7 +19050,7 @@
         <v>43</v>
       </c>
       <c r="H383" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I383">
         <v>-7.1214252719999998</v>
@@ -19059,7 +19059,7 @@
         <v>53.252740539999998</v>
       </c>
       <c r="K383" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L383" s="2">
         <v>7</v>
@@ -19097,7 +19097,7 @@
         <v>45</v>
       </c>
       <c r="H384" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I384">
         <v>34.622779919999999</v>
@@ -19106,7 +19106,7 @@
         <v>31.061645519999999</v>
       </c>
       <c r="K384" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L384" s="2">
         <v>7</v>
@@ -19141,7 +19141,7 @@
         <v>52</v>
       </c>
       <c r="H385" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I385">
         <v>14.44617519</v>
@@ -19150,7 +19150,7 @@
         <v>35.891942749999998</v>
       </c>
       <c r="K385" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L385" s="2">
         <v>7</v>
@@ -19185,7 +19185,7 @@
         <v>53</v>
       </c>
       <c r="H386" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I386">
         <v>7.4242148139999999</v>
@@ -19194,7 +19194,7 @@
         <v>43.735329180000001</v>
       </c>
       <c r="K386" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L386" s="2">
         <v>7</v>
@@ -19229,7 +19229,7 @@
         <v>69</v>
       </c>
       <c r="H387" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I387">
         <v>8.2231579999999997</v>
@@ -19238,7 +19238,7 @@
         <v>46.96617097</v>
       </c>
       <c r="K387" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L387" s="2">
         <v>7</v>
@@ -19273,7 +19273,7 @@
         <v>72</v>
       </c>
       <c r="H388" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I388">
         <v>-2.2383053899999998</v>
@@ -19282,7 +19282,7 @@
         <v>53.276917570000002</v>
       </c>
       <c r="K388" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L388" s="2">
         <v>7</v>
@@ -19320,7 +19320,7 @@
         <v>76</v>
       </c>
       <c r="H389" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I389">
         <v>2.6781642269999999</v>
@@ -19329,7 +19329,7 @@
         <v>28.15940032</v>
       </c>
       <c r="K389" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L389" s="2">
         <v>7</v>
@@ -19364,7 +19364,7 @@
         <v>77</v>
       </c>
       <c r="H390" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I390">
         <v>18.029598499999999</v>
@@ -19373,7 +19373,7 @@
         <v>27.04042819</v>
       </c>
       <c r="K390" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L390" s="2">
         <v>7</v>
@@ -19408,7 +19408,7 @@
         <v>78</v>
       </c>
       <c r="H391" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I391">
         <v>-6.2819428410000002</v>
@@ -19417,7 +19417,7 @@
         <v>31.844013100000002</v>
       </c>
       <c r="K391" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L391" s="2">
         <v>7</v>
@@ -19455,7 +19455,7 @@
         <v>79</v>
       </c>
       <c r="H392" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I392">
         <v>9.5727374110000003</v>
@@ -19464,7 +19464,7 @@
         <v>34.114399710000001</v>
       </c>
       <c r="K392" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L392" s="2">
         <v>7</v>
@@ -19499,7 +19499,7 @@
         <v>80</v>
       </c>
       <c r="H393" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I393">
         <v>29.774685340000001</v>
@@ -19508,7 +19508,7 @@
         <v>26.57438204</v>
       </c>
       <c r="K393" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L393" s="2">
         <v>7</v>
@@ -19543,7 +19543,7 @@
         <v>86</v>
       </c>
       <c r="H394" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I394">
         <v>158.22521599999999</v>
@@ -19552,7 +19552,7 @@
         <v>6.8806700919999999</v>
       </c>
       <c r="K394" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L394" s="2">
         <v>7</v>
@@ -19587,7 +19587,7 @@
         <v>125</v>
       </c>
       <c r="H395" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I395">
         <v>9.4001678769999995</v>
@@ -19631,7 +19631,7 @@
         <v>184</v>
       </c>
       <c r="H396" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I396">
         <v>50.5490754</v>
@@ -19640,7 +19640,7 @@
         <v>26.044077470000001</v>
       </c>
       <c r="K396" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L396" s="2">
         <v>7</v>
@@ -19675,7 +19675,7 @@
         <v>186</v>
       </c>
       <c r="H397" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I397">
         <v>43.766062669999997</v>
@@ -19684,7 +19684,7 @@
         <v>33.05013795</v>
       </c>
       <c r="K397" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L397" s="2">
         <v>7</v>
@@ -19719,7 +19719,7 @@
         <v>187</v>
       </c>
       <c r="H398" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I398">
         <v>37.130247740000001</v>
@@ -19728,7 +19728,7 @@
         <v>30.653659730000001</v>
       </c>
       <c r="K398" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L398" s="2">
         <v>7</v>
@@ -19763,7 +19763,7 @@
         <v>188</v>
       </c>
       <c r="H399" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I399">
         <v>47.493050289999999</v>
@@ -19772,7 +19772,7 @@
         <v>29.539494680000001</v>
       </c>
       <c r="K399" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L399" s="2">
         <v>7</v>
@@ -19807,7 +19807,7 @@
         <v>189</v>
       </c>
       <c r="H400" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I400">
         <v>35.893917109999997</v>
@@ -19816,7 +19816,7 @@
         <v>33.921524580000003</v>
       </c>
       <c r="K400" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L400" s="2">
         <v>7</v>
@@ -19851,7 +19851,7 @@
         <v>190</v>
       </c>
       <c r="H401" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I401">
         <v>57.877434819999998</v>
@@ -19860,7 +19860,7 @@
         <v>21.988056140000001</v>
       </c>
       <c r="K401" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L401" s="2">
         <v>7</v>
@@ -19895,7 +19895,7 @@
         <v>191</v>
       </c>
       <c r="H402" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I402">
         <v>51.19152467</v>
@@ -19904,7 +19904,7 @@
         <v>25.283553789999999</v>
       </c>
       <c r="K402" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L402" s="2">
         <v>7</v>
@@ -19939,7 +19939,7 @@
         <v>193</v>
       </c>
       <c r="H403" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I403">
         <v>38.50466565</v>
@@ -19948,7 +19948,7 @@
         <v>35.016761760000001</v>
       </c>
       <c r="K403" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L403" s="2">
         <v>7</v>
@@ -19983,7 +19983,7 @@
         <v>194</v>
       </c>
       <c r="H404" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I404">
         <v>53.982791589999998</v>
@@ -19992,7 +19992,7 @@
         <v>23.433222189999999</v>
       </c>
       <c r="K404" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L404" s="2">
         <v>7</v>
@@ -20027,7 +20027,7 @@
         <v>202</v>
       </c>
       <c r="H405" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I405">
         <v>116.83463140000001</v>
@@ -20036,7 +20036,7 @@
         <v>5.452415309</v>
       </c>
       <c r="K405" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L405" s="2">
         <v>7</v>
@@ -20071,7 +20071,7 @@
         <v>205</v>
       </c>
       <c r="H406" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I406">
         <v>103.8107883</v>
@@ -20080,7 +20080,7 @@
         <v>1.3610091550000001</v>
       </c>
       <c r="K406" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L406" s="2">
         <v>7</v>
@@ -20115,7 +20115,7 @@
         <v>207</v>
       </c>
       <c r="H407" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I407">
         <v>101.0202951</v>
@@ -20124,7 +20124,7 @@
         <v>15.13089239</v>
       </c>
       <c r="K407" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L407" s="2">
         <v>7</v>
@@ -20159,7 +20159,7 @@
         <v>210</v>
       </c>
       <c r="H408" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I408">
         <v>127.8610254</v>
@@ -20168,7 +20168,7 @@
         <v>36.452010229999999</v>
       </c>
       <c r="K408" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L408" s="2">
         <v>7</v>
@@ -20203,7 +20203,7 @@
         <v>15</v>
       </c>
       <c r="H409" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I409">
         <v>54.197663480000003</v>
@@ -20212,7 +20212,7 @@
         <v>32.743708849999997</v>
       </c>
       <c r="K409" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L409" s="2">
         <v>10</v>
@@ -20247,7 +20247,7 @@
         <v>74</v>
       </c>
       <c r="H410" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I410">
         <v>-99.138303109999995</v>
@@ -20256,7 +20256,7 @@
         <v>39.527787099999998</v>
       </c>
       <c r="K410" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L410" s="2">
         <v>10</v>
@@ -20291,7 +20291,7 @@
         <v>84</v>
       </c>
       <c r="H411" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I411">
         <v>166.92312999999999</v>
@@ -20300,7 +20300,7 @@
         <v>-0.52874262299999997</v>
       </c>
       <c r="K411" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L411" s="2">
         <v>10</v>
@@ -20335,7 +20335,7 @@
         <v>88</v>
       </c>
       <c r="H412" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I412">
         <v>134.57338780000001</v>
@@ -20344,7 +20344,7 @@
         <v>7.5023075910000001</v>
       </c>
       <c r="K412" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L412" s="2">
         <v>10</v>
@@ -20379,7 +20379,7 @@
         <v>90</v>
       </c>
       <c r="H413" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I413">
         <v>-175.19599909999999</v>
@@ -20388,7 +20388,7 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K413" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L413" s="2">
         <v>10</v>
@@ -20423,7 +20423,7 @@
         <v>133</v>
       </c>
       <c r="H414" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I414">
         <v>46.203674769999999</v>
@@ -20467,7 +20467,7 @@
         <v>136</v>
       </c>
       <c r="H415" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I415">
         <v>29.956501589999998</v>
@@ -20476,7 +20476,7 @@
         <v>16.026430659999999</v>
       </c>
       <c r="K415" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L415" s="2">
         <v>10</v>
@@ -20511,7 +20511,7 @@
         <v>185</v>
       </c>
       <c r="H416" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I416">
         <v>35.256941220000002</v>
@@ -20520,7 +20520,7 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K416" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L416" s="2">
         <v>10</v>
@@ -20552,10 +20552,10 @@
         <v>344</v>
       </c>
       <c r="G417" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H417" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I417">
         <v>114.0266445</v>
@@ -20564,7 +20564,7 @@
         <v>22.417499339999999</v>
       </c>
       <c r="K417" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L417" s="2">
         <v>10</v>
@@ -20599,7 +20599,7 @@
         <v>26</v>
       </c>
       <c r="H418" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I418">
         <v>134.34994119999999</v>
@@ -20608,7 +20608,7 @@
         <v>-25.577172019999999</v>
       </c>
       <c r="K418" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L418" s="2">
         <v>7</v>
@@ -20643,7 +20643,7 @@
         <v>27</v>
       </c>
       <c r="H419" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I419">
         <v>14.141724719999999</v>
@@ -20652,7 +20652,7 @@
         <v>47.58704857</v>
       </c>
       <c r="K419" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L419" s="2">
         <v>7</v>
@@ -20687,7 +20687,7 @@
         <v>43</v>
       </c>
       <c r="H420" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I420">
         <v>-7.1214252719999998</v>
@@ -20696,7 +20696,7 @@
         <v>53.252740539999998</v>
       </c>
       <c r="K420" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L420" s="2">
         <v>7</v>
@@ -20731,7 +20731,7 @@
         <v>52</v>
       </c>
       <c r="H421" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I421">
         <v>14.44617519</v>
@@ -20740,7 +20740,7 @@
         <v>35.891942749999998</v>
       </c>
       <c r="K421" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L421" s="2">
         <v>7</v>
@@ -20775,7 +20775,7 @@
         <v>72</v>
       </c>
       <c r="H422" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I422">
         <v>-2.2383053899999998</v>
@@ -20784,7 +20784,7 @@
         <v>53.276917570000002</v>
       </c>
       <c r="K422" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L422" s="2">
         <v>7</v>
@@ -20819,7 +20819,7 @@
         <v>86</v>
       </c>
       <c r="H423" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I423">
         <v>158.22521599999999</v>
@@ -20828,7 +20828,7 @@
         <v>6.8806700919999999</v>
       </c>
       <c r="K423" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L423" s="2">
         <v>7</v>
@@ -20863,7 +20863,7 @@
         <v>205</v>
       </c>
       <c r="H424" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I424">
         <v>103.8107883</v>
@@ -20872,7 +20872,7 @@
         <v>1.3610091550000001</v>
       </c>
       <c r="K424" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L424" s="2">
         <v>7</v>
@@ -20907,7 +20907,7 @@
         <v>15</v>
       </c>
       <c r="H425" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I425">
         <v>54.197663480000003</v>
@@ -20916,7 +20916,7 @@
         <v>32.743708849999997</v>
       </c>
       <c r="K425" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L425" s="2">
         <v>10</v>
@@ -20951,7 +20951,7 @@
         <v>74</v>
       </c>
       <c r="H426" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I426">
         <v>-99.138303109999995</v>
@@ -20960,7 +20960,7 @@
         <v>39.527787099999998</v>
       </c>
       <c r="K426" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L426" s="2">
         <v>10</v>
@@ -20995,7 +20995,7 @@
         <v>84</v>
       </c>
       <c r="H427" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I427">
         <v>166.92312999999999</v>
@@ -21004,7 +21004,7 @@
         <v>-0.52874262299999997</v>
       </c>
       <c r="K427" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L427" s="2">
         <v>10</v>
@@ -21039,7 +21039,7 @@
         <v>88</v>
       </c>
       <c r="H428" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I428">
         <v>134.57338780000001</v>
@@ -21048,7 +21048,7 @@
         <v>7.5023075910000001</v>
       </c>
       <c r="K428" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L428" s="2">
         <v>10</v>
@@ -21083,7 +21083,7 @@
         <v>90</v>
       </c>
       <c r="H429" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I429">
         <v>-175.19599909999999</v>
@@ -21092,7 +21092,7 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K429" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L429" s="2">
         <v>10</v>
@@ -21127,7 +21127,7 @@
         <v>133</v>
       </c>
       <c r="H430" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I430">
         <v>46.203674769999999</v>
@@ -21171,7 +21171,7 @@
         <v>136</v>
       </c>
       <c r="H431" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I431">
         <v>29.956501589999998</v>
@@ -21180,7 +21180,7 @@
         <v>16.026430659999999</v>
       </c>
       <c r="K431" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L431" s="2">
         <v>10</v>
@@ -21215,7 +21215,7 @@
         <v>185</v>
       </c>
       <c r="H432" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I432">
         <v>35.256941220000002</v>
@@ -21224,7 +21224,7 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K432" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L432" s="2">
         <v>10</v>
@@ -21256,10 +21256,10 @@
         <v>344</v>
       </c>
       <c r="G433" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H433" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I433">
         <v>114.0266445</v>
@@ -21268,7 +21268,7 @@
         <v>22.417499339999999</v>
       </c>
       <c r="K433" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L433" s="2">
         <v>10</v>
@@ -21303,7 +21303,7 @@
         <v>38</v>
       </c>
       <c r="H434" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I434">
         <v>2.4572881290000002</v>
@@ -21312,7 +21312,7 @@
         <v>46.626608609999998</v>
       </c>
       <c r="K434" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L434" s="2">
         <v>7</v>
@@ -21347,7 +21347,7 @@
         <v>53</v>
       </c>
       <c r="H435" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I435">
         <v>7.4242148139999999</v>
@@ -21356,7 +21356,7 @@
         <v>43.735329180000001</v>
       </c>
       <c r="K435" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L435" s="2">
         <v>7</v>
@@ -21391,7 +21391,7 @@
         <v>72</v>
       </c>
       <c r="H436" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I436">
         <v>-2.2383053899999998</v>
@@ -21400,7 +21400,7 @@
         <v>53.276917570000002</v>
       </c>
       <c r="K436" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L436" s="2">
         <v>7</v>
@@ -21435,7 +21435,7 @@
         <v>78</v>
       </c>
       <c r="H437" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I437">
         <v>-6.2819428410000002</v>
@@ -21444,7 +21444,7 @@
         <v>31.844013100000002</v>
       </c>
       <c r="K437" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L437" s="2">
         <v>7</v>
@@ -21482,7 +21482,7 @@
         <v>79</v>
       </c>
       <c r="H438" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I438">
         <v>9.5727374110000003</v>
@@ -21491,7 +21491,7 @@
         <v>34.114399710000001</v>
       </c>
       <c r="K438" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L438" s="2">
         <v>7</v>
@@ -21526,7 +21526,7 @@
         <v>145</v>
       </c>
       <c r="H439" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I439">
         <v>-78.051116629999996</v>
@@ -21570,7 +21570,7 @@
         <v>184</v>
       </c>
       <c r="H440" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I440">
         <v>50.5490754</v>
@@ -21579,7 +21579,7 @@
         <v>26.044077470000001</v>
       </c>
       <c r="K440" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L440" s="2">
         <v>7</v>
@@ -21614,7 +21614,7 @@
         <v>186</v>
       </c>
       <c r="H441" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I441">
         <v>43.766062669999997</v>
@@ -21623,7 +21623,7 @@
         <v>33.05013795</v>
       </c>
       <c r="K441" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L441" s="2">
         <v>7</v>
@@ -21658,7 +21658,7 @@
         <v>187</v>
       </c>
       <c r="H442" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I442">
         <v>37.130247740000001</v>
@@ -21667,7 +21667,7 @@
         <v>30.653659730000001</v>
       </c>
       <c r="K442" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L442" s="2">
         <v>7</v>
@@ -21702,7 +21702,7 @@
         <v>188</v>
       </c>
       <c r="H443" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I443">
         <v>47.493050289999999</v>
@@ -21711,7 +21711,7 @@
         <v>29.539494680000001</v>
       </c>
       <c r="K443" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L443" s="2">
         <v>7</v>
@@ -21746,7 +21746,7 @@
         <v>189</v>
       </c>
       <c r="H444" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I444">
         <v>35.893917109999997</v>
@@ -21755,7 +21755,7 @@
         <v>33.921524580000003</v>
       </c>
       <c r="K444" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L444" s="2">
         <v>7</v>
@@ -21790,7 +21790,7 @@
         <v>190</v>
       </c>
       <c r="H445" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I445">
         <v>57.877434819999998</v>
@@ -21799,7 +21799,7 @@
         <v>21.988056140000001</v>
       </c>
       <c r="K445" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L445" s="2">
         <v>7</v>
@@ -21834,7 +21834,7 @@
         <v>191</v>
       </c>
       <c r="H446" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I446">
         <v>51.19152467</v>
@@ -21843,7 +21843,7 @@
         <v>25.283553789999999</v>
       </c>
       <c r="K446" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L446" s="2">
         <v>7</v>
@@ -21878,7 +21878,7 @@
         <v>192</v>
       </c>
       <c r="H447" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I447">
         <v>44.547633470000001</v>
@@ -21887,7 +21887,7 @@
         <v>24.12594211</v>
       </c>
       <c r="K447" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L447" s="2">
         <v>7</v>
@@ -21922,7 +21922,7 @@
         <v>193</v>
       </c>
       <c r="H448" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I448">
         <v>38.50466565</v>
@@ -21931,7 +21931,7 @@
         <v>35.016761760000001</v>
       </c>
       <c r="K448" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L448" s="2">
         <v>7</v>
@@ -21966,7 +21966,7 @@
         <v>194</v>
       </c>
       <c r="H449" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I449">
         <v>53.982791589999998</v>
@@ -21975,7 +21975,7 @@
         <v>23.433222189999999</v>
       </c>
       <c r="K449" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L449" s="2">
         <v>7</v>
@@ -22010,7 +22010,7 @@
         <v>197</v>
       </c>
       <c r="H450" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I450">
         <v>114.6288563</v>
@@ -22019,7 +22019,7 @@
         <v>4.4973698400000002</v>
       </c>
       <c r="K450" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L450" s="2">
         <v>7</v>
@@ -22054,7 +22054,7 @@
         <v>202</v>
       </c>
       <c r="H451" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I451">
         <v>116.83463140000001</v>
@@ -22063,7 +22063,7 @@
         <v>5.452415309</v>
       </c>
       <c r="K451" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L451" s="2">
         <v>7</v>
@@ -22098,7 +22098,7 @@
         <v>209</v>
       </c>
       <c r="H452" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I452">
         <v>127.1803633</v>
@@ -22107,7 +22107,7 @@
         <v>40.146264500000001</v>
       </c>
       <c r="K452" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L452" s="2">
         <v>7</v>
@@ -22142,7 +22142,7 @@
         <v>210</v>
       </c>
       <c r="H453" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I453">
         <v>127.8610254</v>
@@ -22151,7 +22151,7 @@
         <v>36.452010229999999</v>
       </c>
       <c r="K453" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L453" s="2">
         <v>7</v>
@@ -22186,7 +22186,7 @@
         <v>15</v>
       </c>
       <c r="H454" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I454">
         <v>54.197663480000003</v>
@@ -22195,7 +22195,7 @@
         <v>32.743708849999997</v>
       </c>
       <c r="K454" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L454" s="2">
         <v>10</v>
@@ -22230,7 +22230,7 @@
         <v>74</v>
       </c>
       <c r="H455" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I455">
         <v>-99.138303109999995</v>
@@ -22239,7 +22239,7 @@
         <v>39.527787099999998</v>
       </c>
       <c r="K455" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L455" s="2">
         <v>10</v>
@@ -22274,7 +22274,7 @@
         <v>84</v>
       </c>
       <c r="H456" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I456">
         <v>166.92312999999999</v>
@@ -22283,7 +22283,7 @@
         <v>-0.52874262299999997</v>
       </c>
       <c r="K456" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L456" s="2">
         <v>10</v>
@@ -22318,7 +22318,7 @@
         <v>88</v>
       </c>
       <c r="H457" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I457">
         <v>134.57338780000001</v>
@@ -22327,7 +22327,7 @@
         <v>7.5023075910000001</v>
       </c>
       <c r="K457" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L457" s="2">
         <v>10</v>
@@ -22362,7 +22362,7 @@
         <v>90</v>
       </c>
       <c r="H458" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I458">
         <v>-175.19599909999999</v>
@@ -22371,7 +22371,7 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K458" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L458" s="2">
         <v>10</v>
@@ -22406,7 +22406,7 @@
         <v>133</v>
       </c>
       <c r="H459" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I459">
         <v>46.203674769999999</v>
@@ -22450,7 +22450,7 @@
         <v>136</v>
       </c>
       <c r="H460" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I460">
         <v>29.956501589999998</v>
@@ -22459,7 +22459,7 @@
         <v>16.026430659999999</v>
       </c>
       <c r="K460" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L460" s="2">
         <v>10</v>
@@ -22494,7 +22494,7 @@
         <v>185</v>
       </c>
       <c r="H461" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I461">
         <v>35.256941220000002</v>
@@ -22503,7 +22503,7 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K461" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L461" s="2">
         <v>10</v>
@@ -22535,10 +22535,10 @@
         <v>344</v>
       </c>
       <c r="G462" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H462" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I462">
         <v>114.0266445</v>
@@ -22547,7 +22547,7 @@
         <v>22.417499339999999</v>
       </c>
       <c r="K462" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L462" s="2">
         <v>10</v>
@@ -22582,7 +22582,7 @@
         <v>76</v>
       </c>
       <c r="H463" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I463">
         <v>2.6781642269999999</v>
@@ -22591,7 +22591,7 @@
         <v>28.15940032</v>
       </c>
       <c r="K463" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L463" s="2">
         <v>7</v>
@@ -22626,7 +22626,7 @@
         <v>78</v>
       </c>
       <c r="H464" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I464">
         <v>-6.2819428410000002</v>
@@ -22635,7 +22635,7 @@
         <v>31.844013100000002</v>
       </c>
       <c r="K464" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L464" s="2">
         <v>7</v>
@@ -22673,7 +22673,7 @@
         <v>79</v>
       </c>
       <c r="H465" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I465">
         <v>9.5727374110000003</v>
@@ -22682,7 +22682,7 @@
         <v>34.114399710000001</v>
       </c>
       <c r="K465" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L465" s="2">
         <v>7</v>
@@ -22717,7 +22717,7 @@
         <v>125</v>
       </c>
       <c r="H466" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I466">
         <v>9.4001678769999995</v>
@@ -22761,7 +22761,7 @@
         <v>184</v>
       </c>
       <c r="H467" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I467">
         <v>50.5490754</v>
@@ -22770,7 +22770,7 @@
         <v>26.044077470000001</v>
       </c>
       <c r="K467" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L467" s="2">
         <v>7</v>
@@ -22805,7 +22805,7 @@
         <v>190</v>
       </c>
       <c r="H468" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I468">
         <v>57.877434819999998</v>
@@ -22814,7 +22814,7 @@
         <v>21.988056140000001</v>
       </c>
       <c r="K468" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L468" s="2">
         <v>7</v>
@@ -22849,7 +22849,7 @@
         <v>191</v>
       </c>
       <c r="H469" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I469">
         <v>51.19152467</v>
@@ -22858,7 +22858,7 @@
         <v>25.283553789999999</v>
       </c>
       <c r="K469" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L469" s="2">
         <v>7</v>
@@ -22893,7 +22893,7 @@
         <v>193</v>
       </c>
       <c r="H470" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I470">
         <v>38.50466565</v>
@@ -22902,7 +22902,7 @@
         <v>35.016761760000001</v>
       </c>
       <c r="K470" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L470" s="2">
         <v>7</v>
@@ -22937,7 +22937,7 @@
         <v>15</v>
       </c>
       <c r="H471" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I471">
         <v>54.197663480000003</v>
@@ -22946,7 +22946,7 @@
         <v>32.743708849999997</v>
       </c>
       <c r="K471" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L471" s="2">
         <v>10</v>
@@ -22981,7 +22981,7 @@
         <v>74</v>
       </c>
       <c r="H472" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I472">
         <v>-99.138303109999995</v>
@@ -22990,7 +22990,7 @@
         <v>39.527787099999998</v>
       </c>
       <c r="K472" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L472" s="2">
         <v>10</v>
@@ -23025,7 +23025,7 @@
         <v>84</v>
       </c>
       <c r="H473" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I473">
         <v>166.92312999999999</v>
@@ -23034,7 +23034,7 @@
         <v>-0.52874262299999997</v>
       </c>
       <c r="K473" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L473" s="2">
         <v>10</v>
@@ -23069,7 +23069,7 @@
         <v>88</v>
       </c>
       <c r="H474" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I474">
         <v>134.57338780000001</v>
@@ -23078,7 +23078,7 @@
         <v>7.5023075910000001</v>
       </c>
       <c r="K474" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L474" s="2">
         <v>10</v>
@@ -23113,7 +23113,7 @@
         <v>90</v>
       </c>
       <c r="H475" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I475">
         <v>-175.19599909999999</v>
@@ -23122,7 +23122,7 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K475" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L475" s="2">
         <v>10</v>
@@ -23157,7 +23157,7 @@
         <v>133</v>
       </c>
       <c r="H476" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I476">
         <v>46.203674769999999</v>
@@ -23201,7 +23201,7 @@
         <v>136</v>
       </c>
       <c r="H477" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I477">
         <v>29.956501589999998</v>
@@ -23210,7 +23210,7 @@
         <v>16.026430659999999</v>
       </c>
       <c r="K477" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L477" s="2">
         <v>10</v>
@@ -23245,7 +23245,7 @@
         <v>185</v>
       </c>
       <c r="H478" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I478">
         <v>35.256941220000002</v>
@@ -23254,7 +23254,7 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K478" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L478" s="2">
         <v>10</v>
@@ -23286,10 +23286,10 @@
         <v>344</v>
       </c>
       <c r="G479" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H479" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I479">
         <v>114.0266445</v>
@@ -23298,7 +23298,7 @@
         <v>22.417499339999999</v>
       </c>
       <c r="K479" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L479" s="2">
         <v>10</v>
@@ -23333,7 +23333,7 @@
         <v>12</v>
       </c>
       <c r="H480" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I480">
         <v>79.3608464</v>
@@ -23342,7 +23342,7 @@
         <v>22.346420739999999</v>
       </c>
       <c r="K480" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L480" s="2">
         <v>7</v>
@@ -23380,7 +23380,7 @@
         <v>26</v>
       </c>
       <c r="H481" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I481">
         <v>134.34994119999999</v>
@@ -23389,7 +23389,7 @@
         <v>-25.577172019999999</v>
       </c>
       <c r="K481" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L481" s="2">
         <v>7</v>
@@ -23424,7 +23424,7 @@
         <v>38</v>
       </c>
       <c r="H482" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I482">
         <v>2.4572881290000002</v>
@@ -23433,7 +23433,7 @@
         <v>46.626608609999998</v>
       </c>
       <c r="K482" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L482" s="2">
         <v>7</v>
@@ -23468,7 +23468,7 @@
         <v>43</v>
       </c>
       <c r="H483" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I483">
         <v>-7.1214252719999998</v>
@@ -23477,7 +23477,7 @@
         <v>53.252740539999998</v>
       </c>
       <c r="K483" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L483" s="2">
         <v>7</v>
@@ -23512,7 +23512,7 @@
         <v>45</v>
       </c>
       <c r="H484" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I484">
         <v>34.622779919999999</v>
@@ -23521,7 +23521,7 @@
         <v>31.061645519999999</v>
       </c>
       <c r="K484" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L484" s="2">
         <v>7</v>
@@ -23556,7 +23556,7 @@
         <v>49</v>
       </c>
       <c r="H485" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I485">
         <v>9.5529850189999994</v>
@@ -23565,7 +23565,7 @@
         <v>47.141670050000002</v>
       </c>
       <c r="K485" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L485" s="2">
         <v>7</v>
@@ -23600,7 +23600,7 @@
         <v>52</v>
       </c>
       <c r="H486" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I486">
         <v>14.44617519</v>
@@ -23609,7 +23609,7 @@
         <v>35.891942749999998</v>
       </c>
       <c r="K486" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L486" s="2">
         <v>7</v>
@@ -23644,7 +23644,7 @@
         <v>53</v>
       </c>
       <c r="H487" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I487">
         <v>7.4242148139999999</v>
@@ -23653,7 +23653,7 @@
         <v>43.735329180000001</v>
       </c>
       <c r="K487" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L487" s="2">
         <v>7</v>
@@ -23688,7 +23688,7 @@
         <v>57</v>
       </c>
       <c r="H488" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I488">
         <v>170.47556729999999</v>
@@ -23697,7 +23697,7 @@
         <v>-43.987215679999998</v>
       </c>
       <c r="K488" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L488" s="2">
         <v>7</v>
@@ -23732,7 +23732,7 @@
         <v>67</v>
       </c>
       <c r="H489" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I489">
         <v>-3.5540782960000001</v>
@@ -23741,7 +23741,7 @@
         <v>40.392114720000002</v>
       </c>
       <c r="K489" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L489" s="2">
         <v>7</v>
@@ -23779,7 +23779,7 @@
         <v>69</v>
       </c>
       <c r="H490" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I490">
         <v>8.2231579999999997</v>
@@ -23788,7 +23788,7 @@
         <v>46.96617097</v>
       </c>
       <c r="K490" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L490" s="2">
         <v>7</v>
@@ -23823,7 +23823,7 @@
         <v>72</v>
       </c>
       <c r="H491" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I491">
         <v>-2.2383053899999998</v>
@@ -23832,7 +23832,7 @@
         <v>53.276917570000002</v>
       </c>
       <c r="K491" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L491" s="2">
         <v>7</v>
@@ -23867,7 +23867,7 @@
         <v>78</v>
       </c>
       <c r="H492" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I492">
         <v>-6.2819428410000002</v>
@@ -23876,7 +23876,7 @@
         <v>31.844013100000002</v>
       </c>
       <c r="K492" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L492" s="2">
         <v>7</v>
@@ -23914,7 +23914,7 @@
         <v>86</v>
       </c>
       <c r="H493" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I493">
         <v>158.22521599999999</v>
@@ -23923,7 +23923,7 @@
         <v>6.8806700919999999</v>
       </c>
       <c r="K493" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L493" s="2">
         <v>7</v>
@@ -23958,7 +23958,7 @@
         <v>125</v>
       </c>
       <c r="H494" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I494">
         <v>9.4001678769999995</v>
@@ -24002,7 +24002,7 @@
         <v>164</v>
       </c>
       <c r="H495" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I495">
         <v>-102.5148166</v>
@@ -24049,7 +24049,7 @@
         <v>191</v>
       </c>
       <c r="H496" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I496">
         <v>51.19152467</v>
@@ -24058,7 +24058,7 @@
         <v>25.283553789999999</v>
       </c>
       <c r="K496" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L496" s="2">
         <v>7</v>
@@ -24093,7 +24093,7 @@
         <v>194</v>
       </c>
       <c r="H497" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I497">
         <v>53.982791589999998</v>
@@ -24102,7 +24102,7 @@
         <v>23.433222189999999</v>
       </c>
       <c r="K497" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L497" s="2">
         <v>7</v>
@@ -24137,7 +24137,7 @@
         <v>202</v>
       </c>
       <c r="H498" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I498">
         <v>116.83463140000001</v>
@@ -24146,7 +24146,7 @@
         <v>5.452415309</v>
       </c>
       <c r="K498" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L498" s="2">
         <v>7</v>
